--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q856"/>
+  <dimension ref="A1:R860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>1</v>
       </c>
+      <c r="R176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>1</v>
       </c>
+      <c r="R209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>1</v>
       </c>
+      <c r="R221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>1</v>
       </c>
+      <c r="R251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>2</v>
       </c>
+      <c r="R286" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>1</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>2</v>
       </c>
+      <c r="R330" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>2</v>
       </c>
+      <c r="R354" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>2</v>
       </c>
+      <c r="R373" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>1</v>
       </c>
+      <c r="R387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -21087,6 +22253,9 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -21140,6 +22309,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -21193,6 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -21246,6 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -21299,6 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -21352,6 +22533,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -21405,6 +22589,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -21458,6 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -21511,6 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -21564,6 +22757,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -21617,6 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -21670,6 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -21723,6 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -21776,6 +22981,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21829,6 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21882,6 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21935,6 +23149,9 @@
       <c r="Q405" t="n">
         <v>2</v>
       </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21988,6 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -22041,6 +23261,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -22094,6 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -22147,6 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -22200,6 +23429,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -22253,6 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -22306,6 +23541,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -22359,6 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -22412,6 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -22465,6 +23709,9 @@
       <c r="Q415" t="n">
         <v>0</v>
       </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -22518,6 +23765,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -22571,6 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -22624,6 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -22677,6 +23933,9 @@
       <c r="Q419" t="n">
         <v>2</v>
       </c>
+      <c r="R419" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -22730,6 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -22783,6 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22836,6 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22889,6 +24157,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22942,6 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22995,6 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -23048,6 +24325,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -23101,6 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -23154,6 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -23207,6 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -23260,6 +24549,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -23313,6 +24605,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -23366,6 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -23419,6 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -23472,6 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -23525,6 +24829,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -23578,6 +24885,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -23631,6 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -23684,6 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -23737,6 +25053,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -23790,6 +25109,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -23843,6 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -23896,6 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -23949,6 +25277,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -24002,6 +25333,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -24055,6 +25389,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -24108,6 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -24161,6 +25501,9 @@
       <c r="Q447" t="n">
         <v>1</v>
       </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -24214,6 +25557,9 @@
       <c r="Q448" t="n">
         <v>0</v>
       </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -24267,6 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -24320,6 +25669,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -24373,6 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -24426,6 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -24479,6 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -24532,6 +25893,9 @@
       <c r="Q454" t="n">
         <v>2</v>
       </c>
+      <c r="R454" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -24585,6 +25949,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -24638,6 +26005,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -24691,6 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -24744,6 +26117,9 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -24797,6 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -24850,6 +26229,9 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -24903,6 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -24956,6 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -25009,6 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -25062,6 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -25115,6 +26509,9 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -25168,6 +26565,9 @@
       <c r="Q466" t="n">
         <v>0</v>
       </c>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -25221,6 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -25274,6 +26677,9 @@
       <c r="Q468" t="n">
         <v>0</v>
       </c>
+      <c r="R468" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -25327,6 +26733,9 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -25380,6 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -25433,6 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -25486,6 +26901,9 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -25539,6 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -25592,6 +27013,9 @@
       <c r="Q474" t="n">
         <v>0</v>
       </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -25645,6 +27069,9 @@
       <c r="Q475" t="n">
         <v>0</v>
       </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -25698,6 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -25751,6 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -25804,6 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -25857,6 +27293,9 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -25910,6 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -25963,6 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -26016,6 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -26069,6 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -26122,6 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -26175,6 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -26228,6 +27685,9 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -26281,6 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
+      <c r="R487" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -26334,6 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -26387,6 +27853,9 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -26440,6 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -26493,6 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -26546,6 +28021,9 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -26599,6 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -26652,6 +28133,9 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
+      <c r="R494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -26705,6 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -26758,6 +28245,9 @@
       <c r="Q496" t="n">
         <v>0</v>
       </c>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -26811,6 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -26864,6 +28357,9 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -26917,6 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -26970,6 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
+      <c r="R500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -27023,6 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -27076,6 +28581,9 @@
       <c r="Q502" t="n">
         <v>0</v>
       </c>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -27129,6 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -27182,6 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -27235,6 +28749,9 @@
       <c r="Q505" t="n">
         <v>0</v>
       </c>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -27288,6 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -27341,6 +28861,9 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -27394,6 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -27447,6 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -27500,6 +29029,9 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -27553,6 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -27606,6 +29141,9 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -27659,6 +29197,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -27712,6 +29253,9 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
+      <c r="R514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -27765,6 +29309,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -27818,6 +29365,9 @@
       <c r="Q516" t="n">
         <v>0</v>
       </c>
+      <c r="R516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -27871,6 +29421,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -27924,6 +29477,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -27977,6 +29533,9 @@
       <c r="Q519" t="n">
         <v>0</v>
       </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -28030,6 +29589,9 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
+      <c r="R520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -28083,6 +29645,9 @@
       <c r="Q521" t="n">
         <v>0</v>
       </c>
+      <c r="R521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -28136,6 +29701,9 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -28189,6 +29757,9 @@
       <c r="Q523" t="n">
         <v>0</v>
       </c>
+      <c r="R523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -28242,6 +29813,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -28295,6 +29869,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -28348,6 +29925,9 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -28401,6 +29981,9 @@
       <c r="Q527" t="n">
         <v>0</v>
       </c>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -28454,6 +30037,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -28507,6 +30093,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -28560,6 +30149,9 @@
       <c r="Q530" t="n">
         <v>0</v>
       </c>
+      <c r="R530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -28613,6 +30205,9 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -28666,6 +30261,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -28719,6 +30317,9 @@
       <c r="Q533" t="n">
         <v>0</v>
       </c>
+      <c r="R533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -28772,6 +30373,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -28825,6 +30429,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -28878,6 +30485,9 @@
       <c r="Q536" t="n">
         <v>0</v>
       </c>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -28931,6 +30541,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -28984,6 +30597,9 @@
       <c r="Q538" t="n">
         <v>0</v>
       </c>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -29037,6 +30653,9 @@
       <c r="Q539" t="n">
         <v>1</v>
       </c>
+      <c r="R539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -29090,6 +30709,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -29143,6 +30765,9 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -29196,6 +30821,9 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -29249,6 +30877,9 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -29302,6 +30933,9 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -29355,6 +30989,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -29408,6 +31045,9 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -29461,6 +31101,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -29514,6 +31157,9 @@
       <c r="Q548" t="n">
         <v>0</v>
       </c>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -29567,6 +31213,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -29620,6 +31269,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -29673,6 +31325,9 @@
       <c r="Q551" t="n">
         <v>0</v>
       </c>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -29726,6 +31381,9 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -29779,6 +31437,9 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -29832,6 +31493,9 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -29885,6 +31549,9 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -29938,6 +31605,9 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -29991,6 +31661,9 @@
       <c r="Q557" t="n">
         <v>0</v>
       </c>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -30044,6 +31717,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -30097,6 +31773,9 @@
       <c r="Q559" t="n">
         <v>0</v>
       </c>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -30150,6 +31829,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -30203,6 +31885,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -30256,6 +31941,9 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -30309,6 +31997,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -30362,6 +32053,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -30415,6 +32109,9 @@
       <c r="Q565" t="n">
         <v>1</v>
       </c>
+      <c r="R565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -30468,6 +32165,9 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -30521,6 +32221,9 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -30574,6 +32277,9 @@
       <c r="Q568" t="n">
         <v>0</v>
       </c>
+      <c r="R568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -30627,6 +32333,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -30680,6 +32389,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -30733,6 +32445,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -30786,6 +32501,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -30839,6 +32557,9 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -30892,6 +32613,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -30945,6 +32669,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -30998,6 +32725,9 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -31051,6 +32781,9 @@
       <c r="Q577" t="n">
         <v>0</v>
       </c>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -31104,6 +32837,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -31157,6 +32893,9 @@
       <c r="Q579" t="n">
         <v>1</v>
       </c>
+      <c r="R579" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -31210,6 +32949,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -31263,6 +33005,9 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -31316,6 +33061,9 @@
       <c r="Q582" t="n">
         <v>0</v>
       </c>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -31369,6 +33117,9 @@
       <c r="Q583" t="n">
         <v>0</v>
       </c>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -31422,6 +33173,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -31475,6 +33229,9 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -31528,6 +33285,9 @@
       <c r="Q586" t="n">
         <v>0</v>
       </c>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -31581,6 +33341,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -31634,6 +33397,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
+      <c r="R588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -31687,6 +33453,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -31740,6 +33509,9 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -31793,6 +33565,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -31846,6 +33621,9 @@
       <c r="Q592" t="n">
         <v>0</v>
       </c>
+      <c r="R592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -31899,6 +33677,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -31952,6 +33733,9 @@
       <c r="Q594" t="n">
         <v>0</v>
       </c>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -32005,6 +33789,9 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -32058,6 +33845,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -32111,6 +33901,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -32164,6 +33957,9 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -32217,6 +34013,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -32270,6 +34069,9 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -32323,6 +34125,9 @@
       <c r="Q601" t="n">
         <v>0</v>
       </c>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -32376,6 +34181,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -32429,6 +34237,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -32482,6 +34293,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -32535,6 +34349,9 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -32588,6 +34405,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -32641,6 +34461,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -32694,6 +34517,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -32747,6 +34573,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -32800,6 +34629,9 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -32853,6 +34685,9 @@
       <c r="Q611" t="n">
         <v>0</v>
       </c>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -32906,6 +34741,9 @@
       <c r="Q612" t="n">
         <v>0</v>
       </c>
+      <c r="R612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -32959,6 +34797,9 @@
       <c r="Q613" t="n">
         <v>0</v>
       </c>
+      <c r="R613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -33012,6 +34853,9 @@
       <c r="Q614" t="n">
         <v>0</v>
       </c>
+      <c r="R614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -33065,6 +34909,9 @@
       <c r="Q615" t="n">
         <v>0</v>
       </c>
+      <c r="R615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -33118,6 +34965,9 @@
       <c r="Q616" t="n">
         <v>0</v>
       </c>
+      <c r="R616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -33171,6 +35021,9 @@
       <c r="Q617" t="n">
         <v>0</v>
       </c>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -33224,6 +35077,9 @@
       <c r="Q618" t="n">
         <v>0</v>
       </c>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -33277,6 +35133,9 @@
       <c r="Q619" t="n">
         <v>0</v>
       </c>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -33330,6 +35189,9 @@
       <c r="Q620" t="n">
         <v>0</v>
       </c>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -33383,6 +35245,9 @@
       <c r="Q621" t="n">
         <v>0</v>
       </c>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -33436,6 +35301,9 @@
       <c r="Q622" t="n">
         <v>1</v>
       </c>
+      <c r="R622" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -33489,6 +35357,9 @@
       <c r="Q623" t="n">
         <v>0</v>
       </c>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -33542,6 +35413,9 @@
       <c r="Q624" t="n">
         <v>0</v>
       </c>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -33595,6 +35469,9 @@
       <c r="Q625" t="n">
         <v>0</v>
       </c>
+      <c r="R625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -33648,6 +35525,9 @@
       <c r="Q626" t="n">
         <v>0</v>
       </c>
+      <c r="R626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -33701,6 +35581,9 @@
       <c r="Q627" t="n">
         <v>0</v>
       </c>
+      <c r="R627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -33754,6 +35637,9 @@
       <c r="Q628" t="n">
         <v>0</v>
       </c>
+      <c r="R628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -33807,6 +35693,9 @@
       <c r="Q629" t="n">
         <v>0</v>
       </c>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -33860,6 +35749,9 @@
       <c r="Q630" t="n">
         <v>0</v>
       </c>
+      <c r="R630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -33913,6 +35805,9 @@
       <c r="Q631" t="n">
         <v>0</v>
       </c>
+      <c r="R631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -33966,6 +35861,9 @@
       <c r="Q632" t="n">
         <v>0</v>
       </c>
+      <c r="R632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -34019,6 +35917,9 @@
       <c r="Q633" t="n">
         <v>0</v>
       </c>
+      <c r="R633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -34072,6 +35973,9 @@
       <c r="Q634" t="n">
         <v>0</v>
       </c>
+      <c r="R634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -34125,6 +36029,9 @@
       <c r="Q635" t="n">
         <v>0</v>
       </c>
+      <c r="R635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -34178,6 +36085,9 @@
       <c r="Q636" t="n">
         <v>0</v>
       </c>
+      <c r="R636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -34231,6 +36141,9 @@
       <c r="Q637" t="n">
         <v>0</v>
       </c>
+      <c r="R637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -34284,6 +36197,9 @@
       <c r="Q638" t="n">
         <v>0</v>
       </c>
+      <c r="R638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -34337,6 +36253,9 @@
       <c r="Q639" t="n">
         <v>0</v>
       </c>
+      <c r="R639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -34390,6 +36309,9 @@
       <c r="Q640" t="n">
         <v>0</v>
       </c>
+      <c r="R640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -34443,6 +36365,9 @@
       <c r="Q641" t="n">
         <v>0</v>
       </c>
+      <c r="R641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -34496,6 +36421,9 @@
       <c r="Q642" t="n">
         <v>0</v>
       </c>
+      <c r="R642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -34549,6 +36477,9 @@
       <c r="Q643" t="n">
         <v>1</v>
       </c>
+      <c r="R643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -34602,6 +36533,9 @@
       <c r="Q644" t="n">
         <v>0</v>
       </c>
+      <c r="R644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -34655,6 +36589,9 @@
       <c r="Q645" t="n">
         <v>0</v>
       </c>
+      <c r="R645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -34708,6 +36645,9 @@
       <c r="Q646" t="n">
         <v>0</v>
       </c>
+      <c r="R646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -34761,6 +36701,9 @@
       <c r="Q647" t="n">
         <v>0</v>
       </c>
+      <c r="R647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -34814,6 +36757,9 @@
       <c r="Q648" t="n">
         <v>0</v>
       </c>
+      <c r="R648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -34867,6 +36813,9 @@
       <c r="Q649" t="n">
         <v>0</v>
       </c>
+      <c r="R649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -34920,6 +36869,9 @@
       <c r="Q650" t="n">
         <v>0</v>
       </c>
+      <c r="R650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -34973,6 +36925,9 @@
       <c r="Q651" t="n">
         <v>0</v>
       </c>
+      <c r="R651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -35026,6 +36981,9 @@
       <c r="Q652" t="n">
         <v>0</v>
       </c>
+      <c r="R652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -35079,6 +37037,9 @@
       <c r="Q653" t="n">
         <v>0</v>
       </c>
+      <c r="R653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -35132,6 +37093,9 @@
       <c r="Q654" t="n">
         <v>0</v>
       </c>
+      <c r="R654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -35185,6 +37149,9 @@
       <c r="Q655" t="n">
         <v>0</v>
       </c>
+      <c r="R655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -35238,6 +37205,9 @@
       <c r="Q656" t="n">
         <v>0</v>
       </c>
+      <c r="R656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -35291,6 +37261,9 @@
       <c r="Q657" t="n">
         <v>0</v>
       </c>
+      <c r="R657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -35344,6 +37317,9 @@
       <c r="Q658" t="n">
         <v>0</v>
       </c>
+      <c r="R658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -35397,6 +37373,9 @@
       <c r="Q659" t="n">
         <v>0</v>
       </c>
+      <c r="R659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -35450,6 +37429,9 @@
       <c r="Q660" t="n">
         <v>0</v>
       </c>
+      <c r="R660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -35503,6 +37485,9 @@
       <c r="Q661" t="n">
         <v>0</v>
       </c>
+      <c r="R661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -35556,6 +37541,9 @@
       <c r="Q662" t="n">
         <v>0</v>
       </c>
+      <c r="R662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -35609,6 +37597,9 @@
       <c r="Q663" t="n">
         <v>0</v>
       </c>
+      <c r="R663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -35662,6 +37653,9 @@
       <c r="Q664" t="n">
         <v>0</v>
       </c>
+      <c r="R664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -35715,6 +37709,9 @@
       <c r="Q665" t="n">
         <v>0</v>
       </c>
+      <c r="R665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -35768,6 +37765,9 @@
       <c r="Q666" t="n">
         <v>0</v>
       </c>
+      <c r="R666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -35821,6 +37821,9 @@
       <c r="Q667" t="n">
         <v>0</v>
       </c>
+      <c r="R667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -35874,6 +37877,9 @@
       <c r="Q668" t="n">
         <v>0</v>
       </c>
+      <c r="R668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -35927,6 +37933,9 @@
       <c r="Q669" t="n">
         <v>0</v>
       </c>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -35980,6 +37989,9 @@
       <c r="Q670" t="n">
         <v>0</v>
       </c>
+      <c r="R670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -36033,6 +38045,9 @@
       <c r="Q671" t="n">
         <v>0</v>
       </c>
+      <c r="R671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -36086,6 +38101,9 @@
       <c r="Q672" t="n">
         <v>0</v>
       </c>
+      <c r="R672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -36139,6 +38157,9 @@
       <c r="Q673" t="n">
         <v>0</v>
       </c>
+      <c r="R673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -36192,6 +38213,9 @@
       <c r="Q674" t="n">
         <v>0</v>
       </c>
+      <c r="R674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -36245,6 +38269,9 @@
       <c r="Q675" t="n">
         <v>0</v>
       </c>
+      <c r="R675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -36298,6 +38325,9 @@
       <c r="Q676" t="n">
         <v>0</v>
       </c>
+      <c r="R676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -36351,6 +38381,9 @@
       <c r="Q677" t="n">
         <v>0</v>
       </c>
+      <c r="R677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -36404,6 +38437,9 @@
       <c r="Q678" t="n">
         <v>0</v>
       </c>
+      <c r="R678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -36457,6 +38493,9 @@
       <c r="Q679" t="n">
         <v>0</v>
       </c>
+      <c r="R679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -36510,6 +38549,9 @@
       <c r="Q680" t="n">
         <v>0</v>
       </c>
+      <c r="R680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -36563,6 +38605,9 @@
       <c r="Q681" t="n">
         <v>0</v>
       </c>
+      <c r="R681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -36616,6 +38661,9 @@
       <c r="Q682" t="n">
         <v>0</v>
       </c>
+      <c r="R682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -36669,6 +38717,9 @@
       <c r="Q683" t="n">
         <v>0</v>
       </c>
+      <c r="R683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -36722,6 +38773,9 @@
       <c r="Q684" t="n">
         <v>0</v>
       </c>
+      <c r="R684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -36775,6 +38829,9 @@
       <c r="Q685" t="n">
         <v>0</v>
       </c>
+      <c r="R685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -36828,6 +38885,9 @@
       <c r="Q686" t="n">
         <v>0</v>
       </c>
+      <c r="R686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -36881,6 +38941,9 @@
       <c r="Q687" t="n">
         <v>0</v>
       </c>
+      <c r="R687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -36934,6 +38997,9 @@
       <c r="Q688" t="n">
         <v>0</v>
       </c>
+      <c r="R688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -36987,6 +39053,9 @@
       <c r="Q689" t="n">
         <v>0</v>
       </c>
+      <c r="R689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -37040,6 +39109,9 @@
       <c r="Q690" t="n">
         <v>0</v>
       </c>
+      <c r="R690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -37093,6 +39165,9 @@
       <c r="Q691" t="n">
         <v>0</v>
       </c>
+      <c r="R691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -37146,6 +39221,9 @@
       <c r="Q692" t="n">
         <v>0</v>
       </c>
+      <c r="R692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -37199,6 +39277,9 @@
       <c r="Q693" t="n">
         <v>0</v>
       </c>
+      <c r="R693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -37252,6 +39333,9 @@
       <c r="Q694" t="n">
         <v>0</v>
       </c>
+      <c r="R694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -37305,6 +39389,9 @@
       <c r="Q695" t="n">
         <v>0</v>
       </c>
+      <c r="R695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -37358,6 +39445,9 @@
       <c r="Q696" t="n">
         <v>0</v>
       </c>
+      <c r="R696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
@@ -37411,6 +39501,9 @@
       <c r="Q697" t="n">
         <v>0</v>
       </c>
+      <c r="R697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -37464,6 +39557,9 @@
       <c r="Q698" t="n">
         <v>0</v>
       </c>
+      <c r="R698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -37517,6 +39613,9 @@
       <c r="Q699" t="n">
         <v>0</v>
       </c>
+      <c r="R699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -37570,6 +39669,9 @@
       <c r="Q700" t="n">
         <v>0</v>
       </c>
+      <c r="R700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -37623,6 +39725,9 @@
       <c r="Q701" t="n">
         <v>0</v>
       </c>
+      <c r="R701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
@@ -37676,6 +39781,9 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
+      <c r="R702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -37729,6 +39837,9 @@
       <c r="Q703" t="n">
         <v>0</v>
       </c>
+      <c r="R703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -37782,6 +39893,9 @@
       <c r="Q704" t="n">
         <v>0</v>
       </c>
+      <c r="R704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -37835,6 +39949,9 @@
       <c r="Q705" t="n">
         <v>0</v>
       </c>
+      <c r="R705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -37888,6 +40005,9 @@
       <c r="Q706" t="n">
         <v>0</v>
       </c>
+      <c r="R706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
@@ -37941,6 +40061,9 @@
       <c r="Q707" t="n">
         <v>0</v>
       </c>
+      <c r="R707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -37994,6 +40117,9 @@
       <c r="Q708" t="n">
         <v>0</v>
       </c>
+      <c r="R708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -38047,6 +40173,9 @@
       <c r="Q709" t="n">
         <v>0</v>
       </c>
+      <c r="R709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -38100,6 +40229,9 @@
       <c r="Q710" t="n">
         <v>0</v>
       </c>
+      <c r="R710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -38153,6 +40285,9 @@
       <c r="Q711" t="n">
         <v>0</v>
       </c>
+      <c r="R711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
@@ -38206,6 +40341,9 @@
       <c r="Q712" t="n">
         <v>0</v>
       </c>
+      <c r="R712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -38259,6 +40397,9 @@
       <c r="Q713" t="n">
         <v>0</v>
       </c>
+      <c r="R713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -38312,6 +40453,9 @@
       <c r="Q714" t="n">
         <v>0</v>
       </c>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -38365,6 +40509,9 @@
       <c r="Q715" t="n">
         <v>0</v>
       </c>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
@@ -38418,6 +40565,9 @@
       <c r="Q716" t="n">
         <v>0</v>
       </c>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -38471,6 +40621,9 @@
       <c r="Q717" t="n">
         <v>0</v>
       </c>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
@@ -38524,6 +40677,9 @@
       <c r="Q718" t="n">
         <v>0</v>
       </c>
+      <c r="R718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
@@ -38577,6 +40733,9 @@
       <c r="Q719" t="n">
         <v>0</v>
       </c>
+      <c r="R719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
@@ -38630,6 +40789,9 @@
       <c r="Q720" t="n">
         <v>0</v>
       </c>
+      <c r="R720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
@@ -38683,6 +40845,9 @@
       <c r="Q721" t="n">
         <v>0</v>
       </c>
+      <c r="R721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
@@ -38736,6 +40901,9 @@
       <c r="Q722" t="n">
         <v>0</v>
       </c>
+      <c r="R722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -38789,6 +40957,9 @@
       <c r="Q723" t="n">
         <v>0</v>
       </c>
+      <c r="R723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -38842,6 +41013,9 @@
       <c r="Q724" t="n">
         <v>0</v>
       </c>
+      <c r="R724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -38895,6 +41069,9 @@
       <c r="Q725" t="n">
         <v>0</v>
       </c>
+      <c r="R725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
@@ -38948,6 +41125,9 @@
       <c r="Q726" t="n">
         <v>0</v>
       </c>
+      <c r="R726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -39001,6 +41181,9 @@
       <c r="Q727" t="n">
         <v>0</v>
       </c>
+      <c r="R727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -39054,6 +41237,9 @@
       <c r="Q728" t="n">
         <v>0</v>
       </c>
+      <c r="R728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -39107,6 +41293,9 @@
       <c r="Q729" t="n">
         <v>0</v>
       </c>
+      <c r="R729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -39160,6 +41349,9 @@
       <c r="Q730" t="n">
         <v>0</v>
       </c>
+      <c r="R730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
@@ -39213,6 +41405,9 @@
       <c r="Q731" t="n">
         <v>0</v>
       </c>
+      <c r="R731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -39266,6 +41461,9 @@
       <c r="Q732" t="n">
         <v>0</v>
       </c>
+      <c r="R732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -39319,6 +41517,9 @@
       <c r="Q733" t="n">
         <v>0</v>
       </c>
+      <c r="R733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -39372,6 +41573,9 @@
       <c r="Q734" t="n">
         <v>0</v>
       </c>
+      <c r="R734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -39425,6 +41629,9 @@
       <c r="Q735" t="n">
         <v>0</v>
       </c>
+      <c r="R735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
@@ -39478,6 +41685,9 @@
       <c r="Q736" t="n">
         <v>0</v>
       </c>
+      <c r="R736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -39531,6 +41741,9 @@
       <c r="Q737" t="n">
         <v>0</v>
       </c>
+      <c r="R737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -39584,6 +41797,9 @@
       <c r="Q738" t="n">
         <v>0</v>
       </c>
+      <c r="R738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -39637,6 +41853,9 @@
       <c r="Q739" t="n">
         <v>0</v>
       </c>
+      <c r="R739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -39690,6 +41909,9 @@
       <c r="Q740" t="n">
         <v>0</v>
       </c>
+      <c r="R740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
@@ -39743,6 +41965,9 @@
       <c r="Q741" t="n">
         <v>0</v>
       </c>
+      <c r="R741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -39796,6 +42021,9 @@
       <c r="Q742" t="n">
         <v>0</v>
       </c>
+      <c r="R742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -39849,6 +42077,9 @@
       <c r="Q743" t="n">
         <v>0</v>
       </c>
+      <c r="R743" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -39902,6 +42133,9 @@
       <c r="Q744" t="n">
         <v>0</v>
       </c>
+      <c r="R744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
@@ -39955,6 +42189,9 @@
       <c r="Q745" t="n">
         <v>0</v>
       </c>
+      <c r="R745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -40008,6 +42245,9 @@
       <c r="Q746" t="n">
         <v>0</v>
       </c>
+      <c r="R746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
@@ -40061,6 +42301,9 @@
       <c r="Q747" t="n">
         <v>0</v>
       </c>
+      <c r="R747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
@@ -40114,6 +42357,9 @@
       <c r="Q748" t="n">
         <v>0</v>
       </c>
+      <c r="R748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
@@ -40167,6 +42413,9 @@
       <c r="Q749" t="n">
         <v>0</v>
       </c>
+      <c r="R749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
@@ -40220,6 +42469,9 @@
       <c r="Q750" t="n">
         <v>0</v>
       </c>
+      <c r="R750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
@@ -40273,6 +42525,9 @@
       <c r="Q751" t="n">
         <v>0</v>
       </c>
+      <c r="R751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
@@ -40326,6 +42581,9 @@
       <c r="Q752" t="n">
         <v>0</v>
       </c>
+      <c r="R752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
@@ -40379,6 +42637,9 @@
       <c r="Q753" t="n">
         <v>0</v>
       </c>
+      <c r="R753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
@@ -40432,6 +42693,9 @@
       <c r="Q754" t="n">
         <v>0</v>
       </c>
+      <c r="R754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
@@ -40485,6 +42749,9 @@
       <c r="Q755" t="n">
         <v>0</v>
       </c>
+      <c r="R755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
@@ -40538,6 +42805,9 @@
       <c r="Q756" t="n">
         <v>0</v>
       </c>
+      <c r="R756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
@@ -40591,6 +42861,9 @@
       <c r="Q757" t="n">
         <v>0</v>
       </c>
+      <c r="R757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
@@ -40644,6 +42917,9 @@
       <c r="Q758" t="n">
         <v>0</v>
       </c>
+      <c r="R758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
@@ -40697,6 +42973,9 @@
       <c r="Q759" t="n">
         <v>0</v>
       </c>
+      <c r="R759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
@@ -40750,6 +43029,9 @@
       <c r="Q760" t="n">
         <v>0</v>
       </c>
+      <c r="R760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
@@ -40803,6 +43085,9 @@
       <c r="Q761" t="n">
         <v>0</v>
       </c>
+      <c r="R761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
@@ -40856,6 +43141,9 @@
       <c r="Q762" t="n">
         <v>0</v>
       </c>
+      <c r="R762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
@@ -40909,6 +43197,9 @@
       <c r="Q763" t="n">
         <v>0</v>
       </c>
+      <c r="R763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
@@ -40962,6 +43253,9 @@
       <c r="Q764" t="n">
         <v>0</v>
       </c>
+      <c r="R764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
@@ -41015,6 +43309,9 @@
       <c r="Q765" t="n">
         <v>0</v>
       </c>
+      <c r="R765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
@@ -41068,6 +43365,9 @@
       <c r="Q766" t="n">
         <v>0</v>
       </c>
+      <c r="R766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
@@ -41121,6 +43421,9 @@
       <c r="Q767" t="n">
         <v>0</v>
       </c>
+      <c r="R767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
@@ -41174,6 +43477,9 @@
       <c r="Q768" t="n">
         <v>0</v>
       </c>
+      <c r="R768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
@@ -41227,6 +43533,9 @@
       <c r="Q769" t="n">
         <v>0</v>
       </c>
+      <c r="R769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
@@ -41280,6 +43589,9 @@
       <c r="Q770" t="n">
         <v>1</v>
       </c>
+      <c r="R770" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
@@ -41333,6 +43645,9 @@
       <c r="Q771" t="n">
         <v>0</v>
       </c>
+      <c r="R771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
@@ -41386,6 +43701,9 @@
       <c r="Q772" t="n">
         <v>0</v>
       </c>
+      <c r="R772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
@@ -41439,6 +43757,9 @@
       <c r="Q773" t="n">
         <v>0</v>
       </c>
+      <c r="R773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
@@ -41492,6 +43813,9 @@
       <c r="Q774" t="n">
         <v>0</v>
       </c>
+      <c r="R774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
@@ -41545,6 +43869,9 @@
       <c r="Q775" t="n">
         <v>0</v>
       </c>
+      <c r="R775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
@@ -41598,6 +43925,9 @@
       <c r="Q776" t="n">
         <v>0</v>
       </c>
+      <c r="R776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
@@ -41651,6 +43981,9 @@
       <c r="Q777" t="n">
         <v>0</v>
       </c>
+      <c r="R777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
@@ -41704,6 +44037,9 @@
       <c r="Q778" t="n">
         <v>0</v>
       </c>
+      <c r="R778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
@@ -41757,6 +44093,9 @@
       <c r="Q779" t="n">
         <v>0</v>
       </c>
+      <c r="R779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
@@ -41810,6 +44149,9 @@
       <c r="Q780" t="n">
         <v>0</v>
       </c>
+      <c r="R780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
@@ -41863,6 +44205,9 @@
       <c r="Q781" t="n">
         <v>0</v>
       </c>
+      <c r="R781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
@@ -41916,6 +44261,9 @@
       <c r="Q782" t="n">
         <v>0</v>
       </c>
+      <c r="R782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
@@ -41969,6 +44317,9 @@
       <c r="Q783" t="n">
         <v>0</v>
       </c>
+      <c r="R783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
@@ -42022,6 +44373,9 @@
       <c r="Q784" t="n">
         <v>0</v>
       </c>
+      <c r="R784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
@@ -42075,6 +44429,9 @@
       <c r="Q785" t="n">
         <v>0</v>
       </c>
+      <c r="R785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
@@ -42128,6 +44485,9 @@
       <c r="Q786" t="n">
         <v>0</v>
       </c>
+      <c r="R786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
@@ -42181,6 +44541,9 @@
       <c r="Q787" t="n">
         <v>0</v>
       </c>
+      <c r="R787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
@@ -42234,6 +44597,9 @@
       <c r="Q788" t="n">
         <v>0</v>
       </c>
+      <c r="R788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
@@ -42287,6 +44653,9 @@
       <c r="Q789" t="n">
         <v>0</v>
       </c>
+      <c r="R789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
@@ -42340,6 +44709,9 @@
       <c r="Q790" t="n">
         <v>0</v>
       </c>
+      <c r="R790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
@@ -42393,6 +44765,9 @@
       <c r="Q791" t="n">
         <v>0</v>
       </c>
+      <c r="R791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
@@ -42446,6 +44821,9 @@
       <c r="Q792" t="n">
         <v>0</v>
       </c>
+      <c r="R792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
@@ -42499,6 +44877,9 @@
       <c r="Q793" t="n">
         <v>0</v>
       </c>
+      <c r="R793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
@@ -42552,6 +44933,9 @@
       <c r="Q794" t="n">
         <v>0</v>
       </c>
+      <c r="R794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
@@ -42605,6 +44989,9 @@
       <c r="Q795" t="n">
         <v>0</v>
       </c>
+      <c r="R795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
@@ -42658,6 +45045,9 @@
       <c r="Q796" t="n">
         <v>0</v>
       </c>
+      <c r="R796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
@@ -42711,6 +45101,9 @@
       <c r="Q797" t="n">
         <v>0</v>
       </c>
+      <c r="R797" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
@@ -42764,6 +45157,9 @@
       <c r="Q798" t="n">
         <v>0</v>
       </c>
+      <c r="R798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
@@ -42817,6 +45213,9 @@
       <c r="Q799" t="n">
         <v>0</v>
       </c>
+      <c r="R799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
@@ -42870,6 +45269,9 @@
       <c r="Q800" t="n">
         <v>0</v>
       </c>
+      <c r="R800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
@@ -42923,6 +45325,9 @@
       <c r="Q801" t="n">
         <v>1</v>
       </c>
+      <c r="R801" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
@@ -42976,6 +45381,9 @@
       <c r="Q802" t="n">
         <v>1</v>
       </c>
+      <c r="R802" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
@@ -43029,6 +45437,9 @@
       <c r="Q803" t="n">
         <v>0</v>
       </c>
+      <c r="R803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
@@ -43082,6 +45493,9 @@
       <c r="Q804" t="n">
         <v>0</v>
       </c>
+      <c r="R804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
@@ -43135,6 +45549,9 @@
       <c r="Q805" t="n">
         <v>0</v>
       </c>
+      <c r="R805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
@@ -43188,6 +45605,9 @@
       <c r="Q806" t="n">
         <v>0</v>
       </c>
+      <c r="R806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
@@ -43241,6 +45661,9 @@
       <c r="Q807" t="n">
         <v>0</v>
       </c>
+      <c r="R807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
@@ -43294,6 +45717,9 @@
       <c r="Q808" t="n">
         <v>0</v>
       </c>
+      <c r="R808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
@@ -43347,6 +45773,9 @@
       <c r="Q809" t="n">
         <v>0</v>
       </c>
+      <c r="R809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
@@ -43400,6 +45829,9 @@
       <c r="Q810" t="n">
         <v>0</v>
       </c>
+      <c r="R810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
@@ -43453,6 +45885,9 @@
       <c r="Q811" t="n">
         <v>2</v>
       </c>
+      <c r="R811" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
@@ -43506,6 +45941,9 @@
       <c r="Q812" t="n">
         <v>0</v>
       </c>
+      <c r="R812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
@@ -43559,6 +45997,9 @@
       <c r="Q813" t="n">
         <v>0</v>
       </c>
+      <c r="R813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
@@ -43612,6 +46053,9 @@
       <c r="Q814" t="n">
         <v>0</v>
       </c>
+      <c r="R814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
@@ -43665,6 +46109,9 @@
       <c r="Q815" t="n">
         <v>0</v>
       </c>
+      <c r="R815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -43718,6 +46165,9 @@
       <c r="Q816" t="n">
         <v>0</v>
       </c>
+      <c r="R816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -43771,6 +46221,9 @@
       <c r="Q817" t="n">
         <v>0</v>
       </c>
+      <c r="R817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -43824,6 +46277,9 @@
       <c r="Q818" t="n">
         <v>0</v>
       </c>
+      <c r="R818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -43877,6 +46333,9 @@
       <c r="Q819" t="n">
         <v>0</v>
       </c>
+      <c r="R819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
@@ -43930,6 +46389,9 @@
       <c r="Q820" t="n">
         <v>0</v>
       </c>
+      <c r="R820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -43983,6 +46445,9 @@
       <c r="Q821" t="n">
         <v>0</v>
       </c>
+      <c r="R821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -44036,6 +46501,9 @@
       <c r="Q822" t="n">
         <v>0</v>
       </c>
+      <c r="R822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
@@ -44089,6 +46557,9 @@
       <c r="Q823" t="n">
         <v>0</v>
       </c>
+      <c r="R823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
@@ -44142,6 +46613,9 @@
       <c r="Q824" t="n">
         <v>1</v>
       </c>
+      <c r="R824" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -44195,6 +46669,9 @@
       <c r="Q825" t="n">
         <v>0</v>
       </c>
+      <c r="R825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
@@ -44248,6 +46725,9 @@
       <c r="Q826" t="n">
         <v>0</v>
       </c>
+      <c r="R826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -44301,6 +46781,9 @@
       <c r="Q827" t="n">
         <v>0</v>
       </c>
+      <c r="R827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -44354,6 +46837,9 @@
       <c r="Q828" t="n">
         <v>0</v>
       </c>
+      <c r="R828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -44407,6 +46893,9 @@
       <c r="Q829" t="n">
         <v>0</v>
       </c>
+      <c r="R829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -44460,6 +46949,9 @@
       <c r="Q830" t="n">
         <v>0</v>
       </c>
+      <c r="R830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -44513,6 +47005,9 @@
       <c r="Q831" t="n">
         <v>0</v>
       </c>
+      <c r="R831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
@@ -44566,6 +47061,9 @@
       <c r="Q832" t="n">
         <v>2</v>
       </c>
+      <c r="R832" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -44619,6 +47117,9 @@
       <c r="Q833" t="n">
         <v>0</v>
       </c>
+      <c r="R833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
@@ -44672,6 +47173,9 @@
       <c r="Q834" t="n">
         <v>0</v>
       </c>
+      <c r="R834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
@@ -44725,6 +47229,9 @@
       <c r="Q835" t="n">
         <v>0</v>
       </c>
+      <c r="R835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
@@ -44778,6 +47285,9 @@
       <c r="Q836" t="n">
         <v>0</v>
       </c>
+      <c r="R836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
@@ -44831,6 +47341,9 @@
       <c r="Q837" t="n">
         <v>0</v>
       </c>
+      <c r="R837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
@@ -44884,6 +47397,9 @@
       <c r="Q838" t="n">
         <v>0</v>
       </c>
+      <c r="R838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
@@ -44937,6 +47453,9 @@
       <c r="Q839" t="n">
         <v>0</v>
       </c>
+      <c r="R839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
@@ -44990,6 +47509,9 @@
       <c r="Q840" t="n">
         <v>0</v>
       </c>
+      <c r="R840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
@@ -45043,6 +47565,9 @@
       <c r="Q841" t="n">
         <v>0</v>
       </c>
+      <c r="R841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
@@ -45096,6 +47621,9 @@
       <c r="Q842" t="n">
         <v>0</v>
       </c>
+      <c r="R842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
@@ -45149,6 +47677,9 @@
       <c r="Q843" t="n">
         <v>0</v>
       </c>
+      <c r="R843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
@@ -45202,6 +47733,9 @@
       <c r="Q844" t="n">
         <v>0</v>
       </c>
+      <c r="R844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
@@ -45255,6 +47789,9 @@
       <c r="Q845" t="n">
         <v>0</v>
       </c>
+      <c r="R845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -45308,6 +47845,9 @@
       <c r="Q846" t="n">
         <v>0</v>
       </c>
+      <c r="R846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
@@ -45361,6 +47901,9 @@
       <c r="Q847" t="n">
         <v>0</v>
       </c>
+      <c r="R847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
@@ -45414,6 +47957,9 @@
       <c r="Q848" t="n">
         <v>0</v>
       </c>
+      <c r="R848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -45467,6 +48013,9 @@
       <c r="Q849" t="n">
         <v>0</v>
       </c>
+      <c r="R849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -45520,6 +48069,9 @@
       <c r="Q850" t="n">
         <v>0</v>
       </c>
+      <c r="R850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -45573,6 +48125,9 @@
       <c r="Q851" t="n">
         <v>0</v>
       </c>
+      <c r="R851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -45626,6 +48181,9 @@
       <c r="Q852" t="n">
         <v>0</v>
       </c>
+      <c r="R852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
@@ -45679,6 +48237,9 @@
       <c r="Q853" t="n">
         <v>0</v>
       </c>
+      <c r="R853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -45732,6 +48293,9 @@
       <c r="Q854" t="n">
         <v>0</v>
       </c>
+      <c r="R854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -45785,6 +48349,9 @@
       <c r="Q855" t="n">
         <v>0</v>
       </c>
+      <c r="R855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -45838,6 +48405,225 @@
       <c r="Q856" t="n">
         <v>0</v>
       </c>
+      <c r="R856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1046.599975585938</v>
+      </c>
+      <c r="C857" t="n">
+        <v>1046.650024414062</v>
+      </c>
+      <c r="D857" t="n">
+        <v>1036.550048828125</v>
+      </c>
+      <c r="E857" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F857" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G857" t="n">
+        <v>121256</v>
+      </c>
+      <c r="H857" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I857" t="n">
+        <v>6</v>
+      </c>
+      <c r="J857" t="n">
+        <v>3</v>
+      </c>
+      <c r="K857" t="n">
+        <v>10</v>
+      </c>
+      <c r="L857" t="n">
+        <v>15</v>
+      </c>
+      <c r="M857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N857" t="n">
+        <v>23</v>
+      </c>
+      <c r="O857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C858" t="n">
+        <v>1044</v>
+      </c>
+      <c r="D858" t="n">
+        <v>1038</v>
+      </c>
+      <c r="E858" t="n">
+        <v>1039.150024414062</v>
+      </c>
+      <c r="F858" t="n">
+        <v>1039.150024414062</v>
+      </c>
+      <c r="G858" t="n">
+        <v>75236</v>
+      </c>
+      <c r="H858" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I858" t="n">
+        <v>6</v>
+      </c>
+      <c r="J858" t="n">
+        <v>3</v>
+      </c>
+      <c r="K858" t="n">
+        <v>11</v>
+      </c>
+      <c r="L858" t="n">
+        <v>15</v>
+      </c>
+      <c r="M858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N858" t="n">
+        <v>23</v>
+      </c>
+      <c r="O858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B859" t="n">
+        <v>1039.5</v>
+      </c>
+      <c r="C859" t="n">
+        <v>1040.949951171875</v>
+      </c>
+      <c r="D859" t="n">
+        <v>1034.949951171875</v>
+      </c>
+      <c r="E859" t="n">
+        <v>1036</v>
+      </c>
+      <c r="F859" t="n">
+        <v>1036</v>
+      </c>
+      <c r="G859" t="n">
+        <v>100749</v>
+      </c>
+      <c r="H859" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I859" t="n">
+        <v>6</v>
+      </c>
+      <c r="J859" t="n">
+        <v>3</v>
+      </c>
+      <c r="K859" t="n">
+        <v>12</v>
+      </c>
+      <c r="L859" t="n">
+        <v>15</v>
+      </c>
+      <c r="M859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N859" t="n">
+        <v>23</v>
+      </c>
+      <c r="O859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B860" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C860" t="n">
+        <v>1036.949951171875</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1034.599975585938</v>
+      </c>
+      <c r="E860" t="n">
+        <v>1036.550048828125</v>
+      </c>
+      <c r="F860" t="n">
+        <v>1036.550048828125</v>
+      </c>
+      <c r="G860" t="n">
+        <v>70571</v>
+      </c>
+      <c r="H860" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I860" t="n">
+        <v>6</v>
+      </c>
+      <c r="J860" t="n">
+        <v>3</v>
+      </c>
+      <c r="K860" t="n">
+        <v>13</v>
+      </c>
+      <c r="L860" t="n">
+        <v>15</v>
+      </c>
+      <c r="M860" t="n">
+        <v>0</v>
+      </c>
+      <c r="N860" t="n">
+        <v>23</v>
+      </c>
+      <c r="O860" t="n">
+        <v>0</v>
+      </c>
+      <c r="P860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q860" t="n">
+        <v>0</v>
+      </c>
+      <c r="R860" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R860"/>
+  <dimension ref="A1:R862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48461,7 +48461,9 @@
       <c r="Q857" t="n">
         <v>0</v>
       </c>
-      <c r="R857" t="inlineStr"/>
+      <c r="R857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
@@ -48515,7 +48517,9 @@
       <c r="Q858" t="n">
         <v>0</v>
       </c>
-      <c r="R858" t="inlineStr"/>
+      <c r="R858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -48569,7 +48573,9 @@
       <c r="Q859" t="n">
         <v>0</v>
       </c>
-      <c r="R859" t="inlineStr"/>
+      <c r="R859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -48623,7 +48629,117 @@
       <c r="Q860" t="n">
         <v>0</v>
       </c>
-      <c r="R860" t="inlineStr"/>
+      <c r="R860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B861" t="n">
+        <v>1036.5</v>
+      </c>
+      <c r="C861" t="n">
+        <v>1036.599975585938</v>
+      </c>
+      <c r="D861" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="E861" t="n">
+        <v>1035.900024414062</v>
+      </c>
+      <c r="F861" t="n">
+        <v>1035.900024414062</v>
+      </c>
+      <c r="G861" t="n">
+        <v>96014</v>
+      </c>
+      <c r="H861" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I861" t="n">
+        <v>6</v>
+      </c>
+      <c r="J861" t="n">
+        <v>3</v>
+      </c>
+      <c r="K861" t="n">
+        <v>14</v>
+      </c>
+      <c r="L861" t="n">
+        <v>15</v>
+      </c>
+      <c r="M861" t="n">
+        <v>0</v>
+      </c>
+      <c r="N861" t="n">
+        <v>23</v>
+      </c>
+      <c r="O861" t="n">
+        <v>0</v>
+      </c>
+      <c r="P861" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q861" t="n">
+        <v>0</v>
+      </c>
+      <c r="R861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B862" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C862" t="n">
+        <v>1038.699951171875</v>
+      </c>
+      <c r="D862" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="E862" t="n">
+        <v>1035.5</v>
+      </c>
+      <c r="F862" t="n">
+        <v>1035.5</v>
+      </c>
+      <c r="G862" t="n">
+        <v>67107</v>
+      </c>
+      <c r="H862" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I862" t="n">
+        <v>6</v>
+      </c>
+      <c r="J862" t="n">
+        <v>3</v>
+      </c>
+      <c r="K862" t="n">
+        <v>15</v>
+      </c>
+      <c r="L862" t="n">
+        <v>15</v>
+      </c>
+      <c r="M862" t="n">
+        <v>0</v>
+      </c>
+      <c r="N862" t="n">
+        <v>23</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P862" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q862" t="n">
+        <v>0</v>
+      </c>
+      <c r="R862" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -48685,7 +48685,9 @@
       <c r="Q861" t="n">
         <v>0</v>
       </c>
-      <c r="R861" t="inlineStr"/>
+      <c r="R861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -48739,7 +48741,9 @@
       <c r="Q862" t="n">
         <v>0</v>
       </c>
-      <c r="R862" t="inlineStr"/>
+      <c r="R862" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R862"/>
+  <dimension ref="A1:R869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48397,7 +48397,7 @@
         <v>23</v>
       </c>
       <c r="O856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P856" t="n">
         <v>0</v>
@@ -48744,6 +48744,384 @@
       <c r="R862" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B863" t="n">
+        <v>1035.300048828125</v>
+      </c>
+      <c r="C863" t="n">
+        <v>1035.300048828125</v>
+      </c>
+      <c r="D863" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E863" t="n">
+        <v>1025.949951171875</v>
+      </c>
+      <c r="F863" t="n">
+        <v>1025.949951171875</v>
+      </c>
+      <c r="G863" t="n">
+        <v>379564</v>
+      </c>
+      <c r="H863" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I863" t="n">
+        <v>6</v>
+      </c>
+      <c r="J863" t="n">
+        <v>4</v>
+      </c>
+      <c r="K863" t="n">
+        <v>9</v>
+      </c>
+      <c r="L863" t="n">
+        <v>15</v>
+      </c>
+      <c r="M863" t="n">
+        <v>0</v>
+      </c>
+      <c r="N863" t="n">
+        <v>23</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q863" t="n">
+        <v>0</v>
+      </c>
+      <c r="R863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B864" t="n">
+        <v>1025.949951171875</v>
+      </c>
+      <c r="C864" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E864" t="n">
+        <v>1004.450012207031</v>
+      </c>
+      <c r="F864" t="n">
+        <v>1004.450012207031</v>
+      </c>
+      <c r="G864" t="n">
+        <v>254132</v>
+      </c>
+      <c r="H864" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I864" t="n">
+        <v>6</v>
+      </c>
+      <c r="J864" t="n">
+        <v>4</v>
+      </c>
+      <c r="K864" t="n">
+        <v>10</v>
+      </c>
+      <c r="L864" t="n">
+        <v>15</v>
+      </c>
+      <c r="M864" t="n">
+        <v>0</v>
+      </c>
+      <c r="N864" t="n">
+        <v>23</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>0</v>
+      </c>
+      <c r="R864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B865" t="n">
+        <v>1004.349975585938</v>
+      </c>
+      <c r="C865" t="n">
+        <v>1013.700012207031</v>
+      </c>
+      <c r="D865" t="n">
+        <v>996.4000244140625</v>
+      </c>
+      <c r="E865" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="F865" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="G865" t="n">
+        <v>348552</v>
+      </c>
+      <c r="H865" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I865" t="n">
+        <v>6</v>
+      </c>
+      <c r="J865" t="n">
+        <v>4</v>
+      </c>
+      <c r="K865" t="n">
+        <v>11</v>
+      </c>
+      <c r="L865" t="n">
+        <v>15</v>
+      </c>
+      <c r="M865" t="n">
+        <v>0</v>
+      </c>
+      <c r="N865" t="n">
+        <v>23</v>
+      </c>
+      <c r="O865" t="n">
+        <v>0</v>
+      </c>
+      <c r="P865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>0</v>
+      </c>
+      <c r="R865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="B866" t="n">
+        <v>997.8499755859375</v>
+      </c>
+      <c r="C866" t="n">
+        <v>1014</v>
+      </c>
+      <c r="D866" t="n">
+        <v>982.2999877929688</v>
+      </c>
+      <c r="E866" t="n">
+        <v>1013.25</v>
+      </c>
+      <c r="F866" t="n">
+        <v>1013.25</v>
+      </c>
+      <c r="G866" t="n">
+        <v>320750</v>
+      </c>
+      <c r="H866" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I866" t="n">
+        <v>6</v>
+      </c>
+      <c r="J866" t="n">
+        <v>4</v>
+      </c>
+      <c r="K866" t="n">
+        <v>12</v>
+      </c>
+      <c r="L866" t="n">
+        <v>15</v>
+      </c>
+      <c r="M866" t="n">
+        <v>0</v>
+      </c>
+      <c r="N866" t="n">
+        <v>23</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>0</v>
+      </c>
+      <c r="R866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B867" t="n">
+        <v>1013.349975585938</v>
+      </c>
+      <c r="C867" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D867" t="n">
+        <v>1010.049987792969</v>
+      </c>
+      <c r="E867" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="F867" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="G867" t="n">
+        <v>198943</v>
+      </c>
+      <c r="H867" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I867" t="n">
+        <v>6</v>
+      </c>
+      <c r="J867" t="n">
+        <v>4</v>
+      </c>
+      <c r="K867" t="n">
+        <v>13</v>
+      </c>
+      <c r="L867" t="n">
+        <v>15</v>
+      </c>
+      <c r="M867" t="n">
+        <v>0</v>
+      </c>
+      <c r="N867" t="n">
+        <v>23</v>
+      </c>
+      <c r="O867" t="n">
+        <v>0</v>
+      </c>
+      <c r="P867" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>0</v>
+      </c>
+      <c r="R867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B868" t="n">
+        <v>1019.150024414062</v>
+      </c>
+      <c r="C868" t="n">
+        <v>1019.150024414062</v>
+      </c>
+      <c r="D868" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="E868" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="F868" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="G868" t="n">
+        <v>160161</v>
+      </c>
+      <c r="H868" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I868" t="n">
+        <v>6</v>
+      </c>
+      <c r="J868" t="n">
+        <v>4</v>
+      </c>
+      <c r="K868" t="n">
+        <v>14</v>
+      </c>
+      <c r="L868" t="n">
+        <v>15</v>
+      </c>
+      <c r="M868" t="n">
+        <v>0</v>
+      </c>
+      <c r="N868" t="n">
+        <v>23</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P868" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>0</v>
+      </c>
+      <c r="R868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45447.63541666666</v>
+      </c>
+      <c r="B869" t="n">
+        <v>1015.700012207031</v>
+      </c>
+      <c r="C869" t="n">
+        <v>1015.700012207031</v>
+      </c>
+      <c r="D869" t="n">
+        <v>1012.549987792969</v>
+      </c>
+      <c r="E869" t="n">
+        <v>1013.150024414062</v>
+      </c>
+      <c r="F869" t="n">
+        <v>1013.150024414062</v>
+      </c>
+      <c r="G869" t="n">
+        <v>8735</v>
+      </c>
+      <c r="H869" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I869" t="n">
+        <v>6</v>
+      </c>
+      <c r="J869" t="n">
+        <v>4</v>
+      </c>
+      <c r="K869" t="n">
+        <v>15</v>
+      </c>
+      <c r="L869" t="n">
+        <v>15</v>
+      </c>
+      <c r="M869" t="n">
+        <v>0</v>
+      </c>
+      <c r="N869" t="n">
+        <v>23</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>0</v>
+      </c>
+      <c r="R869" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q869"/>
+  <dimension ref="A1:R876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>1</v>
       </c>
+      <c r="R176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>1</v>
       </c>
+      <c r="R209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>1</v>
       </c>
+      <c r="R221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>1</v>
       </c>
+      <c r="R251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>2</v>
       </c>
+      <c r="R286" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>1</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>2</v>
       </c>
+      <c r="R330" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>2</v>
       </c>
+      <c r="R354" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>2</v>
       </c>
+      <c r="R373" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>1</v>
       </c>
+      <c r="R387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -21087,6 +22253,9 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -21140,6 +22309,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -21193,6 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -21246,6 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -21299,6 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -21352,6 +22533,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -21405,6 +22589,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -21458,6 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -21511,6 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -21564,6 +22757,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -21617,6 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -21670,6 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -21723,6 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -21776,6 +22981,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21829,6 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21882,6 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21935,6 +23149,9 @@
       <c r="Q405" t="n">
         <v>2</v>
       </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21988,6 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -22041,6 +23261,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -22094,6 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -22147,6 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -22200,6 +23429,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -22253,6 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -22306,6 +23541,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -22359,6 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -22412,6 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -22465,6 +23709,9 @@
       <c r="Q415" t="n">
         <v>0</v>
       </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -22518,6 +23765,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -22571,6 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -22624,6 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -22677,6 +23933,9 @@
       <c r="Q419" t="n">
         <v>2</v>
       </c>
+      <c r="R419" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -22730,6 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -22783,6 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22836,6 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22889,6 +24157,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22942,6 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22995,6 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -23048,6 +24325,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -23101,6 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -23154,6 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -23207,6 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -23260,6 +24549,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -23313,6 +24605,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -23366,6 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -23419,6 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -23472,6 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -23525,6 +24829,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -23578,6 +24885,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -23631,6 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -23684,6 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -23737,6 +25053,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -23790,6 +25109,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -23843,6 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -23896,6 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -23949,6 +25277,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -24002,6 +25333,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -24055,6 +25389,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -24108,6 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -24161,6 +25501,9 @@
       <c r="Q447" t="n">
         <v>1</v>
       </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -24214,6 +25557,9 @@
       <c r="Q448" t="n">
         <v>0</v>
       </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -24267,6 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -24320,6 +25669,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -24373,6 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -24426,6 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -24479,6 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -24532,6 +25893,9 @@
       <c r="Q454" t="n">
         <v>2</v>
       </c>
+      <c r="R454" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -24585,6 +25949,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -24638,6 +26005,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -24691,6 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -24744,6 +26117,9 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -24797,6 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -24850,6 +26229,9 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -24903,6 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -24956,6 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -25009,6 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -25062,6 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -25115,6 +26509,9 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -25168,6 +26565,9 @@
       <c r="Q466" t="n">
         <v>0</v>
       </c>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -25221,6 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -25274,6 +26677,9 @@
       <c r="Q468" t="n">
         <v>0</v>
       </c>
+      <c r="R468" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -25327,6 +26733,9 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -25380,6 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -25433,6 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -25486,6 +26901,9 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -25539,6 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -25592,6 +27013,9 @@
       <c r="Q474" t="n">
         <v>0</v>
       </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -25645,6 +27069,9 @@
       <c r="Q475" t="n">
         <v>0</v>
       </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -25698,6 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -25751,6 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -25804,6 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -25857,6 +27293,9 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -25910,6 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -25963,6 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -26016,6 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -26069,6 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -26122,6 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -26175,6 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -26228,6 +27685,9 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -26281,6 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
+      <c r="R487" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -26334,6 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -26387,6 +27853,9 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -26440,6 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -26493,6 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -26546,6 +28021,9 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -26599,6 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -26652,6 +28133,9 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
+      <c r="R494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -26705,6 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -26758,6 +28245,9 @@
       <c r="Q496" t="n">
         <v>0</v>
       </c>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -26811,6 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -26864,6 +28357,9 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -26917,6 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -26970,6 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
+      <c r="R500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -27023,6 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -27076,6 +28581,9 @@
       <c r="Q502" t="n">
         <v>0</v>
       </c>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -27129,6 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -27182,6 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -27235,6 +28749,9 @@
       <c r="Q505" t="n">
         <v>0</v>
       </c>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -27288,6 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -27341,6 +28861,9 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -27394,6 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -27447,6 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -27500,6 +29029,9 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -27553,6 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -27606,6 +29141,9 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -27659,6 +29197,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -27712,6 +29253,9 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
+      <c r="R514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -27765,6 +29309,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -27818,6 +29365,9 @@
       <c r="Q516" t="n">
         <v>0</v>
       </c>
+      <c r="R516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -27871,6 +29421,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -27924,6 +29477,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -27977,6 +29533,9 @@
       <c r="Q519" t="n">
         <v>0</v>
       </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -28030,6 +29589,9 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
+      <c r="R520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -28083,6 +29645,9 @@
       <c r="Q521" t="n">
         <v>0</v>
       </c>
+      <c r="R521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -28136,6 +29701,9 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -28189,6 +29757,9 @@
       <c r="Q523" t="n">
         <v>0</v>
       </c>
+      <c r="R523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -28242,6 +29813,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -28295,6 +29869,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -28348,6 +29925,9 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -28401,6 +29981,9 @@
       <c r="Q527" t="n">
         <v>0</v>
       </c>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -28454,6 +30037,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -28507,6 +30093,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -28560,6 +30149,9 @@
       <c r="Q530" t="n">
         <v>0</v>
       </c>
+      <c r="R530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -28613,6 +30205,9 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -28666,6 +30261,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -28719,6 +30317,9 @@
       <c r="Q533" t="n">
         <v>0</v>
       </c>
+      <c r="R533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -28772,6 +30373,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -28825,6 +30429,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -28878,6 +30485,9 @@
       <c r="Q536" t="n">
         <v>0</v>
       </c>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -28931,6 +30541,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -28984,6 +30597,9 @@
       <c r="Q538" t="n">
         <v>0</v>
       </c>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -29037,6 +30653,9 @@
       <c r="Q539" t="n">
         <v>1</v>
       </c>
+      <c r="R539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -29090,6 +30709,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -29143,6 +30765,9 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -29196,6 +30821,9 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -29249,6 +30877,9 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -29302,6 +30933,9 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -29355,6 +30989,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -29408,6 +31045,9 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -29461,6 +31101,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -29514,6 +31157,9 @@
       <c r="Q548" t="n">
         <v>0</v>
       </c>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -29567,6 +31213,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -29620,6 +31269,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -29673,6 +31325,9 @@
       <c r="Q551" t="n">
         <v>0</v>
       </c>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -29726,6 +31381,9 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -29779,6 +31437,9 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -29832,6 +31493,9 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -29885,6 +31549,9 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -29938,6 +31605,9 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -29991,6 +31661,9 @@
       <c r="Q557" t="n">
         <v>0</v>
       </c>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -30044,6 +31717,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -30097,6 +31773,9 @@
       <c r="Q559" t="n">
         <v>0</v>
       </c>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -30150,6 +31829,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -30203,6 +31885,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -30256,6 +31941,9 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -30309,6 +31997,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -30362,6 +32053,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -30415,6 +32109,9 @@
       <c r="Q565" t="n">
         <v>1</v>
       </c>
+      <c r="R565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -30468,6 +32165,9 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -30521,6 +32221,9 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -30574,6 +32277,9 @@
       <c r="Q568" t="n">
         <v>0</v>
       </c>
+      <c r="R568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -30627,6 +32333,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -30680,6 +32389,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -30733,6 +32445,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -30786,6 +32501,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -30839,6 +32557,9 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -30892,6 +32613,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -30945,6 +32669,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -30998,6 +32725,9 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -31051,6 +32781,9 @@
       <c r="Q577" t="n">
         <v>0</v>
       </c>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -31104,6 +32837,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -31157,6 +32893,9 @@
       <c r="Q579" t="n">
         <v>1</v>
       </c>
+      <c r="R579" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -31210,6 +32949,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -31263,6 +33005,9 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -31316,6 +33061,9 @@
       <c r="Q582" t="n">
         <v>0</v>
       </c>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -31369,6 +33117,9 @@
       <c r="Q583" t="n">
         <v>0</v>
       </c>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -31422,6 +33173,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -31475,6 +33229,9 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -31528,6 +33285,9 @@
       <c r="Q586" t="n">
         <v>0</v>
       </c>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -31581,6 +33341,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -31634,6 +33397,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
+      <c r="R588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -31687,6 +33453,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -31740,6 +33509,9 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -31793,6 +33565,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -31846,6 +33621,9 @@
       <c r="Q592" t="n">
         <v>0</v>
       </c>
+      <c r="R592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -31899,6 +33677,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -31952,6 +33733,9 @@
       <c r="Q594" t="n">
         <v>0</v>
       </c>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -32005,6 +33789,9 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -32058,6 +33845,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -32111,6 +33901,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -32164,6 +33957,9 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -32217,6 +34013,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -32270,6 +34069,9 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -32323,6 +34125,9 @@
       <c r="Q601" t="n">
         <v>0</v>
       </c>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -32376,6 +34181,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -32429,6 +34237,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -32482,6 +34293,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -32535,6 +34349,9 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -32588,6 +34405,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -32641,6 +34461,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -32694,6 +34517,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -32747,6 +34573,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -32800,6 +34629,9 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -32853,6 +34685,9 @@
       <c r="Q611" t="n">
         <v>0</v>
       </c>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -32906,6 +34741,9 @@
       <c r="Q612" t="n">
         <v>0</v>
       </c>
+      <c r="R612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -32959,6 +34797,9 @@
       <c r="Q613" t="n">
         <v>0</v>
       </c>
+      <c r="R613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -33012,6 +34853,9 @@
       <c r="Q614" t="n">
         <v>0</v>
       </c>
+      <c r="R614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -33065,6 +34909,9 @@
       <c r="Q615" t="n">
         <v>0</v>
       </c>
+      <c r="R615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -33118,6 +34965,9 @@
       <c r="Q616" t="n">
         <v>0</v>
       </c>
+      <c r="R616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -33171,6 +35021,9 @@
       <c r="Q617" t="n">
         <v>0</v>
       </c>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -33224,6 +35077,9 @@
       <c r="Q618" t="n">
         <v>0</v>
       </c>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -33277,6 +35133,9 @@
       <c r="Q619" t="n">
         <v>0</v>
       </c>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -33330,6 +35189,9 @@
       <c r="Q620" t="n">
         <v>0</v>
       </c>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -33383,6 +35245,9 @@
       <c r="Q621" t="n">
         <v>0</v>
       </c>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -33436,6 +35301,9 @@
       <c r="Q622" t="n">
         <v>1</v>
       </c>
+      <c r="R622" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -33489,6 +35357,9 @@
       <c r="Q623" t="n">
         <v>0</v>
       </c>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -33542,6 +35413,9 @@
       <c r="Q624" t="n">
         <v>0</v>
       </c>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -33595,6 +35469,9 @@
       <c r="Q625" t="n">
         <v>0</v>
       </c>
+      <c r="R625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -33648,6 +35525,9 @@
       <c r="Q626" t="n">
         <v>0</v>
       </c>
+      <c r="R626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -33701,6 +35581,9 @@
       <c r="Q627" t="n">
         <v>0</v>
       </c>
+      <c r="R627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -33754,6 +35637,9 @@
       <c r="Q628" t="n">
         <v>0</v>
       </c>
+      <c r="R628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -33807,6 +35693,9 @@
       <c r="Q629" t="n">
         <v>0</v>
       </c>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -33860,6 +35749,9 @@
       <c r="Q630" t="n">
         <v>0</v>
       </c>
+      <c r="R630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -33913,6 +35805,9 @@
       <c r="Q631" t="n">
         <v>0</v>
       </c>
+      <c r="R631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -33966,6 +35861,9 @@
       <c r="Q632" t="n">
         <v>0</v>
       </c>
+      <c r="R632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -34019,6 +35917,9 @@
       <c r="Q633" t="n">
         <v>0</v>
       </c>
+      <c r="R633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -34072,6 +35973,9 @@
       <c r="Q634" t="n">
         <v>0</v>
       </c>
+      <c r="R634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -34125,6 +36029,9 @@
       <c r="Q635" t="n">
         <v>0</v>
       </c>
+      <c r="R635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -34178,6 +36085,9 @@
       <c r="Q636" t="n">
         <v>0</v>
       </c>
+      <c r="R636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -34231,6 +36141,9 @@
       <c r="Q637" t="n">
         <v>0</v>
       </c>
+      <c r="R637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -34284,6 +36197,9 @@
       <c r="Q638" t="n">
         <v>0</v>
       </c>
+      <c r="R638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -34337,6 +36253,9 @@
       <c r="Q639" t="n">
         <v>0</v>
       </c>
+      <c r="R639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -34390,6 +36309,9 @@
       <c r="Q640" t="n">
         <v>0</v>
       </c>
+      <c r="R640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -34443,6 +36365,9 @@
       <c r="Q641" t="n">
         <v>0</v>
       </c>
+      <c r="R641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -34496,6 +36421,9 @@
       <c r="Q642" t="n">
         <v>0</v>
       </c>
+      <c r="R642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -34549,6 +36477,9 @@
       <c r="Q643" t="n">
         <v>1</v>
       </c>
+      <c r="R643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -34602,6 +36533,9 @@
       <c r="Q644" t="n">
         <v>0</v>
       </c>
+      <c r="R644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -34655,6 +36589,9 @@
       <c r="Q645" t="n">
         <v>0</v>
       </c>
+      <c r="R645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -34708,6 +36645,9 @@
       <c r="Q646" t="n">
         <v>0</v>
       </c>
+      <c r="R646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -34761,6 +36701,9 @@
       <c r="Q647" t="n">
         <v>0</v>
       </c>
+      <c r="R647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -34814,6 +36757,9 @@
       <c r="Q648" t="n">
         <v>0</v>
       </c>
+      <c r="R648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -34867,6 +36813,9 @@
       <c r="Q649" t="n">
         <v>0</v>
       </c>
+      <c r="R649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -34920,6 +36869,9 @@
       <c r="Q650" t="n">
         <v>0</v>
       </c>
+      <c r="R650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -34973,6 +36925,9 @@
       <c r="Q651" t="n">
         <v>0</v>
       </c>
+      <c r="R651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -35026,6 +36981,9 @@
       <c r="Q652" t="n">
         <v>0</v>
       </c>
+      <c r="R652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -35079,6 +37037,9 @@
       <c r="Q653" t="n">
         <v>0</v>
       </c>
+      <c r="R653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -35132,6 +37093,9 @@
       <c r="Q654" t="n">
         <v>0</v>
       </c>
+      <c r="R654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -35185,6 +37149,9 @@
       <c r="Q655" t="n">
         <v>0</v>
       </c>
+      <c r="R655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -35238,6 +37205,9 @@
       <c r="Q656" t="n">
         <v>0</v>
       </c>
+      <c r="R656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -35291,6 +37261,9 @@
       <c r="Q657" t="n">
         <v>0</v>
       </c>
+      <c r="R657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -35344,6 +37317,9 @@
       <c r="Q658" t="n">
         <v>0</v>
       </c>
+      <c r="R658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -35397,6 +37373,9 @@
       <c r="Q659" t="n">
         <v>0</v>
       </c>
+      <c r="R659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -35450,6 +37429,9 @@
       <c r="Q660" t="n">
         <v>0</v>
       </c>
+      <c r="R660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -35503,6 +37485,9 @@
       <c r="Q661" t="n">
         <v>0</v>
       </c>
+      <c r="R661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -35556,6 +37541,9 @@
       <c r="Q662" t="n">
         <v>0</v>
       </c>
+      <c r="R662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -35609,6 +37597,9 @@
       <c r="Q663" t="n">
         <v>0</v>
       </c>
+      <c r="R663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -35662,6 +37653,9 @@
       <c r="Q664" t="n">
         <v>0</v>
       </c>
+      <c r="R664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -35715,6 +37709,9 @@
       <c r="Q665" t="n">
         <v>0</v>
       </c>
+      <c r="R665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -35768,6 +37765,9 @@
       <c r="Q666" t="n">
         <v>0</v>
       </c>
+      <c r="R666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -35821,6 +37821,9 @@
       <c r="Q667" t="n">
         <v>0</v>
       </c>
+      <c r="R667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -35874,6 +37877,9 @@
       <c r="Q668" t="n">
         <v>0</v>
       </c>
+      <c r="R668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -35927,6 +37933,9 @@
       <c r="Q669" t="n">
         <v>0</v>
       </c>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -35980,6 +37989,9 @@
       <c r="Q670" t="n">
         <v>0</v>
       </c>
+      <c r="R670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -36033,6 +38045,9 @@
       <c r="Q671" t="n">
         <v>0</v>
       </c>
+      <c r="R671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -36086,6 +38101,9 @@
       <c r="Q672" t="n">
         <v>0</v>
       </c>
+      <c r="R672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -36139,6 +38157,9 @@
       <c r="Q673" t="n">
         <v>0</v>
       </c>
+      <c r="R673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -36192,6 +38213,9 @@
       <c r="Q674" t="n">
         <v>0</v>
       </c>
+      <c r="R674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -36245,6 +38269,9 @@
       <c r="Q675" t="n">
         <v>0</v>
       </c>
+      <c r="R675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -36298,6 +38325,9 @@
       <c r="Q676" t="n">
         <v>0</v>
       </c>
+      <c r="R676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -36351,6 +38381,9 @@
       <c r="Q677" t="n">
         <v>0</v>
       </c>
+      <c r="R677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -36404,6 +38437,9 @@
       <c r="Q678" t="n">
         <v>0</v>
       </c>
+      <c r="R678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -36457,6 +38493,9 @@
       <c r="Q679" t="n">
         <v>0</v>
       </c>
+      <c r="R679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -36510,6 +38549,9 @@
       <c r="Q680" t="n">
         <v>0</v>
       </c>
+      <c r="R680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -36563,6 +38605,9 @@
       <c r="Q681" t="n">
         <v>0</v>
       </c>
+      <c r="R681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -36616,6 +38661,9 @@
       <c r="Q682" t="n">
         <v>0</v>
       </c>
+      <c r="R682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -36669,6 +38717,9 @@
       <c r="Q683" t="n">
         <v>0</v>
       </c>
+      <c r="R683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -36722,6 +38773,9 @@
       <c r="Q684" t="n">
         <v>0</v>
       </c>
+      <c r="R684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -36775,6 +38829,9 @@
       <c r="Q685" t="n">
         <v>0</v>
       </c>
+      <c r="R685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -36828,6 +38885,9 @@
       <c r="Q686" t="n">
         <v>0</v>
       </c>
+      <c r="R686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -36881,6 +38941,9 @@
       <c r="Q687" t="n">
         <v>0</v>
       </c>
+      <c r="R687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -36934,6 +38997,9 @@
       <c r="Q688" t="n">
         <v>0</v>
       </c>
+      <c r="R688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -36987,6 +39053,9 @@
       <c r="Q689" t="n">
         <v>0</v>
       </c>
+      <c r="R689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -37040,6 +39109,9 @@
       <c r="Q690" t="n">
         <v>0</v>
       </c>
+      <c r="R690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -37093,6 +39165,9 @@
       <c r="Q691" t="n">
         <v>0</v>
       </c>
+      <c r="R691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -37146,6 +39221,9 @@
       <c r="Q692" t="n">
         <v>0</v>
       </c>
+      <c r="R692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -37199,6 +39277,9 @@
       <c r="Q693" t="n">
         <v>0</v>
       </c>
+      <c r="R693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -37252,6 +39333,9 @@
       <c r="Q694" t="n">
         <v>0</v>
       </c>
+      <c r="R694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -37305,6 +39389,9 @@
       <c r="Q695" t="n">
         <v>0</v>
       </c>
+      <c r="R695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -37358,6 +39445,9 @@
       <c r="Q696" t="n">
         <v>0</v>
       </c>
+      <c r="R696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
@@ -37411,6 +39501,9 @@
       <c r="Q697" t="n">
         <v>0</v>
       </c>
+      <c r="R697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -37464,6 +39557,9 @@
       <c r="Q698" t="n">
         <v>0</v>
       </c>
+      <c r="R698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -37517,6 +39613,9 @@
       <c r="Q699" t="n">
         <v>0</v>
       </c>
+      <c r="R699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -37570,6 +39669,9 @@
       <c r="Q700" t="n">
         <v>0</v>
       </c>
+      <c r="R700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -37623,6 +39725,9 @@
       <c r="Q701" t="n">
         <v>0</v>
       </c>
+      <c r="R701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
@@ -37676,6 +39781,9 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
+      <c r="R702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -37729,6 +39837,9 @@
       <c r="Q703" t="n">
         <v>0</v>
       </c>
+      <c r="R703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -37782,6 +39893,9 @@
       <c r="Q704" t="n">
         <v>0</v>
       </c>
+      <c r="R704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -37835,6 +39949,9 @@
       <c r="Q705" t="n">
         <v>0</v>
       </c>
+      <c r="R705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -37888,6 +40005,9 @@
       <c r="Q706" t="n">
         <v>0</v>
       </c>
+      <c r="R706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
@@ -37941,6 +40061,9 @@
       <c r="Q707" t="n">
         <v>0</v>
       </c>
+      <c r="R707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -37994,6 +40117,9 @@
       <c r="Q708" t="n">
         <v>0</v>
       </c>
+      <c r="R708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -38047,6 +40173,9 @@
       <c r="Q709" t="n">
         <v>0</v>
       </c>
+      <c r="R709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -38100,6 +40229,9 @@
       <c r="Q710" t="n">
         <v>0</v>
       </c>
+      <c r="R710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -38153,6 +40285,9 @@
       <c r="Q711" t="n">
         <v>0</v>
       </c>
+      <c r="R711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
@@ -38206,6 +40341,9 @@
       <c r="Q712" t="n">
         <v>0</v>
       </c>
+      <c r="R712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -38259,6 +40397,9 @@
       <c r="Q713" t="n">
         <v>0</v>
       </c>
+      <c r="R713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -38312,6 +40453,9 @@
       <c r="Q714" t="n">
         <v>0</v>
       </c>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -38365,6 +40509,9 @@
       <c r="Q715" t="n">
         <v>0</v>
       </c>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
@@ -38418,6 +40565,9 @@
       <c r="Q716" t="n">
         <v>0</v>
       </c>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -38471,6 +40621,9 @@
       <c r="Q717" t="n">
         <v>0</v>
       </c>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
@@ -38524,6 +40677,9 @@
       <c r="Q718" t="n">
         <v>0</v>
       </c>
+      <c r="R718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
@@ -38577,6 +40733,9 @@
       <c r="Q719" t="n">
         <v>0</v>
       </c>
+      <c r="R719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
@@ -38630,6 +40789,9 @@
       <c r="Q720" t="n">
         <v>0</v>
       </c>
+      <c r="R720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
@@ -38683,6 +40845,9 @@
       <c r="Q721" t="n">
         <v>0</v>
       </c>
+      <c r="R721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
@@ -38736,6 +40901,9 @@
       <c r="Q722" t="n">
         <v>0</v>
       </c>
+      <c r="R722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -38789,6 +40957,9 @@
       <c r="Q723" t="n">
         <v>0</v>
       </c>
+      <c r="R723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -38842,6 +41013,9 @@
       <c r="Q724" t="n">
         <v>0</v>
       </c>
+      <c r="R724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -38895,6 +41069,9 @@
       <c r="Q725" t="n">
         <v>0</v>
       </c>
+      <c r="R725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
@@ -38948,6 +41125,9 @@
       <c r="Q726" t="n">
         <v>0</v>
       </c>
+      <c r="R726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -39001,6 +41181,9 @@
       <c r="Q727" t="n">
         <v>0</v>
       </c>
+      <c r="R727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -39054,6 +41237,9 @@
       <c r="Q728" t="n">
         <v>0</v>
       </c>
+      <c r="R728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -39107,6 +41293,9 @@
       <c r="Q729" t="n">
         <v>0</v>
       </c>
+      <c r="R729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -39160,6 +41349,9 @@
       <c r="Q730" t="n">
         <v>0</v>
       </c>
+      <c r="R730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
@@ -39213,6 +41405,9 @@
       <c r="Q731" t="n">
         <v>0</v>
       </c>
+      <c r="R731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -39266,6 +41461,9 @@
       <c r="Q732" t="n">
         <v>0</v>
       </c>
+      <c r="R732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -39319,6 +41517,9 @@
       <c r="Q733" t="n">
         <v>0</v>
       </c>
+      <c r="R733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -39372,6 +41573,9 @@
       <c r="Q734" t="n">
         <v>0</v>
       </c>
+      <c r="R734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -39425,6 +41629,9 @@
       <c r="Q735" t="n">
         <v>0</v>
       </c>
+      <c r="R735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
@@ -39478,6 +41685,9 @@
       <c r="Q736" t="n">
         <v>0</v>
       </c>
+      <c r="R736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -39531,6 +41741,9 @@
       <c r="Q737" t="n">
         <v>0</v>
       </c>
+      <c r="R737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -39584,6 +41797,9 @@
       <c r="Q738" t="n">
         <v>0</v>
       </c>
+      <c r="R738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -39637,6 +41853,9 @@
       <c r="Q739" t="n">
         <v>0</v>
       </c>
+      <c r="R739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -39690,6 +41909,9 @@
       <c r="Q740" t="n">
         <v>0</v>
       </c>
+      <c r="R740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
@@ -39743,6 +41965,9 @@
       <c r="Q741" t="n">
         <v>0</v>
       </c>
+      <c r="R741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -39796,6 +42021,9 @@
       <c r="Q742" t="n">
         <v>0</v>
       </c>
+      <c r="R742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -39849,6 +42077,9 @@
       <c r="Q743" t="n">
         <v>0</v>
       </c>
+      <c r="R743" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -39902,6 +42133,9 @@
       <c r="Q744" t="n">
         <v>0</v>
       </c>
+      <c r="R744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
@@ -39955,6 +42189,9 @@
       <c r="Q745" t="n">
         <v>0</v>
       </c>
+      <c r="R745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -40008,6 +42245,9 @@
       <c r="Q746" t="n">
         <v>0</v>
       </c>
+      <c r="R746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
@@ -40061,6 +42301,9 @@
       <c r="Q747" t="n">
         <v>0</v>
       </c>
+      <c r="R747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
@@ -40114,6 +42357,9 @@
       <c r="Q748" t="n">
         <v>0</v>
       </c>
+      <c r="R748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
@@ -40167,6 +42413,9 @@
       <c r="Q749" t="n">
         <v>0</v>
       </c>
+      <c r="R749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
@@ -40220,6 +42469,9 @@
       <c r="Q750" t="n">
         <v>0</v>
       </c>
+      <c r="R750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
@@ -40273,6 +42525,9 @@
       <c r="Q751" t="n">
         <v>0</v>
       </c>
+      <c r="R751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
@@ -40326,6 +42581,9 @@
       <c r="Q752" t="n">
         <v>0</v>
       </c>
+      <c r="R752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
@@ -40379,6 +42637,9 @@
       <c r="Q753" t="n">
         <v>0</v>
       </c>
+      <c r="R753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
@@ -40432,6 +42693,9 @@
       <c r="Q754" t="n">
         <v>0</v>
       </c>
+      <c r="R754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
@@ -40485,6 +42749,9 @@
       <c r="Q755" t="n">
         <v>0</v>
       </c>
+      <c r="R755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
@@ -40538,6 +42805,9 @@
       <c r="Q756" t="n">
         <v>0</v>
       </c>
+      <c r="R756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
@@ -40591,6 +42861,9 @@
       <c r="Q757" t="n">
         <v>0</v>
       </c>
+      <c r="R757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
@@ -40644,6 +42917,9 @@
       <c r="Q758" t="n">
         <v>0</v>
       </c>
+      <c r="R758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
@@ -40697,6 +42973,9 @@
       <c r="Q759" t="n">
         <v>0</v>
       </c>
+      <c r="R759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
@@ -40750,6 +43029,9 @@
       <c r="Q760" t="n">
         <v>0</v>
       </c>
+      <c r="R760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
@@ -40803,6 +43085,9 @@
       <c r="Q761" t="n">
         <v>0</v>
       </c>
+      <c r="R761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
@@ -40856,6 +43141,9 @@
       <c r="Q762" t="n">
         <v>0</v>
       </c>
+      <c r="R762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
@@ -40909,6 +43197,9 @@
       <c r="Q763" t="n">
         <v>0</v>
       </c>
+      <c r="R763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
@@ -40962,6 +43253,9 @@
       <c r="Q764" t="n">
         <v>0</v>
       </c>
+      <c r="R764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
@@ -41015,6 +43309,9 @@
       <c r="Q765" t="n">
         <v>0</v>
       </c>
+      <c r="R765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
@@ -41068,6 +43365,9 @@
       <c r="Q766" t="n">
         <v>0</v>
       </c>
+      <c r="R766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
@@ -41121,6 +43421,9 @@
       <c r="Q767" t="n">
         <v>0</v>
       </c>
+      <c r="R767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
@@ -41174,6 +43477,9 @@
       <c r="Q768" t="n">
         <v>0</v>
       </c>
+      <c r="R768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
@@ -41227,6 +43533,9 @@
       <c r="Q769" t="n">
         <v>0</v>
       </c>
+      <c r="R769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
@@ -41280,6 +43589,9 @@
       <c r="Q770" t="n">
         <v>1</v>
       </c>
+      <c r="R770" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
@@ -41333,6 +43645,9 @@
       <c r="Q771" t="n">
         <v>0</v>
       </c>
+      <c r="R771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
@@ -41386,6 +43701,9 @@
       <c r="Q772" t="n">
         <v>0</v>
       </c>
+      <c r="R772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
@@ -41439,6 +43757,9 @@
       <c r="Q773" t="n">
         <v>0</v>
       </c>
+      <c r="R773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
@@ -41492,6 +43813,9 @@
       <c r="Q774" t="n">
         <v>0</v>
       </c>
+      <c r="R774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
@@ -41545,6 +43869,9 @@
       <c r="Q775" t="n">
         <v>0</v>
       </c>
+      <c r="R775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
@@ -41598,6 +43925,9 @@
       <c r="Q776" t="n">
         <v>0</v>
       </c>
+      <c r="R776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
@@ -41651,6 +43981,9 @@
       <c r="Q777" t="n">
         <v>0</v>
       </c>
+      <c r="R777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
@@ -41704,6 +44037,9 @@
       <c r="Q778" t="n">
         <v>0</v>
       </c>
+      <c r="R778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
@@ -41757,6 +44093,9 @@
       <c r="Q779" t="n">
         <v>0</v>
       </c>
+      <c r="R779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
@@ -41810,6 +44149,9 @@
       <c r="Q780" t="n">
         <v>0</v>
       </c>
+      <c r="R780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
@@ -41863,6 +44205,9 @@
       <c r="Q781" t="n">
         <v>0</v>
       </c>
+      <c r="R781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
@@ -41916,6 +44261,9 @@
       <c r="Q782" t="n">
         <v>0</v>
       </c>
+      <c r="R782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
@@ -41969,6 +44317,9 @@
       <c r="Q783" t="n">
         <v>0</v>
       </c>
+      <c r="R783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
@@ -42022,6 +44373,9 @@
       <c r="Q784" t="n">
         <v>0</v>
       </c>
+      <c r="R784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
@@ -42075,6 +44429,9 @@
       <c r="Q785" t="n">
         <v>0</v>
       </c>
+      <c r="R785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
@@ -42128,6 +44485,9 @@
       <c r="Q786" t="n">
         <v>0</v>
       </c>
+      <c r="R786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
@@ -42181,6 +44541,9 @@
       <c r="Q787" t="n">
         <v>0</v>
       </c>
+      <c r="R787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
@@ -42234,6 +44597,9 @@
       <c r="Q788" t="n">
         <v>0</v>
       </c>
+      <c r="R788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
@@ -42287,6 +44653,9 @@
       <c r="Q789" t="n">
         <v>0</v>
       </c>
+      <c r="R789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
@@ -42340,6 +44709,9 @@
       <c r="Q790" t="n">
         <v>0</v>
       </c>
+      <c r="R790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
@@ -42393,6 +44765,9 @@
       <c r="Q791" t="n">
         <v>0</v>
       </c>
+      <c r="R791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
@@ -42446,6 +44821,9 @@
       <c r="Q792" t="n">
         <v>0</v>
       </c>
+      <c r="R792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
@@ -42499,6 +44877,9 @@
       <c r="Q793" t="n">
         <v>0</v>
       </c>
+      <c r="R793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
@@ -42552,6 +44933,9 @@
       <c r="Q794" t="n">
         <v>0</v>
       </c>
+      <c r="R794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
@@ -42605,6 +44989,9 @@
       <c r="Q795" t="n">
         <v>0</v>
       </c>
+      <c r="R795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
@@ -42658,6 +45045,9 @@
       <c r="Q796" t="n">
         <v>0</v>
       </c>
+      <c r="R796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
@@ -42711,6 +45101,9 @@
       <c r="Q797" t="n">
         <v>0</v>
       </c>
+      <c r="R797" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
@@ -42764,6 +45157,9 @@
       <c r="Q798" t="n">
         <v>0</v>
       </c>
+      <c r="R798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
@@ -42817,6 +45213,9 @@
       <c r="Q799" t="n">
         <v>0</v>
       </c>
+      <c r="R799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
@@ -42870,6 +45269,9 @@
       <c r="Q800" t="n">
         <v>0</v>
       </c>
+      <c r="R800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
@@ -42923,6 +45325,9 @@
       <c r="Q801" t="n">
         <v>1</v>
       </c>
+      <c r="R801" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
@@ -42976,6 +45381,9 @@
       <c r="Q802" t="n">
         <v>1</v>
       </c>
+      <c r="R802" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
@@ -43029,6 +45437,9 @@
       <c r="Q803" t="n">
         <v>0</v>
       </c>
+      <c r="R803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
@@ -43082,6 +45493,9 @@
       <c r="Q804" t="n">
         <v>0</v>
       </c>
+      <c r="R804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
@@ -43135,6 +45549,9 @@
       <c r="Q805" t="n">
         <v>0</v>
       </c>
+      <c r="R805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
@@ -43188,6 +45605,9 @@
       <c r="Q806" t="n">
         <v>0</v>
       </c>
+      <c r="R806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
@@ -43241,6 +45661,9 @@
       <c r="Q807" t="n">
         <v>0</v>
       </c>
+      <c r="R807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
@@ -43294,6 +45717,9 @@
       <c r="Q808" t="n">
         <v>0</v>
       </c>
+      <c r="R808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
@@ -43347,6 +45773,9 @@
       <c r="Q809" t="n">
         <v>0</v>
       </c>
+      <c r="R809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
@@ -43400,6 +45829,9 @@
       <c r="Q810" t="n">
         <v>0</v>
       </c>
+      <c r="R810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
@@ -43453,6 +45885,9 @@
       <c r="Q811" t="n">
         <v>2</v>
       </c>
+      <c r="R811" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
@@ -43506,6 +45941,9 @@
       <c r="Q812" t="n">
         <v>0</v>
       </c>
+      <c r="R812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
@@ -43559,6 +45997,9 @@
       <c r="Q813" t="n">
         <v>0</v>
       </c>
+      <c r="R813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
@@ -43612,6 +46053,9 @@
       <c r="Q814" t="n">
         <v>0</v>
       </c>
+      <c r="R814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
@@ -43665,6 +46109,9 @@
       <c r="Q815" t="n">
         <v>0</v>
       </c>
+      <c r="R815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -43718,6 +46165,9 @@
       <c r="Q816" t="n">
         <v>0</v>
       </c>
+      <c r="R816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -43771,6 +46221,9 @@
       <c r="Q817" t="n">
         <v>0</v>
       </c>
+      <c r="R817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -43824,6 +46277,9 @@
       <c r="Q818" t="n">
         <v>0</v>
       </c>
+      <c r="R818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -43877,6 +46333,9 @@
       <c r="Q819" t="n">
         <v>0</v>
       </c>
+      <c r="R819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
@@ -43930,6 +46389,9 @@
       <c r="Q820" t="n">
         <v>0</v>
       </c>
+      <c r="R820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -43983,6 +46445,9 @@
       <c r="Q821" t="n">
         <v>0</v>
       </c>
+      <c r="R821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -44036,6 +46501,9 @@
       <c r="Q822" t="n">
         <v>0</v>
       </c>
+      <c r="R822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
@@ -44089,6 +46557,9 @@
       <c r="Q823" t="n">
         <v>0</v>
       </c>
+      <c r="R823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
@@ -44142,6 +46613,9 @@
       <c r="Q824" t="n">
         <v>1</v>
       </c>
+      <c r="R824" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -44195,6 +46669,9 @@
       <c r="Q825" t="n">
         <v>0</v>
       </c>
+      <c r="R825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
@@ -44248,6 +46725,9 @@
       <c r="Q826" t="n">
         <v>0</v>
       </c>
+      <c r="R826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -44301,6 +46781,9 @@
       <c r="Q827" t="n">
         <v>0</v>
       </c>
+      <c r="R827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -44354,6 +46837,9 @@
       <c r="Q828" t="n">
         <v>0</v>
       </c>
+      <c r="R828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -44407,6 +46893,9 @@
       <c r="Q829" t="n">
         <v>0</v>
       </c>
+      <c r="R829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -44460,6 +46949,9 @@
       <c r="Q830" t="n">
         <v>0</v>
       </c>
+      <c r="R830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -44513,6 +47005,9 @@
       <c r="Q831" t="n">
         <v>0</v>
       </c>
+      <c r="R831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
@@ -44566,6 +47061,9 @@
       <c r="Q832" t="n">
         <v>2</v>
       </c>
+      <c r="R832" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -44619,6 +47117,9 @@
       <c r="Q833" t="n">
         <v>0</v>
       </c>
+      <c r="R833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
@@ -44672,6 +47173,9 @@
       <c r="Q834" t="n">
         <v>0</v>
       </c>
+      <c r="R834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
@@ -44725,6 +47229,9 @@
       <c r="Q835" t="n">
         <v>0</v>
       </c>
+      <c r="R835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
@@ -44778,6 +47285,9 @@
       <c r="Q836" t="n">
         <v>0</v>
       </c>
+      <c r="R836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
@@ -44831,6 +47341,9 @@
       <c r="Q837" t="n">
         <v>0</v>
       </c>
+      <c r="R837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
@@ -44884,6 +47397,9 @@
       <c r="Q838" t="n">
         <v>0</v>
       </c>
+      <c r="R838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
@@ -44937,6 +47453,9 @@
       <c r="Q839" t="n">
         <v>0</v>
       </c>
+      <c r="R839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
@@ -44990,6 +47509,9 @@
       <c r="Q840" t="n">
         <v>0</v>
       </c>
+      <c r="R840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
@@ -45043,6 +47565,9 @@
       <c r="Q841" t="n">
         <v>0</v>
       </c>
+      <c r="R841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
@@ -45096,6 +47621,9 @@
       <c r="Q842" t="n">
         <v>0</v>
       </c>
+      <c r="R842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
@@ -45149,6 +47677,9 @@
       <c r="Q843" t="n">
         <v>0</v>
       </c>
+      <c r="R843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
@@ -45202,6 +47733,9 @@
       <c r="Q844" t="n">
         <v>0</v>
       </c>
+      <c r="R844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
@@ -45255,6 +47789,9 @@
       <c r="Q845" t="n">
         <v>0</v>
       </c>
+      <c r="R845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -45308,6 +47845,9 @@
       <c r="Q846" t="n">
         <v>0</v>
       </c>
+      <c r="R846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
@@ -45361,6 +47901,9 @@
       <c r="Q847" t="n">
         <v>0</v>
       </c>
+      <c r="R847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
@@ -45414,6 +47957,9 @@
       <c r="Q848" t="n">
         <v>0</v>
       </c>
+      <c r="R848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -45467,6 +48013,9 @@
       <c r="Q849" t="n">
         <v>0</v>
       </c>
+      <c r="R849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -45520,6 +48069,9 @@
       <c r="Q850" t="n">
         <v>0</v>
       </c>
+      <c r="R850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -45573,6 +48125,9 @@
       <c r="Q851" t="n">
         <v>0</v>
       </c>
+      <c r="R851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -45626,6 +48181,9 @@
       <c r="Q852" t="n">
         <v>0</v>
       </c>
+      <c r="R852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
@@ -45679,6 +48237,9 @@
       <c r="Q853" t="n">
         <v>0</v>
       </c>
+      <c r="R853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -45732,6 +48293,9 @@
       <c r="Q854" t="n">
         <v>0</v>
       </c>
+      <c r="R854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -45785,6 +48349,9 @@
       <c r="Q855" t="n">
         <v>0</v>
       </c>
+      <c r="R855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -45838,6 +48405,9 @@
       <c r="Q856" t="n">
         <v>0</v>
       </c>
+      <c r="R856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
@@ -45891,6 +48461,9 @@
       <c r="Q857" t="n">
         <v>0</v>
       </c>
+      <c r="R857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
@@ -45944,6 +48517,9 @@
       <c r="Q858" t="n">
         <v>0</v>
       </c>
+      <c r="R858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -45997,6 +48573,9 @@
       <c r="Q859" t="n">
         <v>0</v>
       </c>
+      <c r="R859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -46050,6 +48629,9 @@
       <c r="Q860" t="n">
         <v>0</v>
       </c>
+      <c r="R860" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
@@ -46103,6 +48685,9 @@
       <c r="Q861" t="n">
         <v>0</v>
       </c>
+      <c r="R861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -46156,6 +48741,9 @@
       <c r="Q862" t="n">
         <v>0</v>
       </c>
+      <c r="R862" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
@@ -46209,6 +48797,9 @@
       <c r="Q863" t="n">
         <v>0</v>
       </c>
+      <c r="R863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
@@ -46262,6 +48853,9 @@
       <c r="Q864" t="n">
         <v>0</v>
       </c>
+      <c r="R864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -46315,6 +48909,9 @@
       <c r="Q865" t="n">
         <v>0</v>
       </c>
+      <c r="R865" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -46360,12 +48957,15 @@
         <v>23</v>
       </c>
       <c r="O866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P866" t="n">
         <v>0</v>
       </c>
       <c r="Q866" t="n">
+        <v>0</v>
+      </c>
+      <c r="R866" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46421,6 +49021,9 @@
       <c r="Q867" t="n">
         <v>0</v>
       </c>
+      <c r="R867" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
@@ -46474,6 +49077,9 @@
       <c r="Q868" t="n">
         <v>0</v>
       </c>
+      <c r="R868" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -46527,6 +49133,387 @@
       <c r="Q869" t="n">
         <v>0</v>
       </c>
+      <c r="R869" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45448.38541666666</v>
+      </c>
+      <c r="B870" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C870" t="n">
+        <v>1027.900024414062</v>
+      </c>
+      <c r="D870" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E870" t="n">
+        <v>1017.400024414062</v>
+      </c>
+      <c r="F870" t="n">
+        <v>1017.400024414062</v>
+      </c>
+      <c r="G870" t="n">
+        <v>0</v>
+      </c>
+      <c r="H870" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I870" t="n">
+        <v>6</v>
+      </c>
+      <c r="J870" t="n">
+        <v>5</v>
+      </c>
+      <c r="K870" t="n">
+        <v>9</v>
+      </c>
+      <c r="L870" t="n">
+        <v>15</v>
+      </c>
+      <c r="M870" t="n">
+        <v>0</v>
+      </c>
+      <c r="N870" t="n">
+        <v>23</v>
+      </c>
+      <c r="O870" t="n">
+        <v>0</v>
+      </c>
+      <c r="P870" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>0</v>
+      </c>
+      <c r="R870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B871" t="n">
+        <v>1017.700012207031</v>
+      </c>
+      <c r="C871" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1014.5</v>
+      </c>
+      <c r="E871" t="n">
+        <v>1020.5</v>
+      </c>
+      <c r="F871" t="n">
+        <v>1020.5</v>
+      </c>
+      <c r="G871" t="n">
+        <v>123083</v>
+      </c>
+      <c r="H871" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I871" t="n">
+        <v>6</v>
+      </c>
+      <c r="J871" t="n">
+        <v>5</v>
+      </c>
+      <c r="K871" t="n">
+        <v>10</v>
+      </c>
+      <c r="L871" t="n">
+        <v>15</v>
+      </c>
+      <c r="M871" t="n">
+        <v>0</v>
+      </c>
+      <c r="N871" t="n">
+        <v>23</v>
+      </c>
+      <c r="O871" t="n">
+        <v>0</v>
+      </c>
+      <c r="P871" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>0</v>
+      </c>
+      <c r="R871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45448.46875</v>
+      </c>
+      <c r="B872" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C872" t="n">
+        <v>1023.5</v>
+      </c>
+      <c r="D872" t="n">
+        <v>1015.099975585938</v>
+      </c>
+      <c r="E872" t="n">
+        <v>1023.200012207031</v>
+      </c>
+      <c r="F872" t="n">
+        <v>1023.200012207031</v>
+      </c>
+      <c r="G872" t="n">
+        <v>97747</v>
+      </c>
+      <c r="H872" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I872" t="n">
+        <v>6</v>
+      </c>
+      <c r="J872" t="n">
+        <v>5</v>
+      </c>
+      <c r="K872" t="n">
+        <v>11</v>
+      </c>
+      <c r="L872" t="n">
+        <v>15</v>
+      </c>
+      <c r="M872" t="n">
+        <v>0</v>
+      </c>
+      <c r="N872" t="n">
+        <v>23</v>
+      </c>
+      <c r="O872" t="n">
+        <v>0</v>
+      </c>
+      <c r="P872" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>0</v>
+      </c>
+      <c r="R872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45448.51041666666</v>
+      </c>
+      <c r="B873" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C873" t="n">
+        <v>1032.949951171875</v>
+      </c>
+      <c r="D873" t="n">
+        <v>1022.75</v>
+      </c>
+      <c r="E873" t="n">
+        <v>1029.099975585938</v>
+      </c>
+      <c r="F873" t="n">
+        <v>1029.099975585938</v>
+      </c>
+      <c r="G873" t="n">
+        <v>57911</v>
+      </c>
+      <c r="H873" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I873" t="n">
+        <v>6</v>
+      </c>
+      <c r="J873" t="n">
+        <v>5</v>
+      </c>
+      <c r="K873" t="n">
+        <v>12</v>
+      </c>
+      <c r="L873" t="n">
+        <v>15</v>
+      </c>
+      <c r="M873" t="n">
+        <v>0</v>
+      </c>
+      <c r="N873" t="n">
+        <v>23</v>
+      </c>
+      <c r="O873" t="n">
+        <v>0</v>
+      </c>
+      <c r="P873" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>0</v>
+      </c>
+      <c r="R873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45448.55208333334</v>
+      </c>
+      <c r="B874" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C874" t="n">
+        <v>1031.900024414062</v>
+      </c>
+      <c r="D874" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="E874" t="n">
+        <v>1027.75</v>
+      </c>
+      <c r="F874" t="n">
+        <v>1027.75</v>
+      </c>
+      <c r="G874" t="n">
+        <v>55932</v>
+      </c>
+      <c r="H874" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I874" t="n">
+        <v>6</v>
+      </c>
+      <c r="J874" t="n">
+        <v>5</v>
+      </c>
+      <c r="K874" t="n">
+        <v>13</v>
+      </c>
+      <c r="L874" t="n">
+        <v>15</v>
+      </c>
+      <c r="M874" t="n">
+        <v>0</v>
+      </c>
+      <c r="N874" t="n">
+        <v>23</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+      <c r="P874" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>0</v>
+      </c>
+      <c r="R874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45448.59375</v>
+      </c>
+      <c r="B875" t="n">
+        <v>1027.800048828125</v>
+      </c>
+      <c r="C875" t="n">
+        <v>1033.550048828125</v>
+      </c>
+      <c r="D875" t="n">
+        <v>1026.150024414062</v>
+      </c>
+      <c r="E875" t="n">
+        <v>1031.099975585938</v>
+      </c>
+      <c r="F875" t="n">
+        <v>1031.099975585938</v>
+      </c>
+      <c r="G875" t="n">
+        <v>79008</v>
+      </c>
+      <c r="H875" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I875" t="n">
+        <v>6</v>
+      </c>
+      <c r="J875" t="n">
+        <v>5</v>
+      </c>
+      <c r="K875" t="n">
+        <v>14</v>
+      </c>
+      <c r="L875" t="n">
+        <v>15</v>
+      </c>
+      <c r="M875" t="n">
+        <v>0</v>
+      </c>
+      <c r="N875" t="n">
+        <v>23</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
+      <c r="R875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45448.63541666666</v>
+      </c>
+      <c r="B876" t="n">
+        <v>1030.5</v>
+      </c>
+      <c r="C876" t="n">
+        <v>1031.449951171875</v>
+      </c>
+      <c r="D876" t="n">
+        <v>1027.25</v>
+      </c>
+      <c r="E876" t="n">
+        <v>1029.800048828125</v>
+      </c>
+      <c r="F876" t="n">
+        <v>1029.800048828125</v>
+      </c>
+      <c r="G876" t="n">
+        <v>39153</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I876" t="n">
+        <v>6</v>
+      </c>
+      <c r="J876" t="n">
+        <v>5</v>
+      </c>
+      <c r="K876" t="n">
+        <v>15</v>
+      </c>
+      <c r="L876" t="n">
+        <v>15</v>
+      </c>
+      <c r="M876" t="n">
+        <v>0</v>
+      </c>
+      <c r="N876" t="n">
+        <v>23</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>0</v>
+      </c>
+      <c r="R876" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -49581,7 +49581,9 @@
       <c r="Q877" t="n">
         <v>1</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49635,7 +49637,9 @@
       <c r="Q878" t="n">
         <v>0</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -49689,7 +49693,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49743,7 +49749,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49797,7 +49805,9 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -49851,7 +49861,9 @@
       <c r="Q882" t="n">
         <v>0</v>
       </c>
-      <c r="R882" t="inlineStr"/>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -49905,7 +49917,9 @@
       <c r="Q883" t="n">
         <v>0</v>
       </c>
-      <c r="R883" t="inlineStr"/>
+      <c r="R883" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R883"/>
+  <dimension ref="A1:R884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49921,6 +49921,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="B884" t="n">
+        <v>1055.050048828125</v>
+      </c>
+      <c r="C884" t="n">
+        <v>1067.25</v>
+      </c>
+      <c r="D884" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E884" t="n">
+        <v>1067.25</v>
+      </c>
+      <c r="F884" t="n">
+        <v>1067.25</v>
+      </c>
+      <c r="G884" t="n">
+        <v>222180</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I884" t="n">
+        <v>6</v>
+      </c>
+      <c r="J884" t="n">
+        <v>7</v>
+      </c>
+      <c r="K884" t="n">
+        <v>9</v>
+      </c>
+      <c r="L884" t="n">
+        <v>15</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>23</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R884"/>
+  <dimension ref="A1:R890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49973,7 +49973,333 @@
       <c r="Q884" t="n">
         <v>0</v>
       </c>
-      <c r="R884" t="inlineStr"/>
+      <c r="R884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="B885" t="n">
+        <v>1065.400024414062</v>
+      </c>
+      <c r="C885" t="n">
+        <v>1067.5</v>
+      </c>
+      <c r="D885" t="n">
+        <v>1061.099975585938</v>
+      </c>
+      <c r="E885" t="n">
+        <v>1064.650024414062</v>
+      </c>
+      <c r="F885" t="n">
+        <v>1064.650024414062</v>
+      </c>
+      <c r="G885" t="n">
+        <v>115136</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I885" t="n">
+        <v>6</v>
+      </c>
+      <c r="J885" t="n">
+        <v>7</v>
+      </c>
+      <c r="K885" t="n">
+        <v>10</v>
+      </c>
+      <c r="L885" t="n">
+        <v>15</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>23</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="B886" t="n">
+        <v>1064.599975585938</v>
+      </c>
+      <c r="C886" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D886" t="n">
+        <v>1061.849975585938</v>
+      </c>
+      <c r="E886" t="n">
+        <v>1063.650024414062</v>
+      </c>
+      <c r="F886" t="n">
+        <v>1063.650024414062</v>
+      </c>
+      <c r="G886" t="n">
+        <v>125207</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I886" t="n">
+        <v>6</v>
+      </c>
+      <c r="J886" t="n">
+        <v>7</v>
+      </c>
+      <c r="K886" t="n">
+        <v>11</v>
+      </c>
+      <c r="L886" t="n">
+        <v>15</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>23</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>0</v>
+      </c>
+      <c r="R886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45450.51041666666</v>
+      </c>
+      <c r="B887" t="n">
+        <v>1063.650024414062</v>
+      </c>
+      <c r="C887" t="n">
+        <v>1064.849975585938</v>
+      </c>
+      <c r="D887" t="n">
+        <v>1061.25</v>
+      </c>
+      <c r="E887" t="n">
+        <v>1061.900024414062</v>
+      </c>
+      <c r="F887" t="n">
+        <v>1061.900024414062</v>
+      </c>
+      <c r="G887" t="n">
+        <v>73560</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I887" t="n">
+        <v>6</v>
+      </c>
+      <c r="J887" t="n">
+        <v>7</v>
+      </c>
+      <c r="K887" t="n">
+        <v>12</v>
+      </c>
+      <c r="L887" t="n">
+        <v>15</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>23</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B888" t="n">
+        <v>1061.949951171875</v>
+      </c>
+      <c r="C888" t="n">
+        <v>1062.900024414062</v>
+      </c>
+      <c r="D888" t="n">
+        <v>1056.900024414062</v>
+      </c>
+      <c r="E888" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="F888" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="G888" t="n">
+        <v>108446</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I888" t="n">
+        <v>6</v>
+      </c>
+      <c r="J888" t="n">
+        <v>7</v>
+      </c>
+      <c r="K888" t="n">
+        <v>13</v>
+      </c>
+      <c r="L888" t="n">
+        <v>15</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>23</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1057.449951171875</v>
+      </c>
+      <c r="C889" t="n">
+        <v>1063.5</v>
+      </c>
+      <c r="D889" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E889" t="n">
+        <v>1060.449951171875</v>
+      </c>
+      <c r="F889" t="n">
+        <v>1060.449951171875</v>
+      </c>
+      <c r="G889" t="n">
+        <v>103857</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I889" t="n">
+        <v>6</v>
+      </c>
+      <c r="J889" t="n">
+        <v>7</v>
+      </c>
+      <c r="K889" t="n">
+        <v>14</v>
+      </c>
+      <c r="L889" t="n">
+        <v>15</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>23</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
+      <c r="R889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B890" t="n">
+        <v>1060.800048828125</v>
+      </c>
+      <c r="C890" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D890" t="n">
+        <v>1058.849975585938</v>
+      </c>
+      <c r="E890" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="F890" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="G890" t="n">
+        <v>63265</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I890" t="n">
+        <v>6</v>
+      </c>
+      <c r="J890" t="n">
+        <v>7</v>
+      </c>
+      <c r="K890" t="n">
+        <v>15</v>
+      </c>
+      <c r="L890" t="n">
+        <v>15</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>23</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
+      <c r="R890" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R896"/>
+  <dimension ref="A1:R897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50365,7 +50365,9 @@
       <c r="Q891" t="n">
         <v>0</v>
       </c>
-      <c r="R891" t="inlineStr"/>
+      <c r="R891" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
@@ -50419,7 +50421,9 @@
       <c r="Q892" t="n">
         <v>0</v>
       </c>
-      <c r="R892" t="inlineStr"/>
+      <c r="R892" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
@@ -50473,7 +50477,9 @@
       <c r="Q893" t="n">
         <v>0</v>
       </c>
-      <c r="R893" t="inlineStr"/>
+      <c r="R893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
@@ -50527,7 +50533,9 @@
       <c r="Q894" t="n">
         <v>0</v>
       </c>
-      <c r="R894" t="inlineStr"/>
+      <c r="R894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
@@ -50581,7 +50589,9 @@
       <c r="Q895" t="n">
         <v>0</v>
       </c>
-      <c r="R895" t="inlineStr"/>
+      <c r="R895" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
@@ -50635,7 +50645,63 @@
       <c r="Q896" t="n">
         <v>0</v>
       </c>
-      <c r="R896" t="inlineStr"/>
+      <c r="R896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45453.63541666666</v>
+      </c>
+      <c r="B897" t="n">
+        <v>1057.400024414062</v>
+      </c>
+      <c r="C897" t="n">
+        <v>1058.849975585938</v>
+      </c>
+      <c r="D897" t="n">
+        <v>1056.699951171875</v>
+      </c>
+      <c r="E897" t="n">
+        <v>1057.550048828125</v>
+      </c>
+      <c r="F897" t="n">
+        <v>1057.550048828125</v>
+      </c>
+      <c r="G897" t="n">
+        <v>44217</v>
+      </c>
+      <c r="H897" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I897" t="n">
+        <v>6</v>
+      </c>
+      <c r="J897" t="n">
+        <v>10</v>
+      </c>
+      <c r="K897" t="n">
+        <v>15</v>
+      </c>
+      <c r="L897" t="n">
+        <v>15</v>
+      </c>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>24</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
+      <c r="R897" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R897"/>
+  <dimension ref="A1:R904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50701,7 +50701,387 @@
       <c r="Q897" t="n">
         <v>0</v>
       </c>
-      <c r="R897" t="inlineStr"/>
+      <c r="R897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="B898" t="n">
+        <v>1065.199951171875</v>
+      </c>
+      <c r="C898" t="n">
+        <v>1067</v>
+      </c>
+      <c r="D898" t="n">
+        <v>1058.300048828125</v>
+      </c>
+      <c r="E898" t="n">
+        <v>1062</v>
+      </c>
+      <c r="F898" t="n">
+        <v>1062</v>
+      </c>
+      <c r="G898" t="n">
+        <v>247729</v>
+      </c>
+      <c r="H898" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I898" t="n">
+        <v>6</v>
+      </c>
+      <c r="J898" t="n">
+        <v>11</v>
+      </c>
+      <c r="K898" t="n">
+        <v>9</v>
+      </c>
+      <c r="L898" t="n">
+        <v>15</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>24</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
+      <c r="R898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="B899" t="n">
+        <v>1062</v>
+      </c>
+      <c r="C899" t="n">
+        <v>1072.400024414062</v>
+      </c>
+      <c r="D899" t="n">
+        <v>1061.150024414062</v>
+      </c>
+      <c r="E899" t="n">
+        <v>1061.800048828125</v>
+      </c>
+      <c r="F899" t="n">
+        <v>1061.800048828125</v>
+      </c>
+      <c r="G899" t="n">
+        <v>204863</v>
+      </c>
+      <c r="H899" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I899" t="n">
+        <v>6</v>
+      </c>
+      <c r="J899" t="n">
+        <v>11</v>
+      </c>
+      <c r="K899" t="n">
+        <v>10</v>
+      </c>
+      <c r="L899" t="n">
+        <v>15</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>24</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>0</v>
+      </c>
+      <c r="R899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45454.46875</v>
+      </c>
+      <c r="B900" t="n">
+        <v>1061.949951171875</v>
+      </c>
+      <c r="C900" t="n">
+        <v>1062.25</v>
+      </c>
+      <c r="D900" t="n">
+        <v>1059.25</v>
+      </c>
+      <c r="E900" t="n">
+        <v>1061.25</v>
+      </c>
+      <c r="F900" t="n">
+        <v>1061.25</v>
+      </c>
+      <c r="G900" t="n">
+        <v>88899</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I900" t="n">
+        <v>6</v>
+      </c>
+      <c r="J900" t="n">
+        <v>11</v>
+      </c>
+      <c r="K900" t="n">
+        <v>11</v>
+      </c>
+      <c r="L900" t="n">
+        <v>15</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>24</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>0</v>
+      </c>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45454.51041666666</v>
+      </c>
+      <c r="B901" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="C901" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D901" t="n">
+        <v>1059.300048828125</v>
+      </c>
+      <c r="E901" t="n">
+        <v>1062.900024414062</v>
+      </c>
+      <c r="F901" t="n">
+        <v>1062.900024414062</v>
+      </c>
+      <c r="G901" t="n">
+        <v>79443</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I901" t="n">
+        <v>6</v>
+      </c>
+      <c r="J901" t="n">
+        <v>11</v>
+      </c>
+      <c r="K901" t="n">
+        <v>12</v>
+      </c>
+      <c r="L901" t="n">
+        <v>15</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>24</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
+      <c r="R901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B902" t="n">
+        <v>1062.849975585938</v>
+      </c>
+      <c r="C902" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D902" t="n">
+        <v>1060.099975585938</v>
+      </c>
+      <c r="E902" t="n">
+        <v>1061.199951171875</v>
+      </c>
+      <c r="F902" t="n">
+        <v>1061.199951171875</v>
+      </c>
+      <c r="G902" t="n">
+        <v>62081</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I902" t="n">
+        <v>6</v>
+      </c>
+      <c r="J902" t="n">
+        <v>11</v>
+      </c>
+      <c r="K902" t="n">
+        <v>13</v>
+      </c>
+      <c r="L902" t="n">
+        <v>15</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>24</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45454.59375</v>
+      </c>
+      <c r="B903" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C903" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D903" t="n">
+        <v>1059.449951171875</v>
+      </c>
+      <c r="E903" t="n">
+        <v>1059.800048828125</v>
+      </c>
+      <c r="F903" t="n">
+        <v>1059.800048828125</v>
+      </c>
+      <c r="G903" t="n">
+        <v>113884</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I903" t="n">
+        <v>6</v>
+      </c>
+      <c r="J903" t="n">
+        <v>11</v>
+      </c>
+      <c r="K903" t="n">
+        <v>14</v>
+      </c>
+      <c r="L903" t="n">
+        <v>15</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>24</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
+      <c r="R903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45454.63541666666</v>
+      </c>
+      <c r="B904" t="n">
+        <v>1059.800048828125</v>
+      </c>
+      <c r="C904" t="n">
+        <v>1061.800048828125</v>
+      </c>
+      <c r="D904" t="n">
+        <v>1058.5</v>
+      </c>
+      <c r="E904" t="n">
+        <v>1059.650024414062</v>
+      </c>
+      <c r="F904" t="n">
+        <v>1059.650024414062</v>
+      </c>
+      <c r="G904" t="n">
+        <v>57542</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I904" t="n">
+        <v>6</v>
+      </c>
+      <c r="J904" t="n">
+        <v>11</v>
+      </c>
+      <c r="K904" t="n">
+        <v>15</v>
+      </c>
+      <c r="L904" t="n">
+        <v>15</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>24</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
+      <c r="R904" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R904"/>
+  <dimension ref="A1:R911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50581,7 +50581,7 @@
         <v>24</v>
       </c>
       <c r="O895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P895" t="n">
         <v>2</v>
@@ -50757,7 +50757,9 @@
       <c r="Q898" t="n">
         <v>0</v>
       </c>
-      <c r="R898" t="inlineStr"/>
+      <c r="R898" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
@@ -50803,7 +50805,7 @@
         <v>24</v>
       </c>
       <c r="O899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P899" t="n">
         <v>0</v>
@@ -50811,7 +50813,9 @@
       <c r="Q899" t="n">
         <v>0</v>
       </c>
-      <c r="R899" t="inlineStr"/>
+      <c r="R899" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
@@ -50865,7 +50869,9 @@
       <c r="Q900" t="n">
         <v>0</v>
       </c>
-      <c r="R900" t="inlineStr"/>
+      <c r="R900" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
@@ -50919,7 +50925,9 @@
       <c r="Q901" t="n">
         <v>0</v>
       </c>
-      <c r="R901" t="inlineStr"/>
+      <c r="R901" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
@@ -50973,7 +50981,9 @@
       <c r="Q902" t="n">
         <v>0</v>
       </c>
-      <c r="R902" t="inlineStr"/>
+      <c r="R902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
@@ -51027,7 +51037,9 @@
       <c r="Q903" t="n">
         <v>0</v>
       </c>
-      <c r="R903" t="inlineStr"/>
+      <c r="R903" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
@@ -51081,7 +51093,387 @@
       <c r="Q904" t="n">
         <v>0</v>
       </c>
-      <c r="R904" t="inlineStr"/>
+      <c r="R904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B905" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="C905" t="n">
+        <v>1066.400024414062</v>
+      </c>
+      <c r="D905" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="E905" t="n">
+        <v>1062.650024414062</v>
+      </c>
+      <c r="F905" t="n">
+        <v>1062.650024414062</v>
+      </c>
+      <c r="G905" t="n">
+        <v>284577</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I905" t="n">
+        <v>6</v>
+      </c>
+      <c r="J905" t="n">
+        <v>12</v>
+      </c>
+      <c r="K905" t="n">
+        <v>9</v>
+      </c>
+      <c r="L905" t="n">
+        <v>15</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>24</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
+      <c r="R905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B906" t="n">
+        <v>1062.150024414062</v>
+      </c>
+      <c r="C906" t="n">
+        <v>1063.599975585938</v>
+      </c>
+      <c r="D906" t="n">
+        <v>1058.550048828125</v>
+      </c>
+      <c r="E906" t="n">
+        <v>1059.5</v>
+      </c>
+      <c r="F906" t="n">
+        <v>1059.5</v>
+      </c>
+      <c r="G906" t="n">
+        <v>134551</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I906" t="n">
+        <v>6</v>
+      </c>
+      <c r="J906" t="n">
+        <v>12</v>
+      </c>
+      <c r="K906" t="n">
+        <v>10</v>
+      </c>
+      <c r="L906" t="n">
+        <v>15</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>24</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>1</v>
+      </c>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B907" t="n">
+        <v>1059.300048828125</v>
+      </c>
+      <c r="C907" t="n">
+        <v>1059.900024414062</v>
+      </c>
+      <c r="D907" t="n">
+        <v>1055.550048828125</v>
+      </c>
+      <c r="E907" t="n">
+        <v>1057.550048828125</v>
+      </c>
+      <c r="F907" t="n">
+        <v>1057.550048828125</v>
+      </c>
+      <c r="G907" t="n">
+        <v>88463</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I907" t="n">
+        <v>6</v>
+      </c>
+      <c r="J907" t="n">
+        <v>12</v>
+      </c>
+      <c r="K907" t="n">
+        <v>11</v>
+      </c>
+      <c r="L907" t="n">
+        <v>15</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>24</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
+      <c r="R907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B908" t="n">
+        <v>1057.900024414062</v>
+      </c>
+      <c r="C908" t="n">
+        <v>1059.550048828125</v>
+      </c>
+      <c r="D908" t="n">
+        <v>1056.150024414062</v>
+      </c>
+      <c r="E908" t="n">
+        <v>1057.449951171875</v>
+      </c>
+      <c r="F908" t="n">
+        <v>1057.449951171875</v>
+      </c>
+      <c r="G908" t="n">
+        <v>58688</v>
+      </c>
+      <c r="H908" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I908" t="n">
+        <v>6</v>
+      </c>
+      <c r="J908" t="n">
+        <v>12</v>
+      </c>
+      <c r="K908" t="n">
+        <v>12</v>
+      </c>
+      <c r="L908" t="n">
+        <v>15</v>
+      </c>
+      <c r="M908" t="n">
+        <v>0</v>
+      </c>
+      <c r="N908" t="n">
+        <v>24</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+      <c r="P908" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>0</v>
+      </c>
+      <c r="R908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B909" t="n">
+        <v>1057.599975585938</v>
+      </c>
+      <c r="C909" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D909" t="n">
+        <v>1055.400024414062</v>
+      </c>
+      <c r="E909" t="n">
+        <v>1059.199951171875</v>
+      </c>
+      <c r="F909" t="n">
+        <v>1059.199951171875</v>
+      </c>
+      <c r="G909" t="n">
+        <v>148407</v>
+      </c>
+      <c r="H909" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I909" t="n">
+        <v>6</v>
+      </c>
+      <c r="J909" t="n">
+        <v>12</v>
+      </c>
+      <c r="K909" t="n">
+        <v>13</v>
+      </c>
+      <c r="L909" t="n">
+        <v>15</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>24</v>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+      <c r="P909" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
+      <c r="R909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B910" t="n">
+        <v>1059.300048828125</v>
+      </c>
+      <c r="C910" t="n">
+        <v>1060.900024414062</v>
+      </c>
+      <c r="D910" t="n">
+        <v>1057.599975585938</v>
+      </c>
+      <c r="E910" t="n">
+        <v>1058.300048828125</v>
+      </c>
+      <c r="F910" t="n">
+        <v>1058.300048828125</v>
+      </c>
+      <c r="G910" t="n">
+        <v>80792</v>
+      </c>
+      <c r="H910" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I910" t="n">
+        <v>6</v>
+      </c>
+      <c r="J910" t="n">
+        <v>12</v>
+      </c>
+      <c r="K910" t="n">
+        <v>14</v>
+      </c>
+      <c r="L910" t="n">
+        <v>15</v>
+      </c>
+      <c r="M910" t="n">
+        <v>0</v>
+      </c>
+      <c r="N910" t="n">
+        <v>24</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+      <c r="P910" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>2</v>
+      </c>
+      <c r="R910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B911" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C911" t="n">
+        <v>1060.599975585938</v>
+      </c>
+      <c r="D911" t="n">
+        <v>1057.099975585938</v>
+      </c>
+      <c r="E911" t="n">
+        <v>1058.849975585938</v>
+      </c>
+      <c r="F911" t="n">
+        <v>1058.849975585938</v>
+      </c>
+      <c r="G911" t="n">
+        <v>44569</v>
+      </c>
+      <c r="H911" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I911" t="n">
+        <v>6</v>
+      </c>
+      <c r="J911" t="n">
+        <v>12</v>
+      </c>
+      <c r="K911" t="n">
+        <v>15</v>
+      </c>
+      <c r="L911" t="n">
+        <v>15</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>24</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
+      <c r="R911" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R911"/>
+  <dimension ref="A1:R918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51149,7 +51149,9 @@
       <c r="Q905" t="n">
         <v>0</v>
       </c>
-      <c r="R905" t="inlineStr"/>
+      <c r="R905" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
@@ -51203,7 +51205,9 @@
       <c r="Q906" t="n">
         <v>1</v>
       </c>
-      <c r="R906" t="inlineStr"/>
+      <c r="R906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
@@ -51257,7 +51261,9 @@
       <c r="Q907" t="n">
         <v>0</v>
       </c>
-      <c r="R907" t="inlineStr"/>
+      <c r="R907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
@@ -51311,7 +51317,9 @@
       <c r="Q908" t="n">
         <v>0</v>
       </c>
-      <c r="R908" t="inlineStr"/>
+      <c r="R908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
@@ -51365,7 +51373,9 @@
       <c r="Q909" t="n">
         <v>0</v>
       </c>
-      <c r="R909" t="inlineStr"/>
+      <c r="R909" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
@@ -51419,7 +51429,9 @@
       <c r="Q910" t="n">
         <v>2</v>
       </c>
-      <c r="R910" t="inlineStr"/>
+      <c r="R910" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
@@ -51473,7 +51485,387 @@
       <c r="Q911" t="n">
         <v>0</v>
       </c>
-      <c r="R911" t="inlineStr"/>
+      <c r="R911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B912" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C912" t="n">
+        <v>1062.199951171875</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1054.949951171875</v>
+      </c>
+      <c r="E912" t="n">
+        <v>1058.449951171875</v>
+      </c>
+      <c r="F912" t="n">
+        <v>1058.449951171875</v>
+      </c>
+      <c r="G912" t="n">
+        <v>0</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I912" t="n">
+        <v>6</v>
+      </c>
+      <c r="J912" t="n">
+        <v>13</v>
+      </c>
+      <c r="K912" t="n">
+        <v>9</v>
+      </c>
+      <c r="L912" t="n">
+        <v>15</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>24</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
+      <c r="R912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B913" t="n">
+        <v>1058.449951171875</v>
+      </c>
+      <c r="C913" t="n">
+        <v>1058.949951171875</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1053.599975585938</v>
+      </c>
+      <c r="E913" t="n">
+        <v>1054.849975585938</v>
+      </c>
+      <c r="F913" t="n">
+        <v>1054.849975585938</v>
+      </c>
+      <c r="G913" t="n">
+        <v>115009</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I913" t="n">
+        <v>6</v>
+      </c>
+      <c r="J913" t="n">
+        <v>13</v>
+      </c>
+      <c r="K913" t="n">
+        <v>10</v>
+      </c>
+      <c r="L913" t="n">
+        <v>15</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>24</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
+      <c r="R913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="B914" t="n">
+        <v>1054.199951171875</v>
+      </c>
+      <c r="C914" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D914" t="n">
+        <v>1052.300048828125</v>
+      </c>
+      <c r="E914" t="n">
+        <v>1052.75</v>
+      </c>
+      <c r="F914" t="n">
+        <v>1052.75</v>
+      </c>
+      <c r="G914" t="n">
+        <v>89692</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I914" t="n">
+        <v>6</v>
+      </c>
+      <c r="J914" t="n">
+        <v>13</v>
+      </c>
+      <c r="K914" t="n">
+        <v>11</v>
+      </c>
+      <c r="L914" t="n">
+        <v>15</v>
+      </c>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>24</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
+      <c r="R914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B915" t="n">
+        <v>1053.25</v>
+      </c>
+      <c r="C915" t="n">
+        <v>1053.449951171875</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1047.949951171875</v>
+      </c>
+      <c r="E915" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F915" t="n">
+        <v>1049</v>
+      </c>
+      <c r="G915" t="n">
+        <v>170753</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I915" t="n">
+        <v>6</v>
+      </c>
+      <c r="J915" t="n">
+        <v>13</v>
+      </c>
+      <c r="K915" t="n">
+        <v>12</v>
+      </c>
+      <c r="L915" t="n">
+        <v>15</v>
+      </c>
+      <c r="M915" t="n">
+        <v>0</v>
+      </c>
+      <c r="N915" t="n">
+        <v>24</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+      <c r="P915" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>0</v>
+      </c>
+      <c r="R915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B916" t="n">
+        <v>1048.900024414062</v>
+      </c>
+      <c r="C916" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D916" t="n">
+        <v>1046.5</v>
+      </c>
+      <c r="E916" t="n">
+        <v>1047.949951171875</v>
+      </c>
+      <c r="F916" t="n">
+        <v>1047.949951171875</v>
+      </c>
+      <c r="G916" t="n">
+        <v>113593</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I916" t="n">
+        <v>6</v>
+      </c>
+      <c r="J916" t="n">
+        <v>13</v>
+      </c>
+      <c r="K916" t="n">
+        <v>13</v>
+      </c>
+      <c r="L916" t="n">
+        <v>15</v>
+      </c>
+      <c r="M916" t="n">
+        <v>0</v>
+      </c>
+      <c r="N916" t="n">
+        <v>24</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+      <c r="P916" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>0</v>
+      </c>
+      <c r="R916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B917" t="n">
+        <v>1047.949951171875</v>
+      </c>
+      <c r="C917" t="n">
+        <v>1049.900024414062</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1047.75</v>
+      </c>
+      <c r="E917" t="n">
+        <v>1048.699951171875</v>
+      </c>
+      <c r="F917" t="n">
+        <v>1048.699951171875</v>
+      </c>
+      <c r="G917" t="n">
+        <v>103252</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I917" t="n">
+        <v>6</v>
+      </c>
+      <c r="J917" t="n">
+        <v>13</v>
+      </c>
+      <c r="K917" t="n">
+        <v>14</v>
+      </c>
+      <c r="L917" t="n">
+        <v>15</v>
+      </c>
+      <c r="M917" t="n">
+        <v>0</v>
+      </c>
+      <c r="N917" t="n">
+        <v>24</v>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+      <c r="P917" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>0</v>
+      </c>
+      <c r="R917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B918" t="n">
+        <v>1048.900024414062</v>
+      </c>
+      <c r="C918" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D918" t="n">
+        <v>1047.949951171875</v>
+      </c>
+      <c r="E918" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="F918" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="G918" t="n">
+        <v>72783</v>
+      </c>
+      <c r="H918" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I918" t="n">
+        <v>6</v>
+      </c>
+      <c r="J918" t="n">
+        <v>13</v>
+      </c>
+      <c r="K918" t="n">
+        <v>15</v>
+      </c>
+      <c r="L918" t="n">
+        <v>15</v>
+      </c>
+      <c r="M918" t="n">
+        <v>0</v>
+      </c>
+      <c r="N918" t="n">
+        <v>24</v>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+      <c r="P918" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>0</v>
+      </c>
+      <c r="R918" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R918"/>
+  <dimension ref="A1:R925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51541,7 +51541,9 @@
       <c r="Q912" t="n">
         <v>0</v>
       </c>
-      <c r="R912" t="inlineStr"/>
+      <c r="R912" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
@@ -51595,7 +51597,9 @@
       <c r="Q913" t="n">
         <v>0</v>
       </c>
-      <c r="R913" t="inlineStr"/>
+      <c r="R913" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
@@ -51649,7 +51653,9 @@
       <c r="Q914" t="n">
         <v>0</v>
       </c>
-      <c r="R914" t="inlineStr"/>
+      <c r="R914" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
@@ -51703,7 +51709,9 @@
       <c r="Q915" t="n">
         <v>0</v>
       </c>
-      <c r="R915" t="inlineStr"/>
+      <c r="R915" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
@@ -51757,7 +51765,9 @@
       <c r="Q916" t="n">
         <v>0</v>
       </c>
-      <c r="R916" t="inlineStr"/>
+      <c r="R916" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
@@ -51811,7 +51821,9 @@
       <c r="Q917" t="n">
         <v>0</v>
       </c>
-      <c r="R917" t="inlineStr"/>
+      <c r="R917" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
@@ -51865,7 +51877,387 @@
       <c r="Q918" t="n">
         <v>0</v>
       </c>
-      <c r="R918" t="inlineStr"/>
+      <c r="R918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B919" t="n">
+        <v>1047.050048828125</v>
+      </c>
+      <c r="C919" t="n">
+        <v>1047.949951171875</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1038.550048828125</v>
+      </c>
+      <c r="E919" t="n">
+        <v>1039.900024414062</v>
+      </c>
+      <c r="F919" t="n">
+        <v>1039.900024414062</v>
+      </c>
+      <c r="G919" t="n">
+        <v>0</v>
+      </c>
+      <c r="H919" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I919" t="n">
+        <v>6</v>
+      </c>
+      <c r="J919" t="n">
+        <v>14</v>
+      </c>
+      <c r="K919" t="n">
+        <v>9</v>
+      </c>
+      <c r="L919" t="n">
+        <v>15</v>
+      </c>
+      <c r="M919" t="n">
+        <v>0</v>
+      </c>
+      <c r="N919" t="n">
+        <v>24</v>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+      <c r="P919" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>0</v>
+      </c>
+      <c r="R919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B920" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C920" t="n">
+        <v>1041</v>
+      </c>
+      <c r="D920" t="n">
+        <v>1039.150024414062</v>
+      </c>
+      <c r="E920" t="n">
+        <v>1039.949951171875</v>
+      </c>
+      <c r="F920" t="n">
+        <v>1039.949951171875</v>
+      </c>
+      <c r="G920" t="n">
+        <v>161329</v>
+      </c>
+      <c r="H920" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I920" t="n">
+        <v>6</v>
+      </c>
+      <c r="J920" t="n">
+        <v>14</v>
+      </c>
+      <c r="K920" t="n">
+        <v>10</v>
+      </c>
+      <c r="L920" t="n">
+        <v>15</v>
+      </c>
+      <c r="M920" t="n">
+        <v>0</v>
+      </c>
+      <c r="N920" t="n">
+        <v>24</v>
+      </c>
+      <c r="O920" t="n">
+        <v>0</v>
+      </c>
+      <c r="P920" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q920" t="n">
+        <v>0</v>
+      </c>
+      <c r="R920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B921" t="n">
+        <v>1039.75</v>
+      </c>
+      <c r="C921" t="n">
+        <v>1039.949951171875</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1038.349975585938</v>
+      </c>
+      <c r="E921" t="n">
+        <v>1038.900024414062</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1038.900024414062</v>
+      </c>
+      <c r="G921" t="n">
+        <v>86772</v>
+      </c>
+      <c r="H921" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I921" t="n">
+        <v>6</v>
+      </c>
+      <c r="J921" t="n">
+        <v>14</v>
+      </c>
+      <c r="K921" t="n">
+        <v>11</v>
+      </c>
+      <c r="L921" t="n">
+        <v>15</v>
+      </c>
+      <c r="M921" t="n">
+        <v>0</v>
+      </c>
+      <c r="N921" t="n">
+        <v>24</v>
+      </c>
+      <c r="O921" t="n">
+        <v>0</v>
+      </c>
+      <c r="P921" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>0</v>
+      </c>
+      <c r="R921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B922" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C922" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D922" t="n">
+        <v>1038.150024414062</v>
+      </c>
+      <c r="E922" t="n">
+        <v>1038.949951171875</v>
+      </c>
+      <c r="F922" t="n">
+        <v>1038.949951171875</v>
+      </c>
+      <c r="G922" t="n">
+        <v>102700</v>
+      </c>
+      <c r="H922" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I922" t="n">
+        <v>6</v>
+      </c>
+      <c r="J922" t="n">
+        <v>14</v>
+      </c>
+      <c r="K922" t="n">
+        <v>12</v>
+      </c>
+      <c r="L922" t="n">
+        <v>15</v>
+      </c>
+      <c r="M922" t="n">
+        <v>0</v>
+      </c>
+      <c r="N922" t="n">
+        <v>24</v>
+      </c>
+      <c r="O922" t="n">
+        <v>0</v>
+      </c>
+      <c r="P922" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>0</v>
+      </c>
+      <c r="R922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B923" t="n">
+        <v>1038.900024414062</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1039.050048828125</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1037.800048828125</v>
+      </c>
+      <c r="E923" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F923" t="n">
+        <v>1039</v>
+      </c>
+      <c r="G923" t="n">
+        <v>125934</v>
+      </c>
+      <c r="H923" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I923" t="n">
+        <v>6</v>
+      </c>
+      <c r="J923" t="n">
+        <v>14</v>
+      </c>
+      <c r="K923" t="n">
+        <v>13</v>
+      </c>
+      <c r="L923" t="n">
+        <v>15</v>
+      </c>
+      <c r="M923" t="n">
+        <v>0</v>
+      </c>
+      <c r="N923" t="n">
+        <v>24</v>
+      </c>
+      <c r="O923" t="n">
+        <v>0</v>
+      </c>
+      <c r="P923" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>0</v>
+      </c>
+      <c r="R923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B924" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C924" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1037.5</v>
+      </c>
+      <c r="E924" t="n">
+        <v>1037.599975585938</v>
+      </c>
+      <c r="F924" t="n">
+        <v>1037.599975585938</v>
+      </c>
+      <c r="G924" t="n">
+        <v>238891</v>
+      </c>
+      <c r="H924" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I924" t="n">
+        <v>6</v>
+      </c>
+      <c r="J924" t="n">
+        <v>14</v>
+      </c>
+      <c r="K924" t="n">
+        <v>14</v>
+      </c>
+      <c r="L924" t="n">
+        <v>15</v>
+      </c>
+      <c r="M924" t="n">
+        <v>0</v>
+      </c>
+      <c r="N924" t="n">
+        <v>24</v>
+      </c>
+      <c r="O924" t="n">
+        <v>0</v>
+      </c>
+      <c r="P924" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>0</v>
+      </c>
+      <c r="R924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45457.63541666666</v>
+      </c>
+      <c r="B925" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="C925" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1036.900024414062</v>
+      </c>
+      <c r="E925" t="n">
+        <v>1037.650024414062</v>
+      </c>
+      <c r="F925" t="n">
+        <v>1037.650024414062</v>
+      </c>
+      <c r="G925" t="n">
+        <v>105053</v>
+      </c>
+      <c r="H925" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I925" t="n">
+        <v>6</v>
+      </c>
+      <c r="J925" t="n">
+        <v>14</v>
+      </c>
+      <c r="K925" t="n">
+        <v>15</v>
+      </c>
+      <c r="L925" t="n">
+        <v>15</v>
+      </c>
+      <c r="M925" t="n">
+        <v>0</v>
+      </c>
+      <c r="N925" t="n">
+        <v>24</v>
+      </c>
+      <c r="O925" t="n">
+        <v>0</v>
+      </c>
+      <c r="P925" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>0</v>
+      </c>
+      <c r="R925" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -51933,7 +51933,9 @@
       <c r="Q919" t="n">
         <v>0</v>
       </c>
-      <c r="R919" t="inlineStr"/>
+      <c r="R919" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
@@ -51987,7 +51989,9 @@
       <c r="Q920" t="n">
         <v>0</v>
       </c>
-      <c r="R920" t="inlineStr"/>
+      <c r="R920" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
@@ -52041,7 +52045,9 @@
       <c r="Q921" t="n">
         <v>0</v>
       </c>
-      <c r="R921" t="inlineStr"/>
+      <c r="R921" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
@@ -52095,7 +52101,9 @@
       <c r="Q922" t="n">
         <v>0</v>
       </c>
-      <c r="R922" t="inlineStr"/>
+      <c r="R922" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
@@ -52149,7 +52157,9 @@
       <c r="Q923" t="n">
         <v>0</v>
       </c>
-      <c r="R923" t="inlineStr"/>
+      <c r="R923" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
@@ -52203,7 +52213,9 @@
       <c r="Q924" t="n">
         <v>0</v>
       </c>
-      <c r="R924" t="inlineStr"/>
+      <c r="R924" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
@@ -52257,7 +52269,9 @@
       <c r="Q925" t="n">
         <v>0</v>
       </c>
-      <c r="R925" t="inlineStr"/>
+      <c r="R925" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R925"/>
+  <dimension ref="A1:R932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52273,6 +52273,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B926" t="n">
+        <v>1039.099975585938</v>
+      </c>
+      <c r="C926" t="n">
+        <v>1041.75</v>
+      </c>
+      <c r="D926" t="n">
+        <v>1032</v>
+      </c>
+      <c r="E926" t="n">
+        <v>1033.75</v>
+      </c>
+      <c r="F926" t="n">
+        <v>1033.75</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0</v>
+      </c>
+      <c r="H926" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I926" t="n">
+        <v>6</v>
+      </c>
+      <c r="J926" t="n">
+        <v>18</v>
+      </c>
+      <c r="K926" t="n">
+        <v>9</v>
+      </c>
+      <c r="L926" t="n">
+        <v>15</v>
+      </c>
+      <c r="M926" t="n">
+        <v>0</v>
+      </c>
+      <c r="N926" t="n">
+        <v>25</v>
+      </c>
+      <c r="O926" t="n">
+        <v>0</v>
+      </c>
+      <c r="P926" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>0</v>
+      </c>
+      <c r="R926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B927" t="n">
+        <v>1033.650024414062</v>
+      </c>
+      <c r="C927" t="n">
+        <v>1040.400024414062</v>
+      </c>
+      <c r="D927" t="n">
+        <v>1032.550048828125</v>
+      </c>
+      <c r="E927" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F927" t="n">
+        <v>1034</v>
+      </c>
+      <c r="G927" t="n">
+        <v>236502</v>
+      </c>
+      <c r="H927" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I927" t="n">
+        <v>6</v>
+      </c>
+      <c r="J927" t="n">
+        <v>18</v>
+      </c>
+      <c r="K927" t="n">
+        <v>10</v>
+      </c>
+      <c r="L927" t="n">
+        <v>15</v>
+      </c>
+      <c r="M927" t="n">
+        <v>0</v>
+      </c>
+      <c r="N927" t="n">
+        <v>25</v>
+      </c>
+      <c r="O927" t="n">
+        <v>0</v>
+      </c>
+      <c r="P927" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>0</v>
+      </c>
+      <c r="R927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B928" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C928" t="n">
+        <v>1034.449951171875</v>
+      </c>
+      <c r="D928" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="E928" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F928" t="n">
+        <v>1034</v>
+      </c>
+      <c r="G928" t="n">
+        <v>80481</v>
+      </c>
+      <c r="H928" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I928" t="n">
+        <v>6</v>
+      </c>
+      <c r="J928" t="n">
+        <v>18</v>
+      </c>
+      <c r="K928" t="n">
+        <v>11</v>
+      </c>
+      <c r="L928" t="n">
+        <v>15</v>
+      </c>
+      <c r="M928" t="n">
+        <v>0</v>
+      </c>
+      <c r="N928" t="n">
+        <v>25</v>
+      </c>
+      <c r="O928" t="n">
+        <v>0</v>
+      </c>
+      <c r="P928" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>0</v>
+      </c>
+      <c r="R928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B929" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C929" t="n">
+        <v>1034</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1030.699951171875</v>
+      </c>
+      <c r="E929" t="n">
+        <v>1031.949951171875</v>
+      </c>
+      <c r="F929" t="n">
+        <v>1031.949951171875</v>
+      </c>
+      <c r="G929" t="n">
+        <v>116954</v>
+      </c>
+      <c r="H929" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I929" t="n">
+        <v>6</v>
+      </c>
+      <c r="J929" t="n">
+        <v>18</v>
+      </c>
+      <c r="K929" t="n">
+        <v>12</v>
+      </c>
+      <c r="L929" t="n">
+        <v>15</v>
+      </c>
+      <c r="M929" t="n">
+        <v>0</v>
+      </c>
+      <c r="N929" t="n">
+        <v>25</v>
+      </c>
+      <c r="O929" t="n">
+        <v>0</v>
+      </c>
+      <c r="P929" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>0</v>
+      </c>
+      <c r="R929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45461.55208333334</v>
+      </c>
+      <c r="B930" t="n">
+        <v>1031.949951171875</v>
+      </c>
+      <c r="C930" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D930" t="n">
+        <v>1030.099975585938</v>
+      </c>
+      <c r="E930" t="n">
+        <v>1031.300048828125</v>
+      </c>
+      <c r="F930" t="n">
+        <v>1031.300048828125</v>
+      </c>
+      <c r="G930" t="n">
+        <v>90131</v>
+      </c>
+      <c r="H930" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I930" t="n">
+        <v>6</v>
+      </c>
+      <c r="J930" t="n">
+        <v>18</v>
+      </c>
+      <c r="K930" t="n">
+        <v>13</v>
+      </c>
+      <c r="L930" t="n">
+        <v>15</v>
+      </c>
+      <c r="M930" t="n">
+        <v>0</v>
+      </c>
+      <c r="N930" t="n">
+        <v>25</v>
+      </c>
+      <c r="O930" t="n">
+        <v>0</v>
+      </c>
+      <c r="P930" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>0</v>
+      </c>
+      <c r="R930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B931" t="n">
+        <v>1031.300048828125</v>
+      </c>
+      <c r="C931" t="n">
+        <v>1031.699951171875</v>
+      </c>
+      <c r="D931" t="n">
+        <v>1028.050048828125</v>
+      </c>
+      <c r="E931" t="n">
+        <v>1029.449951171875</v>
+      </c>
+      <c r="F931" t="n">
+        <v>1029.449951171875</v>
+      </c>
+      <c r="G931" t="n">
+        <v>210626</v>
+      </c>
+      <c r="H931" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I931" t="n">
+        <v>6</v>
+      </c>
+      <c r="J931" t="n">
+        <v>18</v>
+      </c>
+      <c r="K931" t="n">
+        <v>14</v>
+      </c>
+      <c r="L931" t="n">
+        <v>15</v>
+      </c>
+      <c r="M931" t="n">
+        <v>0</v>
+      </c>
+      <c r="N931" t="n">
+        <v>25</v>
+      </c>
+      <c r="O931" t="n">
+        <v>0</v>
+      </c>
+      <c r="P931" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>0</v>
+      </c>
+      <c r="R931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B932" t="n">
+        <v>1029.449951171875</v>
+      </c>
+      <c r="C932" t="n">
+        <v>1030.550048828125</v>
+      </c>
+      <c r="D932" t="n">
+        <v>1028.699951171875</v>
+      </c>
+      <c r="E932" t="n">
+        <v>1029.599975585938</v>
+      </c>
+      <c r="F932" t="n">
+        <v>1029.599975585938</v>
+      </c>
+      <c r="G932" t="n">
+        <v>93157</v>
+      </c>
+      <c r="H932" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I932" t="n">
+        <v>6</v>
+      </c>
+      <c r="J932" t="n">
+        <v>18</v>
+      </c>
+      <c r="K932" t="n">
+        <v>15</v>
+      </c>
+      <c r="L932" t="n">
+        <v>15</v>
+      </c>
+      <c r="M932" t="n">
+        <v>0</v>
+      </c>
+      <c r="N932" t="n">
+        <v>25</v>
+      </c>
+      <c r="O932" t="n">
+        <v>0</v>
+      </c>
+      <c r="P932" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>0</v>
+      </c>
+      <c r="R932" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R932"/>
+  <dimension ref="A1:R939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52325,7 +52325,9 @@
       <c r="Q926" t="n">
         <v>0</v>
       </c>
-      <c r="R926" t="inlineStr"/>
+      <c r="R926" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
@@ -52379,7 +52381,9 @@
       <c r="Q927" t="n">
         <v>0</v>
       </c>
-      <c r="R927" t="inlineStr"/>
+      <c r="R927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
@@ -52433,7 +52437,9 @@
       <c r="Q928" t="n">
         <v>0</v>
       </c>
-      <c r="R928" t="inlineStr"/>
+      <c r="R928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
@@ -52487,7 +52493,9 @@
       <c r="Q929" t="n">
         <v>0</v>
       </c>
-      <c r="R929" t="inlineStr"/>
+      <c r="R929" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
@@ -52541,7 +52549,9 @@
       <c r="Q930" t="n">
         <v>0</v>
       </c>
-      <c r="R930" t="inlineStr"/>
+      <c r="R930" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
@@ -52595,7 +52605,9 @@
       <c r="Q931" t="n">
         <v>0</v>
       </c>
-      <c r="R931" t="inlineStr"/>
+      <c r="R931" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
@@ -52649,7 +52661,387 @@
       <c r="Q932" t="n">
         <v>0</v>
       </c>
-      <c r="R932" t="inlineStr"/>
+      <c r="R932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B933" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C933" t="n">
+        <v>1043.650024414062</v>
+      </c>
+      <c r="D933" t="n">
+        <v>1028.699951171875</v>
+      </c>
+      <c r="E933" t="n">
+        <v>1029.099975585938</v>
+      </c>
+      <c r="F933" t="n">
+        <v>1029.099975585938</v>
+      </c>
+      <c r="G933" t="n">
+        <v>402662</v>
+      </c>
+      <c r="H933" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I933" t="n">
+        <v>6</v>
+      </c>
+      <c r="J933" t="n">
+        <v>19</v>
+      </c>
+      <c r="K933" t="n">
+        <v>9</v>
+      </c>
+      <c r="L933" t="n">
+        <v>15</v>
+      </c>
+      <c r="M933" t="n">
+        <v>0</v>
+      </c>
+      <c r="N933" t="n">
+        <v>25</v>
+      </c>
+      <c r="O933" t="n">
+        <v>0</v>
+      </c>
+      <c r="P933" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>0</v>
+      </c>
+      <c r="R933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B934" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C934" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D934" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E934" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F934" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G934" t="n">
+        <v>213159</v>
+      </c>
+      <c r="H934" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I934" t="n">
+        <v>6</v>
+      </c>
+      <c r="J934" t="n">
+        <v>19</v>
+      </c>
+      <c r="K934" t="n">
+        <v>10</v>
+      </c>
+      <c r="L934" t="n">
+        <v>15</v>
+      </c>
+      <c r="M934" t="n">
+        <v>0</v>
+      </c>
+      <c r="N934" t="n">
+        <v>25</v>
+      </c>
+      <c r="O934" t="n">
+        <v>0</v>
+      </c>
+      <c r="P934" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>0</v>
+      </c>
+      <c r="R934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B935" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C935" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1024.550048828125</v>
+      </c>
+      <c r="E935" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F935" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G935" t="n">
+        <v>90109</v>
+      </c>
+      <c r="H935" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I935" t="n">
+        <v>6</v>
+      </c>
+      <c r="J935" t="n">
+        <v>19</v>
+      </c>
+      <c r="K935" t="n">
+        <v>11</v>
+      </c>
+      <c r="L935" t="n">
+        <v>15</v>
+      </c>
+      <c r="M935" t="n">
+        <v>0</v>
+      </c>
+      <c r="N935" t="n">
+        <v>25</v>
+      </c>
+      <c r="O935" t="n">
+        <v>0</v>
+      </c>
+      <c r="P935" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>0</v>
+      </c>
+      <c r="R935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B936" t="n">
+        <v>1026.300048828125</v>
+      </c>
+      <c r="C936" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D936" t="n">
+        <v>1024.800048828125</v>
+      </c>
+      <c r="E936" t="n">
+        <v>1025.900024414062</v>
+      </c>
+      <c r="F936" t="n">
+        <v>1025.900024414062</v>
+      </c>
+      <c r="G936" t="n">
+        <v>123838</v>
+      </c>
+      <c r="H936" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I936" t="n">
+        <v>6</v>
+      </c>
+      <c r="J936" t="n">
+        <v>19</v>
+      </c>
+      <c r="K936" t="n">
+        <v>12</v>
+      </c>
+      <c r="L936" t="n">
+        <v>15</v>
+      </c>
+      <c r="M936" t="n">
+        <v>0</v>
+      </c>
+      <c r="N936" t="n">
+        <v>25</v>
+      </c>
+      <c r="O936" t="n">
+        <v>0</v>
+      </c>
+      <c r="P936" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>0</v>
+      </c>
+      <c r="R936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45462.55208333334</v>
+      </c>
+      <c r="B937" t="n">
+        <v>1025.349975585938</v>
+      </c>
+      <c r="C937" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D937" t="n">
+        <v>1024.75</v>
+      </c>
+      <c r="E937" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F937" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G937" t="n">
+        <v>69455</v>
+      </c>
+      <c r="H937" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I937" t="n">
+        <v>6</v>
+      </c>
+      <c r="J937" t="n">
+        <v>19</v>
+      </c>
+      <c r="K937" t="n">
+        <v>13</v>
+      </c>
+      <c r="L937" t="n">
+        <v>15</v>
+      </c>
+      <c r="M937" t="n">
+        <v>0</v>
+      </c>
+      <c r="N937" t="n">
+        <v>25</v>
+      </c>
+      <c r="O937" t="n">
+        <v>0</v>
+      </c>
+      <c r="P937" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>0</v>
+      </c>
+      <c r="R937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B938" t="n">
+        <v>1025.449951171875</v>
+      </c>
+      <c r="C938" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D938" t="n">
+        <v>1024.900024414062</v>
+      </c>
+      <c r="E938" t="n">
+        <v>1026.849975585938</v>
+      </c>
+      <c r="F938" t="n">
+        <v>1026.849975585938</v>
+      </c>
+      <c r="G938" t="n">
+        <v>123003</v>
+      </c>
+      <c r="H938" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I938" t="n">
+        <v>6</v>
+      </c>
+      <c r="J938" t="n">
+        <v>19</v>
+      </c>
+      <c r="K938" t="n">
+        <v>14</v>
+      </c>
+      <c r="L938" t="n">
+        <v>15</v>
+      </c>
+      <c r="M938" t="n">
+        <v>0</v>
+      </c>
+      <c r="N938" t="n">
+        <v>25</v>
+      </c>
+      <c r="O938" t="n">
+        <v>0</v>
+      </c>
+      <c r="P938" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>0</v>
+      </c>
+      <c r="R938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B939" t="n">
+        <v>1026.849975585938</v>
+      </c>
+      <c r="C939" t="n">
+        <v>1031.699951171875</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1025.650024414062</v>
+      </c>
+      <c r="E939" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="F939" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="G939" t="n">
+        <v>100037</v>
+      </c>
+      <c r="H939" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I939" t="n">
+        <v>6</v>
+      </c>
+      <c r="J939" t="n">
+        <v>19</v>
+      </c>
+      <c r="K939" t="n">
+        <v>15</v>
+      </c>
+      <c r="L939" t="n">
+        <v>15</v>
+      </c>
+      <c r="M939" t="n">
+        <v>0</v>
+      </c>
+      <c r="N939" t="n">
+        <v>25</v>
+      </c>
+      <c r="O939" t="n">
+        <v>0</v>
+      </c>
+      <c r="P939" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>0</v>
+      </c>
+      <c r="R939" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R939"/>
+  <dimension ref="A1:R960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52709,7 +52709,7 @@
         <v>25</v>
       </c>
       <c r="O933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P933" t="n">
         <v>0</v>
@@ -52717,7 +52717,9 @@
       <c r="Q933" t="n">
         <v>0</v>
       </c>
-      <c r="R933" t="inlineStr"/>
+      <c r="R933" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
@@ -52771,7 +52773,9 @@
       <c r="Q934" t="n">
         <v>0</v>
       </c>
-      <c r="R934" t="inlineStr"/>
+      <c r="R934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
@@ -52825,7 +52829,9 @@
       <c r="Q935" t="n">
         <v>0</v>
       </c>
-      <c r="R935" t="inlineStr"/>
+      <c r="R935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
@@ -52879,7 +52885,9 @@
       <c r="Q936" t="n">
         <v>0</v>
       </c>
-      <c r="R936" t="inlineStr"/>
+      <c r="R936" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
@@ -52933,7 +52941,9 @@
       <c r="Q937" t="n">
         <v>0</v>
       </c>
-      <c r="R937" t="inlineStr"/>
+      <c r="R937" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
@@ -52987,7 +52997,9 @@
       <c r="Q938" t="n">
         <v>0</v>
       </c>
-      <c r="R938" t="inlineStr"/>
+      <c r="R938" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
@@ -53041,7 +53053,1143 @@
       <c r="Q939" t="n">
         <v>0</v>
       </c>
-      <c r="R939" t="inlineStr"/>
+      <c r="R939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B940" t="n">
+        <v>1024.75</v>
+      </c>
+      <c r="C940" t="n">
+        <v>1024.75</v>
+      </c>
+      <c r="D940" t="n">
+        <v>1007.049987792969</v>
+      </c>
+      <c r="E940" t="n">
+        <v>1010.400024414062</v>
+      </c>
+      <c r="F940" t="n">
+        <v>1010.400024414062</v>
+      </c>
+      <c r="G940" t="n">
+        <v>0</v>
+      </c>
+      <c r="H940" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I940" t="n">
+        <v>6</v>
+      </c>
+      <c r="J940" t="n">
+        <v>20</v>
+      </c>
+      <c r="K940" t="n">
+        <v>9</v>
+      </c>
+      <c r="L940" t="n">
+        <v>15</v>
+      </c>
+      <c r="M940" t="n">
+        <v>0</v>
+      </c>
+      <c r="N940" t="n">
+        <v>25</v>
+      </c>
+      <c r="O940" t="n">
+        <v>0</v>
+      </c>
+      <c r="P940" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>0</v>
+      </c>
+      <c r="R940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B941" t="n">
+        <v>1010.400024414062</v>
+      </c>
+      <c r="C941" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="D941" t="n">
+        <v>1009.700012207031</v>
+      </c>
+      <c r="E941" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="F941" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="G941" t="n">
+        <v>303782</v>
+      </c>
+      <c r="H941" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I941" t="n">
+        <v>6</v>
+      </c>
+      <c r="J941" t="n">
+        <v>20</v>
+      </c>
+      <c r="K941" t="n">
+        <v>10</v>
+      </c>
+      <c r="L941" t="n">
+        <v>15</v>
+      </c>
+      <c r="M941" t="n">
+        <v>0</v>
+      </c>
+      <c r="N941" t="n">
+        <v>25</v>
+      </c>
+      <c r="O941" t="n">
+        <v>0</v>
+      </c>
+      <c r="P941" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>0</v>
+      </c>
+      <c r="R941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B942" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="C942" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="D942" t="n">
+        <v>1010.599975585938</v>
+      </c>
+      <c r="E942" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F942" t="n">
+        <v>1012</v>
+      </c>
+      <c r="G942" t="n">
+        <v>237803</v>
+      </c>
+      <c r="H942" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I942" t="n">
+        <v>6</v>
+      </c>
+      <c r="J942" t="n">
+        <v>20</v>
+      </c>
+      <c r="K942" t="n">
+        <v>11</v>
+      </c>
+      <c r="L942" t="n">
+        <v>15</v>
+      </c>
+      <c r="M942" t="n">
+        <v>0</v>
+      </c>
+      <c r="N942" t="n">
+        <v>25</v>
+      </c>
+      <c r="O942" t="n">
+        <v>0</v>
+      </c>
+      <c r="P942" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>0</v>
+      </c>
+      <c r="R942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B943" t="n">
+        <v>1012.049987792969</v>
+      </c>
+      <c r="C943" t="n">
+        <v>1012.950012207031</v>
+      </c>
+      <c r="D943" t="n">
+        <v>1008.900024414062</v>
+      </c>
+      <c r="E943" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="F943" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="G943" t="n">
+        <v>301696</v>
+      </c>
+      <c r="H943" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I943" t="n">
+        <v>6</v>
+      </c>
+      <c r="J943" t="n">
+        <v>20</v>
+      </c>
+      <c r="K943" t="n">
+        <v>12</v>
+      </c>
+      <c r="L943" t="n">
+        <v>15</v>
+      </c>
+      <c r="M943" t="n">
+        <v>0</v>
+      </c>
+      <c r="N943" t="n">
+        <v>25</v>
+      </c>
+      <c r="O943" t="n">
+        <v>0</v>
+      </c>
+      <c r="P943" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>0</v>
+      </c>
+      <c r="R943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B944" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="C944" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D944" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E944" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="F944" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="G944" t="n">
+        <v>218108</v>
+      </c>
+      <c r="H944" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I944" t="n">
+        <v>6</v>
+      </c>
+      <c r="J944" t="n">
+        <v>20</v>
+      </c>
+      <c r="K944" t="n">
+        <v>13</v>
+      </c>
+      <c r="L944" t="n">
+        <v>15</v>
+      </c>
+      <c r="M944" t="n">
+        <v>0</v>
+      </c>
+      <c r="N944" t="n">
+        <v>25</v>
+      </c>
+      <c r="O944" t="n">
+        <v>0</v>
+      </c>
+      <c r="P944" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>2</v>
+      </c>
+      <c r="R944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B945" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C945" t="n">
+        <v>1011</v>
+      </c>
+      <c r="D945" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="E945" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F945" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G945" t="n">
+        <v>241815</v>
+      </c>
+      <c r="H945" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I945" t="n">
+        <v>6</v>
+      </c>
+      <c r="J945" t="n">
+        <v>20</v>
+      </c>
+      <c r="K945" t="n">
+        <v>14</v>
+      </c>
+      <c r="L945" t="n">
+        <v>15</v>
+      </c>
+      <c r="M945" t="n">
+        <v>0</v>
+      </c>
+      <c r="N945" t="n">
+        <v>25</v>
+      </c>
+      <c r="O945" t="n">
+        <v>0</v>
+      </c>
+      <c r="P945" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>0</v>
+      </c>
+      <c r="R945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45463.63541666666</v>
+      </c>
+      <c r="B946" t="n">
+        <v>1010.099975585938</v>
+      </c>
+      <c r="C946" t="n">
+        <v>1011.900024414062</v>
+      </c>
+      <c r="D946" t="n">
+        <v>1009.650024414062</v>
+      </c>
+      <c r="E946" t="n">
+        <v>1011.900024414062</v>
+      </c>
+      <c r="F946" t="n">
+        <v>1011.900024414062</v>
+      </c>
+      <c r="G946" t="n">
+        <v>166416</v>
+      </c>
+      <c r="H946" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I946" t="n">
+        <v>6</v>
+      </c>
+      <c r="J946" t="n">
+        <v>20</v>
+      </c>
+      <c r="K946" t="n">
+        <v>15</v>
+      </c>
+      <c r="L946" t="n">
+        <v>15</v>
+      </c>
+      <c r="M946" t="n">
+        <v>0</v>
+      </c>
+      <c r="N946" t="n">
+        <v>25</v>
+      </c>
+      <c r="O946" t="n">
+        <v>0</v>
+      </c>
+      <c r="P946" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q946" t="n">
+        <v>0</v>
+      </c>
+      <c r="R946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B947" t="n">
+        <v>1012.049987792969</v>
+      </c>
+      <c r="C947" t="n">
+        <v>1013.900024414062</v>
+      </c>
+      <c r="D947" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E947" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F947" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G947" t="n">
+        <v>0</v>
+      </c>
+      <c r="H947" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I947" t="n">
+        <v>6</v>
+      </c>
+      <c r="J947" t="n">
+        <v>21</v>
+      </c>
+      <c r="K947" t="n">
+        <v>9</v>
+      </c>
+      <c r="L947" t="n">
+        <v>15</v>
+      </c>
+      <c r="M947" t="n">
+        <v>0</v>
+      </c>
+      <c r="N947" t="n">
+        <v>25</v>
+      </c>
+      <c r="O947" t="n">
+        <v>0</v>
+      </c>
+      <c r="P947" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>0</v>
+      </c>
+      <c r="R947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B948" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C948" t="n">
+        <v>1012.950012207031</v>
+      </c>
+      <c r="D948" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="E948" t="n">
+        <v>1003.900024414062</v>
+      </c>
+      <c r="F948" t="n">
+        <v>1003.900024414062</v>
+      </c>
+      <c r="G948" t="n">
+        <v>721711</v>
+      </c>
+      <c r="H948" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I948" t="n">
+        <v>6</v>
+      </c>
+      <c r="J948" t="n">
+        <v>21</v>
+      </c>
+      <c r="K948" t="n">
+        <v>10</v>
+      </c>
+      <c r="L948" t="n">
+        <v>15</v>
+      </c>
+      <c r="M948" t="n">
+        <v>0</v>
+      </c>
+      <c r="N948" t="n">
+        <v>25</v>
+      </c>
+      <c r="O948" t="n">
+        <v>0</v>
+      </c>
+      <c r="P948" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>0</v>
+      </c>
+      <c r="R948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B949" t="n">
+        <v>1003.900024414062</v>
+      </c>
+      <c r="C949" t="n">
+        <v>1004.25</v>
+      </c>
+      <c r="D949" t="n">
+        <v>999.5999755859375</v>
+      </c>
+      <c r="E949" t="n">
+        <v>1003.349975585938</v>
+      </c>
+      <c r="F949" t="n">
+        <v>1003.349975585938</v>
+      </c>
+      <c r="G949" t="n">
+        <v>340765</v>
+      </c>
+      <c r="H949" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I949" t="n">
+        <v>6</v>
+      </c>
+      <c r="J949" t="n">
+        <v>21</v>
+      </c>
+      <c r="K949" t="n">
+        <v>11</v>
+      </c>
+      <c r="L949" t="n">
+        <v>15</v>
+      </c>
+      <c r="M949" t="n">
+        <v>0</v>
+      </c>
+      <c r="N949" t="n">
+        <v>25</v>
+      </c>
+      <c r="O949" t="n">
+        <v>0</v>
+      </c>
+      <c r="P949" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>0</v>
+      </c>
+      <c r="R949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B950" t="n">
+        <v>1003.400024414062</v>
+      </c>
+      <c r="C950" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="D950" t="n">
+        <v>999.7000122070312</v>
+      </c>
+      <c r="E950" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F950" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G950" t="n">
+        <v>283626</v>
+      </c>
+      <c r="H950" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I950" t="n">
+        <v>6</v>
+      </c>
+      <c r="J950" t="n">
+        <v>21</v>
+      </c>
+      <c r="K950" t="n">
+        <v>12</v>
+      </c>
+      <c r="L950" t="n">
+        <v>15</v>
+      </c>
+      <c r="M950" t="n">
+        <v>0</v>
+      </c>
+      <c r="N950" t="n">
+        <v>25</v>
+      </c>
+      <c r="O950" t="n">
+        <v>0</v>
+      </c>
+      <c r="P950" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q950" t="n">
+        <v>0</v>
+      </c>
+      <c r="R950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B951" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C951" t="n">
+        <v>1002.599975585938</v>
+      </c>
+      <c r="D951" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E951" t="n">
+        <v>1001.849975585938</v>
+      </c>
+      <c r="F951" t="n">
+        <v>1001.849975585938</v>
+      </c>
+      <c r="G951" t="n">
+        <v>251476</v>
+      </c>
+      <c r="H951" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I951" t="n">
+        <v>6</v>
+      </c>
+      <c r="J951" t="n">
+        <v>21</v>
+      </c>
+      <c r="K951" t="n">
+        <v>13</v>
+      </c>
+      <c r="L951" t="n">
+        <v>15</v>
+      </c>
+      <c r="M951" t="n">
+        <v>0</v>
+      </c>
+      <c r="N951" t="n">
+        <v>25</v>
+      </c>
+      <c r="O951" t="n">
+        <v>0</v>
+      </c>
+      <c r="P951" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q951" t="n">
+        <v>0</v>
+      </c>
+      <c r="R951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B952" t="n">
+        <v>1001.849975585938</v>
+      </c>
+      <c r="C952" t="n">
+        <v>1002.299987792969</v>
+      </c>
+      <c r="D952" t="n">
+        <v>982.7999877929688</v>
+      </c>
+      <c r="E952" t="n">
+        <v>982.7999877929688</v>
+      </c>
+      <c r="F952" t="n">
+        <v>982.7999877929688</v>
+      </c>
+      <c r="G952" t="n">
+        <v>2877823</v>
+      </c>
+      <c r="H952" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I952" t="n">
+        <v>6</v>
+      </c>
+      <c r="J952" t="n">
+        <v>21</v>
+      </c>
+      <c r="K952" t="n">
+        <v>14</v>
+      </c>
+      <c r="L952" t="n">
+        <v>15</v>
+      </c>
+      <c r="M952" t="n">
+        <v>0</v>
+      </c>
+      <c r="N952" t="n">
+        <v>25</v>
+      </c>
+      <c r="O952" t="n">
+        <v>0</v>
+      </c>
+      <c r="P952" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q952" t="n">
+        <v>0</v>
+      </c>
+      <c r="R952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45464.63541666666</v>
+      </c>
+      <c r="B953" t="n">
+        <v>982.75</v>
+      </c>
+      <c r="C953" t="n">
+        <v>996.9000244140625</v>
+      </c>
+      <c r="D953" t="n">
+        <v>982.75</v>
+      </c>
+      <c r="E953" t="n">
+        <v>994.7000122070312</v>
+      </c>
+      <c r="F953" t="n">
+        <v>994.7000122070312</v>
+      </c>
+      <c r="G953" t="n">
+        <v>1802370</v>
+      </c>
+      <c r="H953" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I953" t="n">
+        <v>6</v>
+      </c>
+      <c r="J953" t="n">
+        <v>21</v>
+      </c>
+      <c r="K953" t="n">
+        <v>15</v>
+      </c>
+      <c r="L953" t="n">
+        <v>15</v>
+      </c>
+      <c r="M953" t="n">
+        <v>0</v>
+      </c>
+      <c r="N953" t="n">
+        <v>25</v>
+      </c>
+      <c r="O953" t="n">
+        <v>0</v>
+      </c>
+      <c r="P953" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q953" t="n">
+        <v>0</v>
+      </c>
+      <c r="R953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B954" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="C954" t="n">
+        <v>1006.799987792969</v>
+      </c>
+      <c r="D954" t="n">
+        <v>990.6500244140625</v>
+      </c>
+      <c r="E954" t="n">
+        <v>1003.950012207031</v>
+      </c>
+      <c r="F954" t="n">
+        <v>1003.950012207031</v>
+      </c>
+      <c r="G954" t="n">
+        <v>0</v>
+      </c>
+      <c r="H954" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I954" t="n">
+        <v>6</v>
+      </c>
+      <c r="J954" t="n">
+        <v>24</v>
+      </c>
+      <c r="K954" t="n">
+        <v>9</v>
+      </c>
+      <c r="L954" t="n">
+        <v>15</v>
+      </c>
+      <c r="M954" t="n">
+        <v>0</v>
+      </c>
+      <c r="N954" t="n">
+        <v>26</v>
+      </c>
+      <c r="O954" t="n">
+        <v>0</v>
+      </c>
+      <c r="P954" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q954" t="n">
+        <v>0</v>
+      </c>
+      <c r="R954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B955" t="n">
+        <v>1003.950012207031</v>
+      </c>
+      <c r="C955" t="n">
+        <v>1005.900024414062</v>
+      </c>
+      <c r="D955" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E955" t="n">
+        <v>1005.349975585938</v>
+      </c>
+      <c r="F955" t="n">
+        <v>1005.349975585938</v>
+      </c>
+      <c r="G955" t="n">
+        <v>127813</v>
+      </c>
+      <c r="H955" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I955" t="n">
+        <v>6</v>
+      </c>
+      <c r="J955" t="n">
+        <v>24</v>
+      </c>
+      <c r="K955" t="n">
+        <v>10</v>
+      </c>
+      <c r="L955" t="n">
+        <v>15</v>
+      </c>
+      <c r="M955" t="n">
+        <v>0</v>
+      </c>
+      <c r="N955" t="n">
+        <v>26</v>
+      </c>
+      <c r="O955" t="n">
+        <v>0</v>
+      </c>
+      <c r="P955" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>0</v>
+      </c>
+      <c r="R955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B956" t="n">
+        <v>1005.349975585938</v>
+      </c>
+      <c r="C956" t="n">
+        <v>1005.75</v>
+      </c>
+      <c r="D956" t="n">
+        <v>1002.200012207031</v>
+      </c>
+      <c r="E956" t="n">
+        <v>1003.950012207031</v>
+      </c>
+      <c r="F956" t="n">
+        <v>1003.950012207031</v>
+      </c>
+      <c r="G956" t="n">
+        <v>74674</v>
+      </c>
+      <c r="H956" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I956" t="n">
+        <v>6</v>
+      </c>
+      <c r="J956" t="n">
+        <v>24</v>
+      </c>
+      <c r="K956" t="n">
+        <v>11</v>
+      </c>
+      <c r="L956" t="n">
+        <v>15</v>
+      </c>
+      <c r="M956" t="n">
+        <v>0</v>
+      </c>
+      <c r="N956" t="n">
+        <v>26</v>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+      <c r="P956" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>0</v>
+      </c>
+      <c r="R956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B957" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C957" t="n">
+        <v>1005.549987792969</v>
+      </c>
+      <c r="D957" t="n">
+        <v>998.0499877929688</v>
+      </c>
+      <c r="E957" t="n">
+        <v>1000.200012207031</v>
+      </c>
+      <c r="F957" t="n">
+        <v>1000.200012207031</v>
+      </c>
+      <c r="G957" t="n">
+        <v>108616</v>
+      </c>
+      <c r="H957" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I957" t="n">
+        <v>6</v>
+      </c>
+      <c r="J957" t="n">
+        <v>24</v>
+      </c>
+      <c r="K957" t="n">
+        <v>12</v>
+      </c>
+      <c r="L957" t="n">
+        <v>15</v>
+      </c>
+      <c r="M957" t="n">
+        <v>0</v>
+      </c>
+      <c r="N957" t="n">
+        <v>26</v>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+      <c r="P957" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>0</v>
+      </c>
+      <c r="R957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B958" t="n">
+        <v>1000.200012207031</v>
+      </c>
+      <c r="C958" t="n">
+        <v>1000.549987792969</v>
+      </c>
+      <c r="D958" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="E958" t="n">
+        <v>999.8499755859375</v>
+      </c>
+      <c r="F958" t="n">
+        <v>999.8499755859375</v>
+      </c>
+      <c r="G958" t="n">
+        <v>63334</v>
+      </c>
+      <c r="H958" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I958" t="n">
+        <v>6</v>
+      </c>
+      <c r="J958" t="n">
+        <v>24</v>
+      </c>
+      <c r="K958" t="n">
+        <v>13</v>
+      </c>
+      <c r="L958" t="n">
+        <v>15</v>
+      </c>
+      <c r="M958" t="n">
+        <v>0</v>
+      </c>
+      <c r="N958" t="n">
+        <v>26</v>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+      <c r="P958" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>0</v>
+      </c>
+      <c r="R958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B959" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C959" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="D959" t="n">
+        <v>999</v>
+      </c>
+      <c r="E959" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="F959" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="G959" t="n">
+        <v>89526</v>
+      </c>
+      <c r="H959" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I959" t="n">
+        <v>6</v>
+      </c>
+      <c r="J959" t="n">
+        <v>24</v>
+      </c>
+      <c r="K959" t="n">
+        <v>14</v>
+      </c>
+      <c r="L959" t="n">
+        <v>15</v>
+      </c>
+      <c r="M959" t="n">
+        <v>0</v>
+      </c>
+      <c r="N959" t="n">
+        <v>26</v>
+      </c>
+      <c r="O959" t="n">
+        <v>0</v>
+      </c>
+      <c r="P959" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>0</v>
+      </c>
+      <c r="R959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B960" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="C960" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D960" t="n">
+        <v>999</v>
+      </c>
+      <c r="E960" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="F960" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="G960" t="n">
+        <v>74040</v>
+      </c>
+      <c r="H960" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I960" t="n">
+        <v>6</v>
+      </c>
+      <c r="J960" t="n">
+        <v>24</v>
+      </c>
+      <c r="K960" t="n">
+        <v>15</v>
+      </c>
+      <c r="L960" t="n">
+        <v>15</v>
+      </c>
+      <c r="M960" t="n">
+        <v>0</v>
+      </c>
+      <c r="N960" t="n">
+        <v>26</v>
+      </c>
+      <c r="O960" t="n">
+        <v>0</v>
+      </c>
+      <c r="P960" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>0</v>
+      </c>
+      <c r="R960" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R960"/>
+  <dimension ref="A1:R974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53109,7 +53109,9 @@
       <c r="Q940" t="n">
         <v>0</v>
       </c>
-      <c r="R940" t="inlineStr"/>
+      <c r="R940" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
@@ -53163,7 +53165,9 @@
       <c r="Q941" t="n">
         <v>0</v>
       </c>
-      <c r="R941" t="inlineStr"/>
+      <c r="R941" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
@@ -53217,7 +53221,9 @@
       <c r="Q942" t="n">
         <v>0</v>
       </c>
-      <c r="R942" t="inlineStr"/>
+      <c r="R942" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
@@ -53271,7 +53277,9 @@
       <c r="Q943" t="n">
         <v>0</v>
       </c>
-      <c r="R943" t="inlineStr"/>
+      <c r="R943" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
@@ -53325,7 +53333,9 @@
       <c r="Q944" t="n">
         <v>2</v>
       </c>
-      <c r="R944" t="inlineStr"/>
+      <c r="R944" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
@@ -53379,7 +53389,9 @@
       <c r="Q945" t="n">
         <v>0</v>
       </c>
-      <c r="R945" t="inlineStr"/>
+      <c r="R945" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
@@ -53433,7 +53445,9 @@
       <c r="Q946" t="n">
         <v>0</v>
       </c>
-      <c r="R946" t="inlineStr"/>
+      <c r="R946" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
@@ -53487,7 +53501,9 @@
       <c r="Q947" t="n">
         <v>0</v>
       </c>
-      <c r="R947" t="inlineStr"/>
+      <c r="R947" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
@@ -53541,7 +53557,9 @@
       <c r="Q948" t="n">
         <v>0</v>
       </c>
-      <c r="R948" t="inlineStr"/>
+      <c r="R948" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
@@ -53595,7 +53613,9 @@
       <c r="Q949" t="n">
         <v>0</v>
       </c>
-      <c r="R949" t="inlineStr"/>
+      <c r="R949" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
@@ -53649,7 +53669,9 @@
       <c r="Q950" t="n">
         <v>0</v>
       </c>
-      <c r="R950" t="inlineStr"/>
+      <c r="R950" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
@@ -53703,7 +53725,9 @@
       <c r="Q951" t="n">
         <v>0</v>
       </c>
-      <c r="R951" t="inlineStr"/>
+      <c r="R951" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
@@ -53757,7 +53781,9 @@
       <c r="Q952" t="n">
         <v>0</v>
       </c>
-      <c r="R952" t="inlineStr"/>
+      <c r="R952" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
@@ -53803,7 +53829,7 @@
         <v>25</v>
       </c>
       <c r="O953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P953" t="n">
         <v>0</v>
@@ -53811,7 +53837,9 @@
       <c r="Q953" t="n">
         <v>0</v>
       </c>
-      <c r="R953" t="inlineStr"/>
+      <c r="R953" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
@@ -53865,7 +53893,9 @@
       <c r="Q954" t="n">
         <v>0</v>
       </c>
-      <c r="R954" t="inlineStr"/>
+      <c r="R954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
@@ -53919,7 +53949,9 @@
       <c r="Q955" t="n">
         <v>0</v>
       </c>
-      <c r="R955" t="inlineStr"/>
+      <c r="R955" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
@@ -53973,7 +54005,9 @@
       <c r="Q956" t="n">
         <v>0</v>
       </c>
-      <c r="R956" t="inlineStr"/>
+      <c r="R956" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
@@ -54027,7 +54061,9 @@
       <c r="Q957" t="n">
         <v>0</v>
       </c>
-      <c r="R957" t="inlineStr"/>
+      <c r="R957" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
@@ -54081,7 +54117,9 @@
       <c r="Q958" t="n">
         <v>0</v>
       </c>
-      <c r="R958" t="inlineStr"/>
+      <c r="R958" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
@@ -54135,7 +54173,9 @@
       <c r="Q959" t="n">
         <v>0</v>
       </c>
-      <c r="R959" t="inlineStr"/>
+      <c r="R959" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
@@ -54189,7 +54229,765 @@
       <c r="Q960" t="n">
         <v>0</v>
       </c>
-      <c r="R960" t="inlineStr"/>
+      <c r="R960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B961" t="n">
+        <v>1003.049987792969</v>
+      </c>
+      <c r="C961" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D961" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E961" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="F961" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0</v>
+      </c>
+      <c r="H961" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I961" t="n">
+        <v>6</v>
+      </c>
+      <c r="J961" t="n">
+        <v>25</v>
+      </c>
+      <c r="K961" t="n">
+        <v>9</v>
+      </c>
+      <c r="L961" t="n">
+        <v>15</v>
+      </c>
+      <c r="M961" t="n">
+        <v>0</v>
+      </c>
+      <c r="N961" t="n">
+        <v>26</v>
+      </c>
+      <c r="O961" t="n">
+        <v>0</v>
+      </c>
+      <c r="P961" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>0</v>
+      </c>
+      <c r="R961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B962" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="C962" t="n">
+        <v>1006.049987792969</v>
+      </c>
+      <c r="D962" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E962" t="n">
+        <v>1002.900024414062</v>
+      </c>
+      <c r="F962" t="n">
+        <v>1002.900024414062</v>
+      </c>
+      <c r="G962" t="n">
+        <v>81405</v>
+      </c>
+      <c r="H962" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I962" t="n">
+        <v>6</v>
+      </c>
+      <c r="J962" t="n">
+        <v>25</v>
+      </c>
+      <c r="K962" t="n">
+        <v>10</v>
+      </c>
+      <c r="L962" t="n">
+        <v>15</v>
+      </c>
+      <c r="M962" t="n">
+        <v>0</v>
+      </c>
+      <c r="N962" t="n">
+        <v>26</v>
+      </c>
+      <c r="O962" t="n">
+        <v>0</v>
+      </c>
+      <c r="P962" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>0</v>
+      </c>
+      <c r="R962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B963" t="n">
+        <v>1002.75</v>
+      </c>
+      <c r="C963" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D963" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E963" t="n">
+        <v>1002.200012207031</v>
+      </c>
+      <c r="F963" t="n">
+        <v>1002.200012207031</v>
+      </c>
+      <c r="G963" t="n">
+        <v>56024</v>
+      </c>
+      <c r="H963" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I963" t="n">
+        <v>6</v>
+      </c>
+      <c r="J963" t="n">
+        <v>25</v>
+      </c>
+      <c r="K963" t="n">
+        <v>11</v>
+      </c>
+      <c r="L963" t="n">
+        <v>15</v>
+      </c>
+      <c r="M963" t="n">
+        <v>0</v>
+      </c>
+      <c r="N963" t="n">
+        <v>26</v>
+      </c>
+      <c r="O963" t="n">
+        <v>0</v>
+      </c>
+      <c r="P963" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>0</v>
+      </c>
+      <c r="R963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B964" t="n">
+        <v>1002.200012207031</v>
+      </c>
+      <c r="C964" t="n">
+        <v>1002.900024414062</v>
+      </c>
+      <c r="D964" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="E964" t="n">
+        <v>1001.549987792969</v>
+      </c>
+      <c r="F964" t="n">
+        <v>1001.549987792969</v>
+      </c>
+      <c r="G964" t="n">
+        <v>40666</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I964" t="n">
+        <v>6</v>
+      </c>
+      <c r="J964" t="n">
+        <v>25</v>
+      </c>
+      <c r="K964" t="n">
+        <v>12</v>
+      </c>
+      <c r="L964" t="n">
+        <v>15</v>
+      </c>
+      <c r="M964" t="n">
+        <v>0</v>
+      </c>
+      <c r="N964" t="n">
+        <v>26</v>
+      </c>
+      <c r="O964" t="n">
+        <v>0</v>
+      </c>
+      <c r="P964" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>0</v>
+      </c>
+      <c r="R964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B965" t="n">
+        <v>1001.5</v>
+      </c>
+      <c r="C965" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D965" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E965" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="F965" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="G965" t="n">
+        <v>41856</v>
+      </c>
+      <c r="H965" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I965" t="n">
+        <v>6</v>
+      </c>
+      <c r="J965" t="n">
+        <v>25</v>
+      </c>
+      <c r="K965" t="n">
+        <v>13</v>
+      </c>
+      <c r="L965" t="n">
+        <v>15</v>
+      </c>
+      <c r="M965" t="n">
+        <v>0</v>
+      </c>
+      <c r="N965" t="n">
+        <v>26</v>
+      </c>
+      <c r="O965" t="n">
+        <v>0</v>
+      </c>
+      <c r="P965" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>0</v>
+      </c>
+      <c r="R965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B966" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="C966" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D966" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E966" t="n">
+        <v>1000.849975585938</v>
+      </c>
+      <c r="F966" t="n">
+        <v>1000.849975585938</v>
+      </c>
+      <c r="G966" t="n">
+        <v>63655</v>
+      </c>
+      <c r="H966" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I966" t="n">
+        <v>6</v>
+      </c>
+      <c r="J966" t="n">
+        <v>25</v>
+      </c>
+      <c r="K966" t="n">
+        <v>14</v>
+      </c>
+      <c r="L966" t="n">
+        <v>15</v>
+      </c>
+      <c r="M966" t="n">
+        <v>0</v>
+      </c>
+      <c r="N966" t="n">
+        <v>26</v>
+      </c>
+      <c r="O966" t="n">
+        <v>0</v>
+      </c>
+      <c r="P966" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>0</v>
+      </c>
+      <c r="R966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B967" t="n">
+        <v>1001.349975585938</v>
+      </c>
+      <c r="C967" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D967" t="n">
+        <v>1000.25</v>
+      </c>
+      <c r="E967" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F967" t="n">
+        <v>1002</v>
+      </c>
+      <c r="G967" t="n">
+        <v>37545</v>
+      </c>
+      <c r="H967" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I967" t="n">
+        <v>6</v>
+      </c>
+      <c r="J967" t="n">
+        <v>25</v>
+      </c>
+      <c r="K967" t="n">
+        <v>15</v>
+      </c>
+      <c r="L967" t="n">
+        <v>15</v>
+      </c>
+      <c r="M967" t="n">
+        <v>0</v>
+      </c>
+      <c r="N967" t="n">
+        <v>26</v>
+      </c>
+      <c r="O967" t="n">
+        <v>0</v>
+      </c>
+      <c r="P967" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q967" t="n">
+        <v>0</v>
+      </c>
+      <c r="R967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C968" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D968" t="n">
+        <v>1001.150024414062</v>
+      </c>
+      <c r="E968" t="n">
+        <v>1004.650024414062</v>
+      </c>
+      <c r="F968" t="n">
+        <v>1004.650024414062</v>
+      </c>
+      <c r="G968" t="n">
+        <v>197392</v>
+      </c>
+      <c r="H968" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I968" t="n">
+        <v>6</v>
+      </c>
+      <c r="J968" t="n">
+        <v>26</v>
+      </c>
+      <c r="K968" t="n">
+        <v>9</v>
+      </c>
+      <c r="L968" t="n">
+        <v>15</v>
+      </c>
+      <c r="M968" t="n">
+        <v>0</v>
+      </c>
+      <c r="N968" t="n">
+        <v>26</v>
+      </c>
+      <c r="O968" t="n">
+        <v>0</v>
+      </c>
+      <c r="P968" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q968" t="n">
+        <v>0</v>
+      </c>
+      <c r="R968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B969" t="n">
+        <v>1004.299987792969</v>
+      </c>
+      <c r="C969" t="n">
+        <v>1006.700012207031</v>
+      </c>
+      <c r="D969" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E969" t="n">
+        <v>1006.5</v>
+      </c>
+      <c r="F969" t="n">
+        <v>1006.5</v>
+      </c>
+      <c r="G969" t="n">
+        <v>73083</v>
+      </c>
+      <c r="H969" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I969" t="n">
+        <v>6</v>
+      </c>
+      <c r="J969" t="n">
+        <v>26</v>
+      </c>
+      <c r="K969" t="n">
+        <v>10</v>
+      </c>
+      <c r="L969" t="n">
+        <v>15</v>
+      </c>
+      <c r="M969" t="n">
+        <v>0</v>
+      </c>
+      <c r="N969" t="n">
+        <v>26</v>
+      </c>
+      <c r="O969" t="n">
+        <v>0</v>
+      </c>
+      <c r="P969" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q969" t="n">
+        <v>0</v>
+      </c>
+      <c r="R969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B970" t="n">
+        <v>1006.5</v>
+      </c>
+      <c r="C970" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="D970" t="n">
+        <v>1006.150024414062</v>
+      </c>
+      <c r="E970" t="n">
+        <v>1007.900024414062</v>
+      </c>
+      <c r="F970" t="n">
+        <v>1007.900024414062</v>
+      </c>
+      <c r="G970" t="n">
+        <v>63507</v>
+      </c>
+      <c r="H970" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I970" t="n">
+        <v>6</v>
+      </c>
+      <c r="J970" t="n">
+        <v>26</v>
+      </c>
+      <c r="K970" t="n">
+        <v>11</v>
+      </c>
+      <c r="L970" t="n">
+        <v>15</v>
+      </c>
+      <c r="M970" t="n">
+        <v>0</v>
+      </c>
+      <c r="N970" t="n">
+        <v>26</v>
+      </c>
+      <c r="O970" t="n">
+        <v>0</v>
+      </c>
+      <c r="P970" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>0</v>
+      </c>
+      <c r="R970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B971" t="n">
+        <v>1007.950012207031</v>
+      </c>
+      <c r="C971" t="n">
+        <v>1007.950012207031</v>
+      </c>
+      <c r="D971" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="E971" t="n">
+        <v>1005.25</v>
+      </c>
+      <c r="F971" t="n">
+        <v>1005.25</v>
+      </c>
+      <c r="G971" t="n">
+        <v>60783</v>
+      </c>
+      <c r="H971" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I971" t="n">
+        <v>6</v>
+      </c>
+      <c r="J971" t="n">
+        <v>26</v>
+      </c>
+      <c r="K971" t="n">
+        <v>12</v>
+      </c>
+      <c r="L971" t="n">
+        <v>15</v>
+      </c>
+      <c r="M971" t="n">
+        <v>0</v>
+      </c>
+      <c r="N971" t="n">
+        <v>26</v>
+      </c>
+      <c r="O971" t="n">
+        <v>0</v>
+      </c>
+      <c r="P971" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>0</v>
+      </c>
+      <c r="R971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B972" t="n">
+        <v>1004.700012207031</v>
+      </c>
+      <c r="C972" t="n">
+        <v>1005.900024414062</v>
+      </c>
+      <c r="D972" t="n">
+        <v>1004.700012207031</v>
+      </c>
+      <c r="E972" t="n">
+        <v>1005.349975585938</v>
+      </c>
+      <c r="F972" t="n">
+        <v>1005.349975585938</v>
+      </c>
+      <c r="G972" t="n">
+        <v>25285</v>
+      </c>
+      <c r="H972" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I972" t="n">
+        <v>6</v>
+      </c>
+      <c r="J972" t="n">
+        <v>26</v>
+      </c>
+      <c r="K972" t="n">
+        <v>13</v>
+      </c>
+      <c r="L972" t="n">
+        <v>15</v>
+      </c>
+      <c r="M972" t="n">
+        <v>0</v>
+      </c>
+      <c r="N972" t="n">
+        <v>26</v>
+      </c>
+      <c r="O972" t="n">
+        <v>0</v>
+      </c>
+      <c r="P972" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>0</v>
+      </c>
+      <c r="R972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B973" t="n">
+        <v>1005.349975585938</v>
+      </c>
+      <c r="C973" t="n">
+        <v>1005.349975585938</v>
+      </c>
+      <c r="D973" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E973" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="F973" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="G973" t="n">
+        <v>56454</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I973" t="n">
+        <v>6</v>
+      </c>
+      <c r="J973" t="n">
+        <v>26</v>
+      </c>
+      <c r="K973" t="n">
+        <v>14</v>
+      </c>
+      <c r="L973" t="n">
+        <v>15</v>
+      </c>
+      <c r="M973" t="n">
+        <v>0</v>
+      </c>
+      <c r="N973" t="n">
+        <v>26</v>
+      </c>
+      <c r="O973" t="n">
+        <v>0</v>
+      </c>
+      <c r="P973" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>0</v>
+      </c>
+      <c r="R973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B974" t="n">
+        <v>1003.450012207031</v>
+      </c>
+      <c r="C974" t="n">
+        <v>1004.599975585938</v>
+      </c>
+      <c r="D974" t="n">
+        <v>1002.950012207031</v>
+      </c>
+      <c r="E974" t="n">
+        <v>1003.549987792969</v>
+      </c>
+      <c r="F974" t="n">
+        <v>1003.549987792969</v>
+      </c>
+      <c r="G974" t="n">
+        <v>34909</v>
+      </c>
+      <c r="H974" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I974" t="n">
+        <v>6</v>
+      </c>
+      <c r="J974" t="n">
+        <v>26</v>
+      </c>
+      <c r="K974" t="n">
+        <v>15</v>
+      </c>
+      <c r="L974" t="n">
+        <v>15</v>
+      </c>
+      <c r="M974" t="n">
+        <v>0</v>
+      </c>
+      <c r="N974" t="n">
+        <v>26</v>
+      </c>
+      <c r="O974" t="n">
+        <v>0</v>
+      </c>
+      <c r="P974" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>0</v>
+      </c>
+      <c r="R974" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R974"/>
+  <dimension ref="A1:R981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54285,7 +54285,9 @@
       <c r="Q961" t="n">
         <v>0</v>
       </c>
-      <c r="R961" t="inlineStr"/>
+      <c r="R961" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
@@ -54339,7 +54341,9 @@
       <c r="Q962" t="n">
         <v>0</v>
       </c>
-      <c r="R962" t="inlineStr"/>
+      <c r="R962" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
@@ -54393,7 +54397,9 @@
       <c r="Q963" t="n">
         <v>0</v>
       </c>
-      <c r="R963" t="inlineStr"/>
+      <c r="R963" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
@@ -54447,7 +54453,9 @@
       <c r="Q964" t="n">
         <v>0</v>
       </c>
-      <c r="R964" t="inlineStr"/>
+      <c r="R964" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
@@ -54501,7 +54509,9 @@
       <c r="Q965" t="n">
         <v>0</v>
       </c>
-      <c r="R965" t="inlineStr"/>
+      <c r="R965" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
@@ -54555,7 +54565,9 @@
       <c r="Q966" t="n">
         <v>0</v>
       </c>
-      <c r="R966" t="inlineStr"/>
+      <c r="R966" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
@@ -54609,7 +54621,9 @@
       <c r="Q967" t="n">
         <v>0</v>
       </c>
-      <c r="R967" t="inlineStr"/>
+      <c r="R967" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
@@ -54663,7 +54677,9 @@
       <c r="Q968" t="n">
         <v>0</v>
       </c>
-      <c r="R968" t="inlineStr"/>
+      <c r="R968" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
@@ -54717,7 +54733,9 @@
       <c r="Q969" t="n">
         <v>0</v>
       </c>
-      <c r="R969" t="inlineStr"/>
+      <c r="R969" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
@@ -54771,7 +54789,9 @@
       <c r="Q970" t="n">
         <v>0</v>
       </c>
-      <c r="R970" t="inlineStr"/>
+      <c r="R970" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
@@ -54825,7 +54845,9 @@
       <c r="Q971" t="n">
         <v>0</v>
       </c>
-      <c r="R971" t="inlineStr"/>
+      <c r="R971" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
@@ -54879,7 +54901,9 @@
       <c r="Q972" t="n">
         <v>0</v>
       </c>
-      <c r="R972" t="inlineStr"/>
+      <c r="R972" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
@@ -54933,7 +54957,9 @@
       <c r="Q973" t="n">
         <v>0</v>
       </c>
-      <c r="R973" t="inlineStr"/>
+      <c r="R973" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
@@ -54987,7 +55013,387 @@
       <c r="Q974" t="n">
         <v>0</v>
       </c>
-      <c r="R974" t="inlineStr"/>
+      <c r="R974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>45470.38541666666</v>
+      </c>
+      <c r="B975" t="n">
+        <v>1005.549987792969</v>
+      </c>
+      <c r="C975" t="n">
+        <v>1011</v>
+      </c>
+      <c r="D975" t="n">
+        <v>1003.049987792969</v>
+      </c>
+      <c r="E975" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="F975" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="G975" t="n">
+        <v>0</v>
+      </c>
+      <c r="H975" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I975" t="n">
+        <v>6</v>
+      </c>
+      <c r="J975" t="n">
+        <v>27</v>
+      </c>
+      <c r="K975" t="n">
+        <v>9</v>
+      </c>
+      <c r="L975" t="n">
+        <v>15</v>
+      </c>
+      <c r="M975" t="n">
+        <v>0</v>
+      </c>
+      <c r="N975" t="n">
+        <v>26</v>
+      </c>
+      <c r="O975" t="n">
+        <v>0</v>
+      </c>
+      <c r="P975" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>0</v>
+      </c>
+      <c r="R975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>45470.42708333334</v>
+      </c>
+      <c r="B976" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="C976" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D976" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="E976" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F976" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G976" t="n">
+        <v>318578</v>
+      </c>
+      <c r="H976" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I976" t="n">
+        <v>6</v>
+      </c>
+      <c r="J976" t="n">
+        <v>27</v>
+      </c>
+      <c r="K976" t="n">
+        <v>10</v>
+      </c>
+      <c r="L976" t="n">
+        <v>15</v>
+      </c>
+      <c r="M976" t="n">
+        <v>0</v>
+      </c>
+      <c r="N976" t="n">
+        <v>26</v>
+      </c>
+      <c r="O976" t="n">
+        <v>0</v>
+      </c>
+      <c r="P976" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q976" t="n">
+        <v>0</v>
+      </c>
+      <c r="R976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>45470.46875</v>
+      </c>
+      <c r="B977" t="n">
+        <v>1019.700012207031</v>
+      </c>
+      <c r="C977" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="D977" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="E977" t="n">
+        <v>1021.400024414062</v>
+      </c>
+      <c r="F977" t="n">
+        <v>1021.400024414062</v>
+      </c>
+      <c r="G977" t="n">
+        <v>298515</v>
+      </c>
+      <c r="H977" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I977" t="n">
+        <v>6</v>
+      </c>
+      <c r="J977" t="n">
+        <v>27</v>
+      </c>
+      <c r="K977" t="n">
+        <v>11</v>
+      </c>
+      <c r="L977" t="n">
+        <v>15</v>
+      </c>
+      <c r="M977" t="n">
+        <v>0</v>
+      </c>
+      <c r="N977" t="n">
+        <v>26</v>
+      </c>
+      <c r="O977" t="n">
+        <v>0</v>
+      </c>
+      <c r="P977" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>0</v>
+      </c>
+      <c r="R977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>45470.51041666666</v>
+      </c>
+      <c r="B978" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C978" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="D978" t="n">
+        <v>1015.200012207031</v>
+      </c>
+      <c r="E978" t="n">
+        <v>1016.200012207031</v>
+      </c>
+      <c r="F978" t="n">
+        <v>1016.200012207031</v>
+      </c>
+      <c r="G978" t="n">
+        <v>125881</v>
+      </c>
+      <c r="H978" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I978" t="n">
+        <v>6</v>
+      </c>
+      <c r="J978" t="n">
+        <v>27</v>
+      </c>
+      <c r="K978" t="n">
+        <v>12</v>
+      </c>
+      <c r="L978" t="n">
+        <v>15</v>
+      </c>
+      <c r="M978" t="n">
+        <v>0</v>
+      </c>
+      <c r="N978" t="n">
+        <v>26</v>
+      </c>
+      <c r="O978" t="n">
+        <v>0</v>
+      </c>
+      <c r="P978" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>0</v>
+      </c>
+      <c r="R978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>45470.55208333334</v>
+      </c>
+      <c r="B979" t="n">
+        <v>1015.849975585938</v>
+      </c>
+      <c r="C979" t="n">
+        <v>1016.200012207031</v>
+      </c>
+      <c r="D979" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="E979" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="F979" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="G979" t="n">
+        <v>72243</v>
+      </c>
+      <c r="H979" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I979" t="n">
+        <v>6</v>
+      </c>
+      <c r="J979" t="n">
+        <v>27</v>
+      </c>
+      <c r="K979" t="n">
+        <v>13</v>
+      </c>
+      <c r="L979" t="n">
+        <v>15</v>
+      </c>
+      <c r="M979" t="n">
+        <v>0</v>
+      </c>
+      <c r="N979" t="n">
+        <v>26</v>
+      </c>
+      <c r="O979" t="n">
+        <v>0</v>
+      </c>
+      <c r="P979" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>0</v>
+      </c>
+      <c r="R979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="n">
+        <v>45470.59375</v>
+      </c>
+      <c r="B980" t="n">
+        <v>1012.900024414062</v>
+      </c>
+      <c r="C980" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D980" t="n">
+        <v>1008.650024414062</v>
+      </c>
+      <c r="E980" t="n">
+        <v>1018.450012207031</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1018.450012207031</v>
+      </c>
+      <c r="G980" t="n">
+        <v>250795</v>
+      </c>
+      <c r="H980" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I980" t="n">
+        <v>6</v>
+      </c>
+      <c r="J980" t="n">
+        <v>27</v>
+      </c>
+      <c r="K980" t="n">
+        <v>14</v>
+      </c>
+      <c r="L980" t="n">
+        <v>15</v>
+      </c>
+      <c r="M980" t="n">
+        <v>0</v>
+      </c>
+      <c r="N980" t="n">
+        <v>26</v>
+      </c>
+      <c r="O980" t="n">
+        <v>0</v>
+      </c>
+      <c r="P980" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>0</v>
+      </c>
+      <c r="R980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="2" t="n">
+        <v>45470.63541666666</v>
+      </c>
+      <c r="B981" t="n">
+        <v>1018.400024414062</v>
+      </c>
+      <c r="C981" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1015.25</v>
+      </c>
+      <c r="E981" t="n">
+        <v>1017.25</v>
+      </c>
+      <c r="F981" t="n">
+        <v>1017.25</v>
+      </c>
+      <c r="G981" t="n">
+        <v>88136</v>
+      </c>
+      <c r="H981" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I981" t="n">
+        <v>6</v>
+      </c>
+      <c r="J981" t="n">
+        <v>27</v>
+      </c>
+      <c r="K981" t="n">
+        <v>15</v>
+      </c>
+      <c r="L981" t="n">
+        <v>15</v>
+      </c>
+      <c r="M981" t="n">
+        <v>0</v>
+      </c>
+      <c r="N981" t="n">
+        <v>26</v>
+      </c>
+      <c r="O981" t="n">
+        <v>0</v>
+      </c>
+      <c r="P981" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>0</v>
+      </c>
+      <c r="R981" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R981"/>
+  <dimension ref="A1:R988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55069,7 +55069,9 @@
       <c r="Q975" t="n">
         <v>0</v>
       </c>
-      <c r="R975" t="inlineStr"/>
+      <c r="R975" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
@@ -55123,7 +55125,9 @@
       <c r="Q976" t="n">
         <v>0</v>
       </c>
-      <c r="R976" t="inlineStr"/>
+      <c r="R976" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
@@ -55177,7 +55181,9 @@
       <c r="Q977" t="n">
         <v>0</v>
       </c>
-      <c r="R977" t="inlineStr"/>
+      <c r="R977" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
@@ -55231,7 +55237,9 @@
       <c r="Q978" t="n">
         <v>0</v>
       </c>
-      <c r="R978" t="inlineStr"/>
+      <c r="R978" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
@@ -55285,7 +55293,9 @@
       <c r="Q979" t="n">
         <v>0</v>
       </c>
-      <c r="R979" t="inlineStr"/>
+      <c r="R979" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
@@ -55339,7 +55349,9 @@
       <c r="Q980" t="n">
         <v>0</v>
       </c>
-      <c r="R980" t="inlineStr"/>
+      <c r="R980" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
@@ -55393,7 +55405,387 @@
       <c r="Q981" t="n">
         <v>0</v>
       </c>
-      <c r="R981" t="inlineStr"/>
+      <c r="R981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="2" t="n">
+        <v>45471.38541666666</v>
+      </c>
+      <c r="B982" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C982" t="n">
+        <v>1027.800048828125</v>
+      </c>
+      <c r="D982" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E982" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F982" t="n">
+        <v>1027</v>
+      </c>
+      <c r="G982" t="n">
+        <v>0</v>
+      </c>
+      <c r="H982" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I982" t="n">
+        <v>6</v>
+      </c>
+      <c r="J982" t="n">
+        <v>28</v>
+      </c>
+      <c r="K982" t="n">
+        <v>9</v>
+      </c>
+      <c r="L982" t="n">
+        <v>15</v>
+      </c>
+      <c r="M982" t="n">
+        <v>0</v>
+      </c>
+      <c r="N982" t="n">
+        <v>26</v>
+      </c>
+      <c r="O982" t="n">
+        <v>0</v>
+      </c>
+      <c r="P982" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>0</v>
+      </c>
+      <c r="R982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>45471.42708333334</v>
+      </c>
+      <c r="B983" t="n">
+        <v>1027.400024414062</v>
+      </c>
+      <c r="C983" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="D983" t="n">
+        <v>1020.200012207031</v>
+      </c>
+      <c r="E983" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="F983" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="G983" t="n">
+        <v>129808</v>
+      </c>
+      <c r="H983" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I983" t="n">
+        <v>6</v>
+      </c>
+      <c r="J983" t="n">
+        <v>28</v>
+      </c>
+      <c r="K983" t="n">
+        <v>10</v>
+      </c>
+      <c r="L983" t="n">
+        <v>15</v>
+      </c>
+      <c r="M983" t="n">
+        <v>0</v>
+      </c>
+      <c r="N983" t="n">
+        <v>26</v>
+      </c>
+      <c r="O983" t="n">
+        <v>0</v>
+      </c>
+      <c r="P983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>0</v>
+      </c>
+      <c r="R983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>45471.46875</v>
+      </c>
+      <c r="B984" t="n">
+        <v>1021.900024414062</v>
+      </c>
+      <c r="C984" t="n">
+        <v>1023.450012207031</v>
+      </c>
+      <c r="D984" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E984" t="n">
+        <v>1020.75</v>
+      </c>
+      <c r="F984" t="n">
+        <v>1020.75</v>
+      </c>
+      <c r="G984" t="n">
+        <v>55028</v>
+      </c>
+      <c r="H984" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I984" t="n">
+        <v>6</v>
+      </c>
+      <c r="J984" t="n">
+        <v>28</v>
+      </c>
+      <c r="K984" t="n">
+        <v>11</v>
+      </c>
+      <c r="L984" t="n">
+        <v>15</v>
+      </c>
+      <c r="M984" t="n">
+        <v>0</v>
+      </c>
+      <c r="N984" t="n">
+        <v>26</v>
+      </c>
+      <c r="O984" t="n">
+        <v>0</v>
+      </c>
+      <c r="P984" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>0</v>
+      </c>
+      <c r="R984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>45471.51041666666</v>
+      </c>
+      <c r="B985" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C985" t="n">
+        <v>1020.599975585938</v>
+      </c>
+      <c r="D985" t="n">
+        <v>1017.25</v>
+      </c>
+      <c r="E985" t="n">
+        <v>1019.849975585938</v>
+      </c>
+      <c r="F985" t="n">
+        <v>1019.849975585938</v>
+      </c>
+      <c r="G985" t="n">
+        <v>66663</v>
+      </c>
+      <c r="H985" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I985" t="n">
+        <v>6</v>
+      </c>
+      <c r="J985" t="n">
+        <v>28</v>
+      </c>
+      <c r="K985" t="n">
+        <v>12</v>
+      </c>
+      <c r="L985" t="n">
+        <v>15</v>
+      </c>
+      <c r="M985" t="n">
+        <v>0</v>
+      </c>
+      <c r="N985" t="n">
+        <v>26</v>
+      </c>
+      <c r="O985" t="n">
+        <v>0</v>
+      </c>
+      <c r="P985" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>0</v>
+      </c>
+      <c r="R985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>45471.55208333334</v>
+      </c>
+      <c r="B986" t="n">
+        <v>1019.450012207031</v>
+      </c>
+      <c r="C986" t="n">
+        <v>1020.849975585938</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1017.75</v>
+      </c>
+      <c r="E986" t="n">
+        <v>1019.650024414062</v>
+      </c>
+      <c r="F986" t="n">
+        <v>1019.650024414062</v>
+      </c>
+      <c r="G986" t="n">
+        <v>43121</v>
+      </c>
+      <c r="H986" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I986" t="n">
+        <v>6</v>
+      </c>
+      <c r="J986" t="n">
+        <v>28</v>
+      </c>
+      <c r="K986" t="n">
+        <v>13</v>
+      </c>
+      <c r="L986" t="n">
+        <v>15</v>
+      </c>
+      <c r="M986" t="n">
+        <v>0</v>
+      </c>
+      <c r="N986" t="n">
+        <v>26</v>
+      </c>
+      <c r="O986" t="n">
+        <v>0</v>
+      </c>
+      <c r="P986" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>0</v>
+      </c>
+      <c r="R986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>45471.59375</v>
+      </c>
+      <c r="B987" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C987" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1018.349975585938</v>
+      </c>
+      <c r="E987" t="n">
+        <v>1021.450012207031</v>
+      </c>
+      <c r="F987" t="n">
+        <v>1021.450012207031</v>
+      </c>
+      <c r="G987" t="n">
+        <v>96826</v>
+      </c>
+      <c r="H987" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I987" t="n">
+        <v>6</v>
+      </c>
+      <c r="J987" t="n">
+        <v>28</v>
+      </c>
+      <c r="K987" t="n">
+        <v>14</v>
+      </c>
+      <c r="L987" t="n">
+        <v>15</v>
+      </c>
+      <c r="M987" t="n">
+        <v>0</v>
+      </c>
+      <c r="N987" t="n">
+        <v>26</v>
+      </c>
+      <c r="O987" t="n">
+        <v>0</v>
+      </c>
+      <c r="P987" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>0</v>
+      </c>
+      <c r="R987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45471.63541666666</v>
+      </c>
+      <c r="B988" t="n">
+        <v>1021.450012207031</v>
+      </c>
+      <c r="C988" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D988" t="n">
+        <v>1021.450012207031</v>
+      </c>
+      <c r="E988" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="F988" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="G988" t="n">
+        <v>78836</v>
+      </c>
+      <c r="H988" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I988" t="n">
+        <v>6</v>
+      </c>
+      <c r="J988" t="n">
+        <v>28</v>
+      </c>
+      <c r="K988" t="n">
+        <v>15</v>
+      </c>
+      <c r="L988" t="n">
+        <v>15</v>
+      </c>
+      <c r="M988" t="n">
+        <v>0</v>
+      </c>
+      <c r="N988" t="n">
+        <v>26</v>
+      </c>
+      <c r="O988" t="n">
+        <v>0</v>
+      </c>
+      <c r="P988" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>0</v>
+      </c>
+      <c r="R988" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -55461,7 +55461,9 @@
       <c r="Q982" t="n">
         <v>0</v>
       </c>
-      <c r="R982" t="inlineStr"/>
+      <c r="R982" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
@@ -55515,7 +55517,9 @@
       <c r="Q983" t="n">
         <v>0</v>
       </c>
-      <c r="R983" t="inlineStr"/>
+      <c r="R983" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
@@ -55569,7 +55573,9 @@
       <c r="Q984" t="n">
         <v>0</v>
       </c>
-      <c r="R984" t="inlineStr"/>
+      <c r="R984" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
@@ -55623,7 +55629,9 @@
       <c r="Q985" t="n">
         <v>0</v>
       </c>
-      <c r="R985" t="inlineStr"/>
+      <c r="R985" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
@@ -55677,7 +55685,9 @@
       <c r="Q986" t="n">
         <v>0</v>
       </c>
-      <c r="R986" t="inlineStr"/>
+      <c r="R986" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
@@ -55731,7 +55741,9 @@
       <c r="Q987" t="n">
         <v>0</v>
       </c>
-      <c r="R987" t="inlineStr"/>
+      <c r="R987" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
@@ -55785,7 +55797,9 @@
       <c r="Q988" t="n">
         <v>0</v>
       </c>
-      <c r="R988" t="inlineStr"/>
+      <c r="R988" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R988"/>
+  <dimension ref="A1:R995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55801,6 +55801,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B989" t="n">
+        <v>1023.299987792969</v>
+      </c>
+      <c r="C989" t="n">
+        <v>1024.25</v>
+      </c>
+      <c r="D989" t="n">
+        <v>1019.25</v>
+      </c>
+      <c r="E989" t="n">
+        <v>1021.700012207031</v>
+      </c>
+      <c r="F989" t="n">
+        <v>1021.700012207031</v>
+      </c>
+      <c r="G989" t="n">
+        <v>0</v>
+      </c>
+      <c r="H989" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I989" t="n">
+        <v>7</v>
+      </c>
+      <c r="J989" t="n">
+        <v>1</v>
+      </c>
+      <c r="K989" t="n">
+        <v>9</v>
+      </c>
+      <c r="L989" t="n">
+        <v>15</v>
+      </c>
+      <c r="M989" t="n">
+        <v>0</v>
+      </c>
+      <c r="N989" t="n">
+        <v>27</v>
+      </c>
+      <c r="O989" t="n">
+        <v>0</v>
+      </c>
+      <c r="P989" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>0</v>
+      </c>
+      <c r="R989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B990" t="n">
+        <v>1021.75</v>
+      </c>
+      <c r="C990" t="n">
+        <v>1029.199951171875</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1020.549987792969</v>
+      </c>
+      <c r="E990" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F990" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G990" t="n">
+        <v>114866</v>
+      </c>
+      <c r="H990" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I990" t="n">
+        <v>7</v>
+      </c>
+      <c r="J990" t="n">
+        <v>1</v>
+      </c>
+      <c r="K990" t="n">
+        <v>10</v>
+      </c>
+      <c r="L990" t="n">
+        <v>15</v>
+      </c>
+      <c r="M990" t="n">
+        <v>0</v>
+      </c>
+      <c r="N990" t="n">
+        <v>27</v>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
+      <c r="R990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B991" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="C991" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D991" t="n">
+        <v>1015.25</v>
+      </c>
+      <c r="E991" t="n">
+        <v>1017.049987792969</v>
+      </c>
+      <c r="F991" t="n">
+        <v>1017.049987792969</v>
+      </c>
+      <c r="G991" t="n">
+        <v>127983</v>
+      </c>
+      <c r="H991" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I991" t="n">
+        <v>7</v>
+      </c>
+      <c r="J991" t="n">
+        <v>1</v>
+      </c>
+      <c r="K991" t="n">
+        <v>11</v>
+      </c>
+      <c r="L991" t="n">
+        <v>15</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0</v>
+      </c>
+      <c r="N991" t="n">
+        <v>27</v>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
+      <c r="R991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B992" t="n">
+        <v>1017.349975585938</v>
+      </c>
+      <c r="C992" t="n">
+        <v>1017.950012207031</v>
+      </c>
+      <c r="D992" t="n">
+        <v>1016.049987792969</v>
+      </c>
+      <c r="E992" t="n">
+        <v>1017.650024414062</v>
+      </c>
+      <c r="F992" t="n">
+        <v>1017.650024414062</v>
+      </c>
+      <c r="G992" t="n">
+        <v>50821</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I992" t="n">
+        <v>7</v>
+      </c>
+      <c r="J992" t="n">
+        <v>1</v>
+      </c>
+      <c r="K992" t="n">
+        <v>12</v>
+      </c>
+      <c r="L992" t="n">
+        <v>15</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>27</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
+      <c r="R992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B993" t="n">
+        <v>1017.700012207031</v>
+      </c>
+      <c r="C993" t="n">
+        <v>1017.900024414062</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1013.799987792969</v>
+      </c>
+      <c r="E993" t="n">
+        <v>1014.75</v>
+      </c>
+      <c r="F993" t="n">
+        <v>1014.75</v>
+      </c>
+      <c r="G993" t="n">
+        <v>67062</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I993" t="n">
+        <v>7</v>
+      </c>
+      <c r="J993" t="n">
+        <v>1</v>
+      </c>
+      <c r="K993" t="n">
+        <v>13</v>
+      </c>
+      <c r="L993" t="n">
+        <v>15</v>
+      </c>
+      <c r="M993" t="n">
+        <v>0</v>
+      </c>
+      <c r="N993" t="n">
+        <v>27</v>
+      </c>
+      <c r="O993" t="n">
+        <v>0</v>
+      </c>
+      <c r="P993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
+      <c r="R993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B994" t="n">
+        <v>1014.200012207031</v>
+      </c>
+      <c r="C994" t="n">
+        <v>1017.900024414062</v>
+      </c>
+      <c r="D994" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E994" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F994" t="n">
+        <v>1015</v>
+      </c>
+      <c r="G994" t="n">
+        <v>80412</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I994" t="n">
+        <v>7</v>
+      </c>
+      <c r="J994" t="n">
+        <v>1</v>
+      </c>
+      <c r="K994" t="n">
+        <v>14</v>
+      </c>
+      <c r="L994" t="n">
+        <v>15</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>27</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>0</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B995" t="n">
+        <v>1014.799987792969</v>
+      </c>
+      <c r="C995" t="n">
+        <v>1014.900024414062</v>
+      </c>
+      <c r="D995" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E995" t="n">
+        <v>1014.849975585938</v>
+      </c>
+      <c r="F995" t="n">
+        <v>1014.849975585938</v>
+      </c>
+      <c r="G995" t="n">
+        <v>55587</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>7</v>
+      </c>
+      <c r="J995" t="n">
+        <v>1</v>
+      </c>
+      <c r="K995" t="n">
+        <v>15</v>
+      </c>
+      <c r="L995" t="n">
+        <v>15</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>27</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R995"/>
+  <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55853,7 +55853,9 @@
       <c r="Q989" t="n">
         <v>0</v>
       </c>
-      <c r="R989" t="inlineStr"/>
+      <c r="R989" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
@@ -55899,7 +55901,7 @@
         <v>27</v>
       </c>
       <c r="O990" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P990" t="n">
         <v>0</v>
@@ -55907,7 +55909,9 @@
       <c r="Q990" t="n">
         <v>0</v>
       </c>
-      <c r="R990" t="inlineStr"/>
+      <c r="R990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
@@ -55961,7 +55965,9 @@
       <c r="Q991" t="n">
         <v>0</v>
       </c>
-      <c r="R991" t="inlineStr"/>
+      <c r="R991" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
@@ -56015,7 +56021,9 @@
       <c r="Q992" t="n">
         <v>0</v>
       </c>
-      <c r="R992" t="inlineStr"/>
+      <c r="R992" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
@@ -56069,7 +56077,9 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
@@ -56123,7 +56133,9 @@
       <c r="Q994" t="n">
         <v>0</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -56177,7 +56189,387 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B996" t="n">
+        <v>1014.849975585938</v>
+      </c>
+      <c r="C996" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D996" t="n">
+        <v>1008.849975585938</v>
+      </c>
+      <c r="E996" t="n">
+        <v>1011.25</v>
+      </c>
+      <c r="F996" t="n">
+        <v>1011.25</v>
+      </c>
+      <c r="G996" t="n">
+        <v>0</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>7</v>
+      </c>
+      <c r="J996" t="n">
+        <v>2</v>
+      </c>
+      <c r="K996" t="n">
+        <v>9</v>
+      </c>
+      <c r="L996" t="n">
+        <v>15</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>27</v>
+      </c>
+      <c r="O996" t="n">
+        <v>0</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B997" t="n">
+        <v>1011.75</v>
+      </c>
+      <c r="C997" t="n">
+        <v>1011.900024414062</v>
+      </c>
+      <c r="D997" t="n">
+        <v>1009.200012207031</v>
+      </c>
+      <c r="E997" t="n">
+        <v>1011.349975585938</v>
+      </c>
+      <c r="F997" t="n">
+        <v>1011.349975585938</v>
+      </c>
+      <c r="G997" t="n">
+        <v>64709</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>7</v>
+      </c>
+      <c r="J997" t="n">
+        <v>2</v>
+      </c>
+      <c r="K997" t="n">
+        <v>10</v>
+      </c>
+      <c r="L997" t="n">
+        <v>15</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>27</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B998" t="n">
+        <v>1011.400024414062</v>
+      </c>
+      <c r="C998" t="n">
+        <v>1011.400024414062</v>
+      </c>
+      <c r="D998" t="n">
+        <v>1009.099975585938</v>
+      </c>
+      <c r="E998" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="F998" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="G998" t="n">
+        <v>48877</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>7</v>
+      </c>
+      <c r="J998" t="n">
+        <v>2</v>
+      </c>
+      <c r="K998" t="n">
+        <v>11</v>
+      </c>
+      <c r="L998" t="n">
+        <v>15</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>27</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B999" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="C999" t="n">
+        <v>1010.599975585938</v>
+      </c>
+      <c r="D999" t="n">
+        <v>1006.75</v>
+      </c>
+      <c r="E999" t="n">
+        <v>1009.299987792969</v>
+      </c>
+      <c r="F999" t="n">
+        <v>1009.299987792969</v>
+      </c>
+      <c r="G999" t="n">
+        <v>54374</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>7</v>
+      </c>
+      <c r="J999" t="n">
+        <v>2</v>
+      </c>
+      <c r="K999" t="n">
+        <v>12</v>
+      </c>
+      <c r="L999" t="n">
+        <v>15</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>27</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>1007.25</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>1008.25</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>1008.25</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>44861</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>1008.25</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>1008.150024414062</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>51310</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>1010.5</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>35029</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1002"/>
+  <dimension ref="A1:R1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56245,7 +56245,9 @@
       <c r="Q996" t="n">
         <v>0</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56299,7 +56301,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56353,7 +56357,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56399,7 +56405,7 @@
         <v>27</v>
       </c>
       <c r="O999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P999" t="n">
         <v>0</v>
@@ -56407,7 +56413,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56461,7 +56469,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56515,7 +56525,9 @@
       <c r="Q1001" t="n">
         <v>2</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -56569,7 +56581,387 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45476.38541666666</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>1013.75</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>1014.049987792969</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>1009.049987792969</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45476.42708333334</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>1010.5</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>1008.450012207031</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>69131</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45476.46875</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>1009.25</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>1010.049987792969</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>50183</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45476.51041666666</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>1010.049987792969</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>44402</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45476.55208333334</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>1010.950012207031</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>1009.049987792969</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>47479</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45476.59375</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>1009.099975585938</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>1009.75</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>1009.75</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>59207</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45476.63541666666</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>1009.75</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>1009.200012207031</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>1009.75</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>1009.75</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>38638</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1009"/>
+  <dimension ref="A1:R1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56637,7 +56637,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56691,7 +56693,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56745,7 +56749,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56799,7 +56805,9 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56853,7 +56861,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56907,7 +56917,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56961,7 +56973,387 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45477.38541666666</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>1012.950012207031</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>1009.049987792969</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45477.42708333334</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>1010.299987792969</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>1006.549987792969</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>85059</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45477.46875</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>1010.049987792969</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>1008.099975585938</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>56444</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45477.51041666666</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>1010.450012207031</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>1009.099975585938</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>1009.099975585938</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>1009.099975585938</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>50786</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45477.55208333334</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>42406</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45477.59375</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>1009.200012207031</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>1009.200012207031</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>81085</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45477.63541666666</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>1009.349975585938</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>32744</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1016"/>
+  <dimension ref="A1:R1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57029,7 +57029,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57075,7 +57077,7 @@
         <v>27</v>
       </c>
       <c r="O1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1011" t="n">
         <v>0</v>
@@ -57083,7 +57085,9 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57137,7 +57141,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57191,7 +57197,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57245,7 +57253,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57299,7 +57309,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57353,7 +57365,387 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45478.38541666666</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>1015</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45478.42708333334</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>1012.5</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>1012.599975585938</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>1012.599975585938</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>59610</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45478.46875</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>1013.200012207031</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>1015.150024414062</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>53618</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45478.51041666666</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>1014.75</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>1010.049987792969</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>1010.099975585938</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>1010.099975585938</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>173119</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45478.55208333334</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>1010.5</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>1011.450012207031</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>61885</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45478.59375</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>1010.299987792969</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>1011.900024414062</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>1009.049987792969</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>72234</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45478.63541666666</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>1010.75</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>1011</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>83729</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1023"/>
+  <dimension ref="A1:R1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57413,7 +57413,7 @@
         <v>27</v>
       </c>
       <c r="O1017" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1017" t="n">
         <v>0</v>
@@ -57421,7 +57421,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57475,7 +57477,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57529,7 +57533,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57583,7 +57589,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57637,7 +57645,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57691,7 +57701,9 @@
       <c r="Q1022" t="n">
         <v>1</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57745,7 +57757,387 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45481.38541666666</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>1012.599975585938</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>1014.5</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>1005.150024414062</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>1006.450012207031</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>1006.450012207031</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45481.42708333334</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>1006.450012207031</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>102960</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45481.46875</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1005.099975585938</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>49651</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45481.51041666666</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1003.099975585938</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>30652</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45481.55208333334</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>1005.650024414062</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>1005.650024414062</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>60235</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45481.59375</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>1005.400024414062</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>1006.400024414062</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>1004.900024414062</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>48765</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45481.63541666666</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>1003.799987792969</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>29924</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1030"/>
+  <dimension ref="A1:R1037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57813,7 +57813,9 @@
       <c r="Q1024" t="n">
         <v>0</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57867,7 +57869,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57921,7 +57925,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57967,7 +57973,7 @@
         <v>28</v>
       </c>
       <c r="O1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1027" t="n">
         <v>0</v>
@@ -57975,7 +57981,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -58029,7 +58037,9 @@
       <c r="Q1028" t="n">
         <v>2</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58083,7 +58093,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58137,7 +58149,387 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45482.38541666666</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>1018.799987792969</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>214587</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45482.42708333334</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>1018.349975585938</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>1023.950012207031</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1021.349975585938</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>1021.349975585938</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>228866</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45482.46875</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>1023.349975585938</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>1023.349975585938</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>157909</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45482.51041666666</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>1023.299987792969</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>1023.400024414062</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>1015.349975585938</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>1015.349975585938</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>145694</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45482.55208333334</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>1015.400024414062</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>1015.849975585938</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>1014.900024414062</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>1014.900024414062</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>107405</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45482.59375</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>1014.599975585938</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>1015.25</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>1013.849975585938</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>1013.849975585938</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>100712</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45482.63541666666</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>1014.25</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>1012.299987792969</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>1012.299987792969</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>48249</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1037"/>
+  <dimension ref="A1:R1044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58205,7 +58205,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58259,7 +58261,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58313,7 +58317,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58367,7 +58373,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58421,7 +58429,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58475,7 +58485,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58529,7 +58541,387 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45483.38541666666</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>1012.299987792969</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>1026.75</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>1012.200012207031</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>1018.099975585938</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>1018.099975585938</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>345659</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45483.42708333334</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>1018.900024414062</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>1020.5</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>1007.849975585938</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>172559</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45483.46875</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>1013.549987792969</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>1024.699951171875</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>1016.450012207031</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>1016.450012207031</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>112773</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45483.51041666666</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>1015.400024414062</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>1012.400024414062</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>46848</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45483.55208333334</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>1014.700012207031</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>1014.700012207031</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>51583</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45483.59375</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>1014.700012207031</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>1012.75</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>86495</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45483.63541666666</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>1008.950012207031</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>84615</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1044"/>
+  <dimension ref="A1:R1051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="R265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -18838,7 +18838,7 @@
         <v>1</v>
       </c>
       <c r="R328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -23150,7 +23150,7 @@
         <v>2</v>
       </c>
       <c r="R405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -26678,7 +26678,7 @@
         <v>0</v>
       </c>
       <c r="R468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -36478,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="R643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -42078,7 +42078,7 @@
         <v>0</v>
       </c>
       <c r="R743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -45102,7 +45102,7 @@
         <v>0</v>
       </c>
       <c r="R797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -50590,7 +50590,7 @@
         <v>0</v>
       </c>
       <c r="R895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -54454,7 +54454,7 @@
         <v>0</v>
       </c>
       <c r="R964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="R1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -58038,7 +58038,7 @@
         <v>2</v>
       </c>
       <c r="R1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -58589,7 +58589,7 @@
         <v>28</v>
       </c>
       <c r="O1038" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1038" t="n">
         <v>1</v>
@@ -58597,7 +58597,9 @@
       <c r="Q1038" t="n">
         <v>1</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58651,7 +58653,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58705,7 +58709,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58759,7 +58765,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58813,7 +58821,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58867,7 +58877,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58921,7 +58933,387 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45484.38541666666</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>1014.75</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>1022.849975585938</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>1012.400024414062</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45484.42708333334</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>1015.400024414062</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>1012.299987792969</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>1014.299987792969</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>1014.299987792969</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>74327</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45484.46875</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>1014.299987792969</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>1016.799987792969</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>1016.650024414062</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>1016.650024414062</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>64026</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45484.51041666666</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>1018.650024414062</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>1016.950012207031</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>1016.950012207031</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>96362</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45484.55208333334</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>1016.450012207031</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>1019.950012207031</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>1014.400024414062</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>74181</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45484.59375</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>1016.400024414062</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>1016.950012207031</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>1014.150024414062</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>1014.75</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>1014.75</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>106147</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45484.63541666666</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>48501</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1051"/>
+  <dimension ref="A1:R1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="R265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -18838,7 +18838,7 @@
         <v>1</v>
       </c>
       <c r="R328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -23150,7 +23150,7 @@
         <v>2</v>
       </c>
       <c r="R405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -26678,7 +26678,7 @@
         <v>0</v>
       </c>
       <c r="R468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -36478,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="R643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -42078,7 +42078,7 @@
         <v>0</v>
       </c>
       <c r="R743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -45102,7 +45102,7 @@
         <v>0</v>
       </c>
       <c r="R797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -50590,7 +50590,7 @@
         <v>0</v>
       </c>
       <c r="R895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -54454,7 +54454,7 @@
         <v>0</v>
       </c>
       <c r="R964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="R1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -58038,7 +58038,7 @@
         <v>2</v>
       </c>
       <c r="R1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -58989,7 +58989,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -59043,7 +59045,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59097,7 +59101,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59151,7 +59157,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59205,7 +59213,9 @@
       <c r="Q1049" t="n">
         <v>2</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59259,7 +59269,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59313,7 +59325,387 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45485.38541666666</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>1024.699951171875</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>1017.049987792969</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>1017.049987792969</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>223749</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45485.42708333334</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>1017.150024414062</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>1021.650024414062</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>1021.650024414062</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>1021.650024414062</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>150772</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45485.46875</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>1043</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>1019.650024414062</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>972288</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45485.51041666666</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>1034.949951171875</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>468473</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45485.55208333334</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>1042.650024414062</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>532661</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45485.59375</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>1037.900024414062</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>1030.400024414062</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>398587</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45485.63541666666</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>1034.150024414062</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>1035.349975585938</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>1030.599975585938</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>129139</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1058"/>
+  <dimension ref="A1:R1065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59381,7 +59381,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59435,7 +59437,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59481,7 +59485,7 @@
         <v>28</v>
       </c>
       <c r="O1054" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1054" t="n">
         <v>0</v>
@@ -59489,7 +59493,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59543,7 +59549,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59597,7 +59605,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59651,7 +59661,9 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59705,7 +59717,387 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45488.38541666666</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>1041.5</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>1042.349975585938</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>1024.449951171875</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>366941</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45488.42708333334</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>1027.449951171875</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>1028.5</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>117159</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45488.46875</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>1024.150024414062</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>1030.949951171875</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>1023.200012207031</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>1028.449951171875</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>1028.449951171875</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>196362</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45488.51041666666</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>1029.099975585938</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>1029.75</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>1026.099975585938</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>1027.599975585938</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>1027.599975585938</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>88489</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45488.55208333334</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>1027.099975585938</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>1028.800048828125</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>1026.050048828125</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>1028.449951171875</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>1028.449951171875</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>71723</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45488.59375</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>1028.599975585938</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>1028.75</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>1025.75</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>1025.75</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>169635</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45488.63541666666</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>1024.599975585938</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>1022.950012207031</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>1025.349975585938</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>1025.349975585938</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>83394</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1065"/>
+  <dimension ref="A1:R1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59773,7 +59773,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59827,7 +59829,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59881,7 +59885,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59935,7 +59941,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59989,7 +59997,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -60043,7 +60053,9 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -60097,7 +60109,387 @@
       <c r="Q1065" t="n">
         <v>2</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45489.38541666666</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>1029.050048828125</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>1030.650024414062</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>1023.900024414062</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>240818</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45489.42708333334</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>1026.900024414062</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>1024.199951171875</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>1025.849975585938</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>1025.849975585938</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>77101</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45489.46875</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>1025.650024414062</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>1025.800048828125</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>1022.400024414062</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>1022.400024414062</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>78038</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45489.51041666666</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>1022.400024414062</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>1024.25</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>1020.799987792969</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>70511</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45489.55208333334</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>1023.950012207031</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>1024.150024414062</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>1013.700012207031</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>1015.599975585938</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>1015.599975585938</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>127952</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45489.59375</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>1015.650024414062</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>1017.549987792969</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>1015.099975585938</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>1015.099975585938</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>120305</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45489.63541666666</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>1014.900024414062</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>1017.299987792969</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>1014.099975585938</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>1015.25</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>1015.25</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>84734</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -60165,7 +60165,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60219,7 +60221,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60273,7 +60277,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60327,7 +60333,9 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60381,7 +60389,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60435,7 +60445,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60489,7 +60501,9 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1072"/>
+  <dimension ref="A1:R1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60505,6 +60505,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45491.38541666666</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>1018.849975585938</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>1008.650024414062</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>1011.049987792969</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>1011.049987792969</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45491.42708333334</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>1011.049987792969</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>1008.349975585938</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>1008.799987792969</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>1008.799987792969</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>89783</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45491.46875</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>1008.799987792969</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>67062</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45491.51041666666</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>53117</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45491.55208333334</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>1011.25</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>1009.400024414062</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>66395</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45491.59375</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>1008.049987792969</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>1009.700012207031</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>1009.700012207031</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>127863</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45491.63541666666</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>1009.700012207031</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>1008.299987792969</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>50438</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1079"/>
+  <dimension ref="A1:R1086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60557,7 +60557,9 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
@@ -60611,7 +60613,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60665,7 +60669,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60719,7 +60725,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60773,7 +60781,9 @@
       <c r="Q1077" t="n">
         <v>0</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60827,7 +60837,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60881,7 +60893,387 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45492.38541666666</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>994.3499755859375</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>1003.799987792969</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>554289</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45492.42708333334</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>996.0499877929688</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>1000.400024414062</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>996.9500122070312</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>996.9500122070312</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>149547</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45492.46875</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>996.9500122070312</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>1001.75</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>995</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>110028</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45492.51041666666</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>999.4000244140625</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>999.4000244140625</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>79755</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45492.55208333334</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>999</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>1005.75</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>998.25</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>999.4000244140625</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>999.4000244140625</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>112970</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45492.59375</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>998.7000122070312</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>995.6500244140625</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>998</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>998</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>90397</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45492.63541666666</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>997.9000244140625</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>998.4500122070312</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>995.4500122070312</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>79378</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1086"/>
+  <dimension ref="A1:R1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60941,7 +60941,7 @@
         <v>29</v>
       </c>
       <c r="O1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1080" t="n">
         <v>0</v>
@@ -60949,7 +60949,9 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
@@ -61003,7 +61005,9 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
@@ -61057,7 +61061,9 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
@@ -61111,7 +61117,9 @@
       <c r="Q1083" t="n">
         <v>0</v>
       </c>
-      <c r="R1083" t="inlineStr"/>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
@@ -61165,7 +61173,9 @@
       <c r="Q1084" t="n">
         <v>0</v>
       </c>
-      <c r="R1084" t="inlineStr"/>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
@@ -61219,7 +61229,9 @@
       <c r="Q1085" t="n">
         <v>0</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
@@ -61273,7 +61285,387 @@
       <c r="Q1086" t="n">
         <v>0</v>
       </c>
-      <c r="R1086" t="inlineStr"/>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45495.38541666666</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>994.6500244140625</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>998</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>990.75</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45495.42708333334</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>994.0999755859375</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>995</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>992</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>992.9500122070312</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>992.9500122070312</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>112175</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45495.46875</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>994.5499877929688</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>992</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>81267</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45495.51041666666</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>993.4000244140625</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>991.9000244140625</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>993.2999877929688</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>993.2999877929688</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>52101</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45495.55208333334</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>993</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>994.8499755859375</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>992.4000244140625</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>50825</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45495.59375</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>994.25</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>993</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>993</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>71976</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45495.63541666666</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>993</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>993</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>992.0499877929688</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>992.7000122070312</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>992.7000122070312</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>48262</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1093"/>
+  <dimension ref="A1:R1100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61341,7 +61341,9 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
@@ -61395,7 +61397,9 @@
       <c r="Q1088" t="n">
         <v>0</v>
       </c>
-      <c r="R1088" t="inlineStr"/>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
@@ -61449,7 +61453,9 @@
       <c r="Q1089" t="n">
         <v>0</v>
       </c>
-      <c r="R1089" t="inlineStr"/>
+      <c r="R1089" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
@@ -61503,7 +61509,9 @@
       <c r="Q1090" t="n">
         <v>0</v>
       </c>
-      <c r="R1090" t="inlineStr"/>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
@@ -61557,7 +61565,9 @@
       <c r="Q1091" t="n">
         <v>1</v>
       </c>
-      <c r="R1091" t="inlineStr"/>
+      <c r="R1091" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -61611,7 +61621,9 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
@@ -61665,7 +61677,387 @@
       <c r="Q1093" t="n">
         <v>0</v>
       </c>
-      <c r="R1093" t="inlineStr"/>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45496.38541666666</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>995.2000122070312</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>1006.950012207031</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>995.2000122070312</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>201339</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45496.42708333334</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>999.8499755859375</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>994.3499755859375</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>996.2999877929688</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>996.2999877929688</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>104209</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45496.46875</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>996.25</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>996.8499755859375</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>993.7999877929688</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>994.7999877929688</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>994.7999877929688</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>45378</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45496.51041666666</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>994.75</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>983.7000122070312</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>993.2999877929688</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>993.2999877929688</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>212741</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45496.55208333334</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>993</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>998</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>992.8499755859375</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>69971</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45496.59375</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>996.9000244140625</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>1001.450012207031</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>994.5999755859375</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>90806</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45496.63541666666</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>994</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>996.6500244140625</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>996.6500244140625</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>36236</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1100"/>
+  <dimension ref="A1:R1107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61733,7 +61733,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -61787,7 +61789,9 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
@@ -61841,7 +61845,9 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
@@ -61887,7 +61893,7 @@
         <v>30</v>
       </c>
       <c r="O1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1097" t="n">
         <v>0</v>
@@ -61895,7 +61901,9 @@
       <c r="Q1097" t="n">
         <v>0</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61949,7 +61957,9 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
@@ -62003,7 +62013,9 @@
       <c r="Q1099" t="n">
         <v>0</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
@@ -62057,7 +62069,387 @@
       <c r="Q1100" t="n">
         <v>0</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45497.38541666666</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>996.5999755859375</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>1006.799987792969</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>996.5999755859375</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>1005.650024414062</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>1005.650024414062</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>115272</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45497.42708333334</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>1007.599975585938</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>1002.75</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>1003.950012207031</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>1003.950012207031</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>49630</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45497.46875</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>1003.950012207031</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>1004.299987792969</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>1001.700012207031</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>30890</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45497.51041666666</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>1004.849975585938</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>1000.849975585938</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>1004.650024414062</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>1004.650024414062</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>27145</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45497.55208333334</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1004.299987792969</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>1004.650024414062</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>1001.25</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>23740</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45497.59375</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>996.0499877929688</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>80132</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45497.63541666666</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>998</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>999</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>995.5999755859375</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>997.25</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>997.25</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>39012</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1107"/>
+  <dimension ref="A1:R1114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62125,7 +62125,9 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
@@ -62171,7 +62173,7 @@
         <v>30</v>
       </c>
       <c r="O1102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1102" t="n">
         <v>0</v>
@@ -62179,7 +62181,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62233,7 +62237,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
@@ -62287,7 +62293,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62341,7 +62349,9 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
@@ -62395,7 +62405,9 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62449,7 +62461,387 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45498.38541666666</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>996</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>994.3499755859375</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>998</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>998</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45498.42708333334</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>997.6500244140625</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>996.5499877929688</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>1000.400024414062</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>1000.400024414062</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>76300</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45498.46875</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>1000.5</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>998.0499877929688</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>999.5999755859375</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>999.5999755859375</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>49170</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45498.51041666666</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>999.7000122070312</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>997</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>999.2999877929688</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>999.2999877929688</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>28692</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45498.55208333334</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>999.2999877929688</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>998.0499877929688</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>31020</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45498.59375</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>998</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>999.7000122070312</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>999.7000122070312</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>66231</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45498.63541666666</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>999.7000122070312</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>27654</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1114"/>
+  <dimension ref="A1:R1121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62517,7 +62517,9 @@
       <c r="Q1108" t="n">
         <v>1</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
@@ -62571,7 +62573,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62625,7 +62629,9 @@
       <c r="Q1110" t="n">
         <v>0</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
@@ -62679,7 +62685,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
@@ -62733,7 +62741,9 @@
       <c r="Q1112" t="n">
         <v>0</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62787,7 +62797,9 @@
       <c r="Q1113" t="n">
         <v>2</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
@@ -62841,7 +62853,387 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45499.38541666666</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>1002.900024414062</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>998.2999877929688</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>201338</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45499.42708333334</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>1001.950012207031</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>1001.950012207031</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>171157</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45499.46875</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>1001.799987792969</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>1003.200012207031</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>109790</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45499.51041666666</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>999.5999755859375</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>999.5999755859375</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>50962</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45499.55208333334</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>998.9000244140625</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>998.9000244140625</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>59394</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45499.59375</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>998.9000244140625</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>998.2000122070312</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>999.7000122070312</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>999.7000122070312</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>75817</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45499.63541666666</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>999.7000122070312</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>998</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>999</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>999</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>66877</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1121"/>
+  <dimension ref="A1:R1128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62909,7 +62909,9 @@
       <c r="Q1115" t="n">
         <v>0</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
@@ -62963,7 +62965,9 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
@@ -63017,7 +63021,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -63071,7 +63077,9 @@
       <c r="Q1118" t="n">
         <v>0</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
@@ -63125,7 +63133,9 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
@@ -63179,7 +63189,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
@@ -63233,7 +63245,387 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45502.38541666666</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>1003.650024414062</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>1006.950012207031</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>1005</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45502.42708333334</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>1005.450012207031</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>1002.25</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>1003</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>37860</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45502.46875</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>1002.299987792969</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>1002.299987792969</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>39656</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45502.51041666666</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>1002.950012207031</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>999.2999877929688</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>77357</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45502.55208333334</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>1000.849975585938</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>1001.549987792969</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>1000.25</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>1000.25</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>31635</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45502.59375</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>1000.25</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>47784</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45502.63541666666</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>1000.5</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>1000.5</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>38362</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1128"/>
+  <dimension ref="A1:R1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63293,7 +63293,7 @@
         <v>31</v>
       </c>
       <c r="O1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1122" t="n">
         <v>0</v>
@@ -63301,7 +63301,9 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
@@ -63355,7 +63357,9 @@
       <c r="Q1123" t="n">
         <v>0</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
@@ -63409,7 +63413,9 @@
       <c r="Q1124" t="n">
         <v>0</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
@@ -63463,7 +63469,9 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
@@ -63517,7 +63525,9 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
@@ -63571,7 +63581,9 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
@@ -63625,7 +63637,387 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45503.38541666666</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>1004.450012207031</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>1004.450012207031</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>1001.5</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>1001.5</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45503.42708333334</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>1001.650024414062</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>77483</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45503.46875</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>1000.799987792969</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>1000.75</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>1000.75</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>65001</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45503.51041666666</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>1000.25</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>1002.650024414062</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>999.2000122070312</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>47886</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45503.55208333334</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>1000.049987792969</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>999.0999755859375</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>27652</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45503.59375</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>1000.349975585938</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>998.2000122070312</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>999.4500122070312</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>999.4500122070312</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>97049</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45503.63541666666</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>999.1500244140625</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>999.8499755859375</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>998</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>31984</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1135"/>
+  <dimension ref="A1:R1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63693,7 +63693,9 @@
       <c r="Q1129" t="n">
         <v>0</v>
       </c>
-      <c r="R1129" t="inlineStr"/>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
@@ -63747,7 +63749,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63801,7 +63805,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63855,7 +63861,9 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
@@ -63909,7 +63917,9 @@
       <c r="Q1133" t="n">
         <v>2</v>
       </c>
-      <c r="R1133" t="inlineStr"/>
+      <c r="R1133" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
@@ -63963,7 +63973,9 @@
       <c r="Q1134" t="n">
         <v>0</v>
       </c>
-      <c r="R1134" t="inlineStr"/>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
@@ -64017,7 +64029,387 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45504.38541666666</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>1003.75</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>1000.049987792969</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>1000.049987792969</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45504.42708333334</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>1000.049987792969</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>1002.75</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>73702</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45504.46875</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>44242</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45504.51041666666</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>1000.900024414062</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>27568</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45504.55208333334</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>1000.200012207031</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>28472</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45504.59375</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>41352</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45504.63541666666</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>21769</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1142"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64085,7 +64085,9 @@
       <c r="Q1136" t="n">
         <v>0</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -64139,7 +64141,9 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
@@ -64193,7 +64197,9 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
@@ -64247,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
@@ -64301,7 +64309,9 @@
       <c r="Q1140" t="n">
         <v>0</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
@@ -64355,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
@@ -64409,7 +64421,387 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45505.38541666666</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>1003.900024414062</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45505.42708333334</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>997.0499877929688</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>997.9000244140625</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>997.9000244140625</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>99844</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45505.46875</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>997.4000244140625</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>999</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>997.0999755859375</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>998</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>998</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>47462</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45505.51041666666</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>998.1500244140625</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>998.75</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>996.25</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>997.1500244140625</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>997.1500244140625</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>57041</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45505.55208333334</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>997</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>997.6500244140625</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>996</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>996.2999877929688</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>996.2999877929688</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>43361</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45505.59375</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>996.2999877929688</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>996.9500122070312</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>994.0499877929688</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>106115</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45505.63541666666</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>994.25</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>995.4000244140625</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>995.4000244140625</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>53599</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64469,7 +64469,7 @@
         <v>31</v>
       </c>
       <c r="O1143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1143" t="n">
         <v>0</v>
@@ -64477,7 +64477,9 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
@@ -64531,7 +64533,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64585,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64639,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64693,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64747,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64801,7 +64813,387 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45506.38541666666</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>991</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>991</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>995.8499755859375</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>995.8499755859375</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45506.42708333334</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>995.9500122070312</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>997</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>993.2999877929688</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>994.75</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>994.75</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>45395</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45506.46875</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>995</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>995.5999755859375</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>993.0999755859375</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>994.3499755859375</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>994.3499755859375</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>33616</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45506.51041666666</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>994.3499755859375</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>994.7999877929688</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>992.4500122070312</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>993.0499877929688</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>993.0499877929688</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>35322</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45506.55208333334</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>993.0499877929688</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>993.5999755859375</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>992</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>993</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>993</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>47447</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45506.59375</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>993</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>993.0999755859375</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>991.2999877929688</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>991.7000122070312</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>991.7000122070312</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>58513</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45506.63541666666</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>991.7999877929688</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>991.7999877929688</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>992</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>992</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>31273</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1156"/>
+  <dimension ref="A1:R1163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64869,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64923,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64977,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65031,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65085,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>2</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65139,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65193,7 +65205,387 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45509.38541666666</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>981.3499755859375</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>985</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>971</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>982.5999755859375</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>982.5999755859375</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>31605</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45509.42708333334</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>982.7000122070312</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>983</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>973.4000244140625</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>973.9000244140625</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>973.9000244140625</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>164463</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45509.46875</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>974.5</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>977</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>970.2000122070312</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>975.9500122070312</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>975.9500122070312</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>165619</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45509.51041666666</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>975.9500122070312</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>977.7999877929688</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>970.4500122070312</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>973.6500244140625</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>973.6500244140625</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>125477</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45509.55208333334</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>974.1500244140625</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>980</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>974.1500244140625</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>978.1500244140625</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>978.1500244140625</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>69859</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45509.59375</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>978</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>979.5</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>975</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>977.0499877929688</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>977.0499877929688</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>88250</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45509.63541666666</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>977.0499877929688</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>977.7999877929688</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>975.5999755859375</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>976.2999877929688</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>976.2999877929688</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>57242</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1163"/>
+  <dimension ref="A1:R1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65261,7 +65261,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65315,7 +65317,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65361,7 +65365,7 @@
         <v>32</v>
       </c>
       <c r="O1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1159" t="n">
         <v>0</v>
@@ -65369,7 +65373,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65423,7 +65429,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65477,7 +65485,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65531,7 +65541,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65585,7 +65597,387 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45510.38541666666</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>978.5</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>993.9500122070312</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>978.5</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>989.2000122070312</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>989.2000122070312</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45510.42708333334</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>989.5499877929688</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>990.7000122070312</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>980.5</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>985</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>985</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>79981</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45510.46875</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>985</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>991.5</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>985</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>991</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>991</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>64920</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45510.51041666666</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>991</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>991.75</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>987</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>111214</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45510.55208333334</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>992</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>978.5</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>979</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>979</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>108894</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45510.59375</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>979</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>987</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>976.5</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>984.4500122070312</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>984.4500122070312</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>90729</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45510.63541666666</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>984.4000244140625</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>984.4500122070312</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>978</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>983.0499877929688</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>983.0499877929688</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>57625</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1170"/>
+  <dimension ref="A1:R1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65653,7 +65653,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65707,7 +65709,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65761,7 +65765,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65815,7 +65821,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65869,7 +65877,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65923,7 +65933,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65977,7 +65989,387 @@
       <c r="Q1170" t="n">
         <v>1</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45511.38541666666</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>989.5999755859375</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>991.5</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>984</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>985.5499877929688</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>985.5499877929688</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45511.42708333334</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>985.5499877929688</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>990</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>983.0999755859375</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>987.7999877929688</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>987.7999877929688</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>66672</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45511.46875</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>987.2000122070312</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>992.7999877929688</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>986.5499877929688</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>991.9000244140625</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>991.9000244140625</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>84544</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45511.51041666666</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>992</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>995</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>991.75</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>61459</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45511.55208333334</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>990.1500244140625</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>59426</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45511.59375</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>992.4000244140625</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>991.7999877929688</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>114059</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45511.63541666666</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>998.4500122070312</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>1000.549987792969</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>998</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>999.1500244140625</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>999.1500244140625</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>66156</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1177"/>
+  <dimension ref="A1:R1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66045,7 +66045,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66099,7 +66101,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66153,7 +66157,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66207,7 +66213,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66261,7 +66269,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66315,7 +66325,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66369,7 +66381,387 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45512.38541666666</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>1003.75</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>995</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>996.75</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>996.75</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>84495</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45512.42708333334</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>997.25</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>998.25</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>994</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>994</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>66295</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45512.46875</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>993.4000244140625</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>997.9500122070312</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>997.4500122070312</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>997.4500122070312</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>74582</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45512.51041666666</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>997.6500244140625</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>997.8499755859375</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>994.7999877929688</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>995.7999877929688</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>995.7999877929688</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>58759</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45512.55208333334</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>995.7999877929688</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>997.4500122070312</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>995</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>47418</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45512.59375</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>996.4500122070312</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>996</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>999</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>999</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>67103</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45512.63541666666</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>995.2999877929688</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>998.7999877929688</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>998.7999877929688</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>46745</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1184"/>
+  <dimension ref="A1:R1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66437,7 +66437,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66491,7 +66493,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66545,7 +66549,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66599,7 +66605,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66653,7 +66661,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66707,7 +66717,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66761,7 +66773,387 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45513.38541666666</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>1004.700012207031</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>999.5999755859375</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45513.42708333334</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>1000.599975585938</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>1000.599975585938</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>45644</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45513.46875</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>1000.25</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>1000.599975585938</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>996.5999755859375</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>997</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>997</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>31459</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45513.51041666666</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>997.4000244140625</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>997.4500122070312</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>989.25</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>77018</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45513.55208333334</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>989.7999877929688</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>993</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>988.5</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>990.7000122070312</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>990.7000122070312</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>38327</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45513.59375</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>990.75</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>992.2999877929688</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>990.5499877929688</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>990.5499877929688</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>46323</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45513.63541666666</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>990</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>987.9500122070312</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>989.6500244140625</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>989.6500244140625</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>41033</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1191"/>
+  <dimension ref="A1:R1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66821,7 +66821,7 @@
         <v>32</v>
       </c>
       <c r="O1185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1185" t="n">
         <v>0</v>
@@ -66829,7 +66829,9 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
@@ -66883,7 +66885,9 @@
       <c r="Q1186" t="n">
         <v>0</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
@@ -66937,7 +66941,9 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -66991,7 +66997,9 @@
       <c r="Q1188" t="n">
         <v>0</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -67045,7 +67053,9 @@
       <c r="Q1189" t="n">
         <v>0</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67099,7 +67109,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67153,7 +67165,387 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45516.38541666666</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>984.3499755859375</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>988.5</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>980.7000122070312</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>984</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>984</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45516.42708333334</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>984</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>992.5999755859375</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>983.5499877929688</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>992.0499877929688</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>992.0499877929688</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>65305</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45516.46875</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>992.5499877929688</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>993.5499877929688</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>990.0999755859375</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>990.6500244140625</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>990.6500244140625</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>46685</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45516.51041666666</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>990.6500244140625</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>990.6500244140625</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>52825</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45516.55208333334</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>992.9000244140625</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>991.75</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>992.6500244140625</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>992.6500244140625</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>24306</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45516.59375</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>992.0499877929688</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>994</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>990.4000244140625</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>993.4000244140625</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>993.4000244140625</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>55400</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45516.63541666666</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>994.3499755859375</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>994.7999877929688</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>992.1500244140625</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>993.0999755859375</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>993.0999755859375</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>21192</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1198"/>
+  <dimension ref="A1:R1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67213,7 +67213,7 @@
         <v>33</v>
       </c>
       <c r="O1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1192" t="n">
         <v>0</v>
@@ -67221,7 +67221,9 @@
       <c r="Q1192" t="n">
         <v>0</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -67275,7 +67277,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -67329,7 +67333,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67383,7 +67389,9 @@
       <c r="Q1195" t="n">
         <v>0</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67437,7 +67445,9 @@
       <c r="Q1196" t="n">
         <v>2</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
@@ -67491,7 +67501,9 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -67545,7 +67557,387 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45517.38541666666</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>992</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>992.9500122070312</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>989</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>990</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>990</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>96208</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45517.42708333334</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>991</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>988.0999755859375</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>45830</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45517.46875</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>990.2000122070312</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>991.7000122070312</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>989.5499877929688</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>34250</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45517.51041666666</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>991.7000122070312</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>988.8499755859375</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>989.5</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>989.5</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>36399</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45517.55208333334</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>989.5</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>993.3499755859375</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>988.0499877929688</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>991.25</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>991.25</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>69415</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45517.59375</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>990.5499877929688</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>994.4000244140625</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>989.4000244140625</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>994</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>994</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>93615</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45517.63541666666</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>994.0499877929688</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>996.9000244140625</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>994</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>62653</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1205"/>
+  <dimension ref="A1:R1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67613,7 +67613,9 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -67667,7 +67669,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67721,7 +67725,9 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -67775,7 +67781,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67829,7 +67837,9 @@
       <c r="Q1203" t="n">
         <v>1</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67883,7 +67893,9 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67937,7 +67949,387 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45518.38541666666</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>994</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>995.5499877929688</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>983</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>987.5</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>987.5</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>128127</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45518.42708333334</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>987.1500244140625</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>988</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>983.5999755859375</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>986.75</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>986.75</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>35635</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45518.46875</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>986.25</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>987.4500122070312</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>985.7999877929688</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>986.5</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>986.5</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>24050</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45518.51041666666</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>986.5</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>990.9500122070312</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>986.0999755859375</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>990.4000244140625</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>990.4000244140625</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>30308</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45518.55208333334</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>990</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>990.9000244140625</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>990.0499877929688</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>990.0499877929688</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>25013</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45518.59375</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>990.0499877929688</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>994.1500244140625</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>988.0499877929688</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>992.5499877929688</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>992.5499877929688</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>76212</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45518.63541666666</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>992.0499877929688</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>993.4000244140625</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>992.0499877929688</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>992.4000244140625</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>992.4000244140625</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>27596</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -68005,7 +68005,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -68059,7 +68061,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -68113,7 +68117,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68167,7 +68173,9 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
@@ -68221,7 +68229,9 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
@@ -68275,7 +68285,9 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
@@ -68329,7 +68341,9 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1212"/>
+  <dimension ref="A1:R1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67997,7 +67997,7 @@
         <v>33</v>
       </c>
       <c r="O1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1206" t="n">
         <v>0</v>
@@ -68344,6 +68344,384 @@
       <c r="R1212" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45520.38541666666</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>994</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>994</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1003</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45520.42708333334</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>1003.299987792969</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>1005.75</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>998.4500122070312</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>138077</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45520.46875</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>998.25</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>69878</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45520.51041666666</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>999.0999755859375</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>1005.200012207031</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1005.200012207031</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>230647</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45520.55208333334</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>1005.25</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>1005.25</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>998.2000122070312</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>258135</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45520.59375</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>1001.200012207031</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>998.4000244140625</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>116356</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45520.63541666666</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>997.0499877929688</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>45621</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1219"/>
+  <dimension ref="A1:R1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68389,7 +68389,7 @@
         <v>33</v>
       </c>
       <c r="O1213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1213" t="n">
         <v>0</v>
@@ -68397,7 +68397,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -68451,7 +68453,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68505,7 +68509,9 @@
       <c r="Q1215" t="n">
         <v>0</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
@@ -68559,7 +68565,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68613,7 +68621,9 @@
       <c r="Q1217" t="n">
         <v>1</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
@@ -68667,7 +68677,9 @@
       <c r="Q1218" t="n">
         <v>0</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -68721,7 +68733,387 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45523.38541666666</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>1007.299987792969</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>1007.299987792969</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>998.0999755859375</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45523.42708333334</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>1000.049987792969</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>997.5999755859375</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>999</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>999</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>51315</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45523.46875</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>998.3499755859375</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>998.0999755859375</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>34141</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45523.51041666666</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>997.0999755859375</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>998.4500122070312</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>998.4500122070312</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>27538</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45523.55208333334</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>998.7000122070312</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>997.0499877929688</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>998</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>998</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>18583</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45523.59375</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>998</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>998</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>47230</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45523.63541666666</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>996</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>998.7000122070312</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>998.7000122070312</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>35081</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1226"/>
+  <dimension ref="A1:R1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68789,7 +68789,9 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
@@ -68843,7 +68845,9 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -68897,7 +68901,9 @@
       <c r="Q1222" t="n">
         <v>0</v>
       </c>
-      <c r="R1222" t="inlineStr"/>
+      <c r="R1222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
@@ -68951,7 +68957,9 @@
       <c r="Q1223" t="n">
         <v>0</v>
       </c>
-      <c r="R1223" t="inlineStr"/>
+      <c r="R1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -69005,7 +69013,9 @@
       <c r="Q1224" t="n">
         <v>2</v>
       </c>
-      <c r="R1224" t="inlineStr"/>
+      <c r="R1224" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
@@ -69059,7 +69069,9 @@
       <c r="Q1225" t="n">
         <v>0</v>
       </c>
-      <c r="R1225" t="inlineStr"/>
+      <c r="R1225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
@@ -69113,7 +69125,387 @@
       <c r="Q1226" t="n">
         <v>0</v>
       </c>
-      <c r="R1226" t="inlineStr"/>
+      <c r="R1226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45524.38541666666</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>1039.849975585938</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>998</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>926429</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45524.42708333334</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>1024.949951171875</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>1039.949951171875</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>1016.150024414062</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>1030.300048828125</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1030.300048828125</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>947076</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45524.46875</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>1030.300048828125</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>1018.349975585938</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>1020.900024414062</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1020.900024414062</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>391252</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45524.51041666666</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>1020.450012207031</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>1021.150024414062</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>1016.200012207031</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>235586</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45524.55208333334</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>1016.950012207031</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>1013.799987792969</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1013.799987792969</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>304134</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45524.59375</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>1013.799987792969</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>1014.900024414062</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>1006.5</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>1006.799987792969</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1006.799987792969</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>299542</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45524.63541666666</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>1004.400024414062</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1004.400024414062</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>339052</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1233"/>
+  <dimension ref="A1:R1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69117,7 +69117,7 @@
         <v>34</v>
       </c>
       <c r="O1226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1226" t="n">
         <v>0</v>
@@ -69181,7 +69181,9 @@
       <c r="Q1227" t="n">
         <v>0</v>
       </c>
-      <c r="R1227" t="inlineStr"/>
+      <c r="R1227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
@@ -69235,7 +69237,9 @@
       <c r="Q1228" t="n">
         <v>0</v>
       </c>
-      <c r="R1228" t="inlineStr"/>
+      <c r="R1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
@@ -69289,7 +69293,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -69343,7 +69349,9 @@
       <c r="Q1230" t="n">
         <v>0</v>
       </c>
-      <c r="R1230" t="inlineStr"/>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
@@ -69397,7 +69405,9 @@
       <c r="Q1231" t="n">
         <v>0</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
@@ -69451,7 +69461,9 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -69505,7 +69517,387 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45525.38541666666</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>1008.200012207031</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>1014.700012207031</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>1001.299987792969</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>1010.900024414062</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1010.900024414062</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>859610</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45525.42708333334</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>1010.400024414062</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>1040.900024414062</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1039</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1107156</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45525.46875</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>1039.199951171875</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>1048.599975585938</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>1028.400024414062</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1031</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1166882</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45525.51041666666</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>1030.5</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>1031.900024414062</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>1024.099975585938</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>1025.050048828125</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1025.050048828125</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>391049</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45525.55208333334</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>1020.549987792969</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>526043</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45525.59375</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>1021.25</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>1032.050048828125</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>669648</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45525.63541666666</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>1025.449951171875</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1025.449951171875</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>291133</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1240"/>
+  <dimension ref="A1:R1247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="R265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -18838,7 +18838,7 @@
         <v>1</v>
       </c>
       <c r="R328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -23150,7 +23150,7 @@
         <v>2</v>
       </c>
       <c r="R405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -26678,7 +26678,7 @@
         <v>0</v>
       </c>
       <c r="R468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -36478,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="R643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -42078,7 +42078,7 @@
         <v>0</v>
       </c>
       <c r="R743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -45102,7 +45102,7 @@
         <v>0</v>
       </c>
       <c r="R797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -50590,7 +50590,7 @@
         <v>0</v>
       </c>
       <c r="R895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -54454,7 +54454,7 @@
         <v>0</v>
       </c>
       <c r="R964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="R1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -58038,7 +58038,7 @@
         <v>2</v>
       </c>
       <c r="R1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -67838,7 +67838,7 @@
         <v>1</v>
       </c>
       <c r="R1203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204">
@@ -69573,7 +69573,9 @@
       <c r="Q1234" t="n">
         <v>0</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
@@ -69627,7 +69629,9 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
@@ -69673,7 +69677,7 @@
         <v>34</v>
       </c>
       <c r="O1236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1236" t="n">
         <v>0</v>
@@ -69681,7 +69685,9 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -69735,7 +69741,9 @@
       <c r="Q1237" t="n">
         <v>1</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69789,7 +69797,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69843,7 +69853,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69897,7 +69909,387 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45526.38541666666</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>1036.449951171875</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>1026.150024414062</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>1028.300048828125</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1028.300048828125</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45526.42708333334</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>1028.300048828125</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>1023.400024414062</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>1023.900024414062</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>1023.900024414062</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>498516</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45526.46875</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>1023.900024414062</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>1025.400024414062</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>1018.349975585938</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>1019.400024414062</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>1019.400024414062</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>316102</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45526.51041666666</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>1019.400024414062</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>1015</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>498257</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45526.55208333334</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>1019.900024414062</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>1012.599975585938</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>1013</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>306483</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45526.59375</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>1014.900024414062</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>1009.650024414062</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>1009.650024414062</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>447328</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45526.63541666666</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>1002.400024414062</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>560927</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1247"/>
+  <dimension ref="A1:R1254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="R265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -18838,7 +18838,7 @@
         <v>1</v>
       </c>
       <c r="R328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -23150,7 +23150,7 @@
         <v>2</v>
       </c>
       <c r="R405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -26678,7 +26678,7 @@
         <v>0</v>
       </c>
       <c r="R468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -36478,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="R643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -42078,7 +42078,7 @@
         <v>0</v>
       </c>
       <c r="R743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -45102,7 +45102,7 @@
         <v>0</v>
       </c>
       <c r="R797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -50590,7 +50590,7 @@
         <v>0</v>
       </c>
       <c r="R895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -54454,7 +54454,7 @@
         <v>0</v>
       </c>
       <c r="R964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="R1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -58038,7 +58038,7 @@
         <v>2</v>
       </c>
       <c r="R1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114">
@@ -67838,7 +67838,7 @@
         <v>1</v>
       </c>
       <c r="R1203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -69965,7 +69965,9 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -70019,7 +70021,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -70073,7 +70077,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70127,7 +70133,9 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -70181,7 +70189,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -70235,7 +70245,9 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
@@ -70289,7 +70301,387 @@
       <c r="Q1247" t="n">
         <v>2</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45527.38541666666</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>1017.400024414062</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>1038.900024414062</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>1015.849975585938</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>1301077</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45527.42708333334</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>1032.300048828125</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>1054.400024414062</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>1029.550048828125</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>1040.449951171875</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>1040.449951171875</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>2425459</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45527.46875</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>1039.599975585938</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>1048.800048828125</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>1035.099975585938</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>1048</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>1048</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>771862</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45527.51041666666</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>1048.449951171875</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>1049.650024414062</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>1037.150024414062</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>1037.150024414062</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>924151</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45527.55208333334</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>1037.449951171875</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>1042</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>1033.699951171875</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>1033.699951171875</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>8339955</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45527.59375</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>1033.5</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>1039.699951171875</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>1028.099975585938</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>1036.800048828125</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>1036.800048828125</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>2839148</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45527.63541666666</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>1035.900024414062</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>1039.699951171875</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>1033</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>1038.699951171875</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>1038.699951171875</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>875955</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1254"/>
+  <dimension ref="A1:R1261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70293,7 +70293,7 @@
         <v>34</v>
       </c>
       <c r="O1247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1247" t="n">
         <v>2</v>
@@ -70357,7 +70357,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70411,7 +70413,9 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70465,7 +70469,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70519,7 +70525,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70573,7 +70581,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70627,7 +70637,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70681,7 +70693,387 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45530.38541666666</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>1051.900024414062</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>1056.900024414062</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>1040.099975585938</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>1054.949951171875</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>1054.949951171875</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45530.42708333334</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>1055.050048828125</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>1055.800048828125</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>1045.199951171875</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>1047.5</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>1047.5</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>718026</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45530.46875</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>1047.449951171875</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>1064.900024414062</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>1047.25</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>1818744</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45530.51041666666</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>1063.199951171875</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>1064</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>1053.099975585938</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>1109751</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45530.55208333334</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>1057.699951171875</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>1058.699951171875</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>1051.300048828125</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>1052.949951171875</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>1052.949951171875</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>732644</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45530.59375</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>1052.949951171875</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>1055.900024414062</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>1041.75</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>1052</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>1212943</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45530.63541666666</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>1055.800048828125</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>1048.150024414062</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>416601</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1261"/>
+  <dimension ref="A1:R1268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70749,7 +70749,9 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
@@ -70803,7 +70805,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70857,7 +70861,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70911,7 +70917,9 @@
       <c r="Q1258" t="n">
         <v>1</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70965,7 +70973,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -71019,7 +71029,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -71073,7 +71085,387 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45531.38541666666</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>1022.400024414062</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>1022.400024414062</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>1046</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>1046</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45531.42708333334</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>1057.900024414062</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>1043.550048828125</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>1054</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>1598534</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45531.46875</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>1054.300048828125</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>1059.300048828125</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>1051.449951171875</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>1056</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>826128</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45531.51041666666</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>1055.75</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>1081.400024414062</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>1081.050048828125</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>1081.050048828125</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>3053903</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45531.55208333334</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>1081.400024414062</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>1072.25</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>1077.300048828125</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>1077.300048828125</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>5643786</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45531.59375</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>1077.5</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>1106.599975585938</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>1076</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>1105.25</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>1105.25</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>5232733</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45531.63541666666</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>1105.400024414062</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>1092.5</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>1099</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>1200759</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1268"/>
+  <dimension ref="A1:R1275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71141,7 +71141,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71195,7 +71197,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71249,7 +71253,9 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
@@ -71303,7 +71309,9 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71357,7 +71365,9 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71411,7 +71421,9 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
@@ -71465,7 +71477,387 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45532.38541666666</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>1106.949951171875</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>1114.900024414062</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>1075.75</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>1109.099975585938</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>1109.099975585938</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>4982226</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45532.42708333334</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>1109.699951171875</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>1114.949951171875</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>1102</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>1104</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>2368224</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45532.46875</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>1104.449951171875</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>1106.5</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>1093.099975585938</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>1235473</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45532.51041666666</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>1097.449951171875</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>1093</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>1095.949951171875</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>1095.949951171875</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>622550</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45532.55208333334</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>1096.300048828125</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>1098.949951171875</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>1090.25</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>1094.5</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>1094.5</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>534607</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45532.59375</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>1094.5</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>1096.650024414062</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>1078</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>1079</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>1079</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>1296627</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45532.63541666666</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>1079</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>1075.050048828125</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>1079.400024414062</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>1079.400024414062</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>495598</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1275"/>
+  <dimension ref="A1:R1282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71533,7 +71533,9 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
@@ -71579,7 +71581,7 @@
         <v>35</v>
       </c>
       <c r="O1270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1270" t="n">
         <v>0</v>
@@ -71587,7 +71589,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71641,7 +71645,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71695,7 +71701,9 @@
       <c r="Q1272" t="n">
         <v>0</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
@@ -71749,7 +71757,9 @@
       <c r="Q1273" t="n">
         <v>0</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
@@ -71803,7 +71813,9 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
@@ -71857,7 +71869,387 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45533.38541666666</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>1084</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>1089.5</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>1076.050048828125</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>1082</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>1082</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45533.42708333334</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>1082.050048828125</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>1082.050048828125</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>1058.800048828125</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>1067.099975585938</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>1067.099975585938</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>1041100</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45533.46875</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>1067.099975585938</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>1062.75</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>1066.800048828125</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>1066.800048828125</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>473058</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45533.51041666666</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>1066.550048828125</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>1071.949951171875</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>1066.5</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>1069.150024414062</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>1069.150024414062</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>332141</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45533.55208333334</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>1069.25</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>1071.949951171875</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>1062</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>1062</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>461942</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45533.59375</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>1062</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>1064.849975585938</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>1059.5</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>1060.849975585938</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>1060.849975585938</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>478647</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45533.63541666666</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>1064.5</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>1057.699951171875</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>1060.800048828125</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>1060.800048828125</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>336103</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1282"/>
+  <dimension ref="A1:R1289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71925,7 +71925,9 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
@@ -71979,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72033,7 +72037,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72087,7 +72093,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72141,7 +72149,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72195,7 +72205,9 @@
       <c r="Q1281" t="n">
         <v>2</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72249,7 +72261,387 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45534.38541666666</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>1067.949951171875</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>1079.849975585938</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>1061.349975585938</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>1072.349975585938</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>1072.349975585938</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>1385252</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45534.42708333334</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>1072.400024414062</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>1072.949951171875</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>1054.5</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>1058.050048828125</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>1058.050048828125</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>684775</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45534.46875</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>1057.75</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>1059.900024414062</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>1059</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>369014</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45534.51041666666</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>1058.650024414062</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>1073</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>1073</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>1238435</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45534.55208333334</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>1072.800048828125</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>1078.75</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>1071.050048828125</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>1077</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>1077</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>702615</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45534.59375</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>1077</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>1063.400024414062</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>1064.349975585938</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>1064.349975585938</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>667521</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45534.63541666666</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>1065.300048828125</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>1066.900024414062</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>1062.650024414062</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>1064.550048828125</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>1064.550048828125</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>234722</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1289"/>
+  <dimension ref="A1:R1296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72317,7 +72317,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72371,7 +72373,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72425,7 +72429,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72479,7 +72485,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72533,7 +72541,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72587,7 +72597,9 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
@@ -72641,7 +72653,387 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45537.38541666666</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>1072.199951171875</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>1075.300048828125</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>1064.599975585938</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>1068.300048828125</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>1068.300048828125</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45537.42708333334</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>1068.650024414062</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>1069.75</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>1052.900024414062</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>1056.449951171875</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>1056.449951171875</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>576980</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45537.46875</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>1056.449951171875</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>1054.050048828125</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>1054.550048828125</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>1054.550048828125</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>221478</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45537.51041666666</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>1055.300048828125</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>1051.25</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>1053.949951171875</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>1053.949951171875</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>266232</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45537.55208333334</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>1053.75</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>1048.449951171875</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>1049.5</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>1049.5</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>491665</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45537.59375</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>1049.550048828125</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>1054.5</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>1048.5</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>1052.150024414062</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>1052.150024414062</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>471325</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45537.63541666666</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>1052.150024414062</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>1052.949951171875</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>1048.550048828125</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>258827</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1296"/>
+  <dimension ref="A1:R1303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72589,7 +72589,7 @@
         <v>35</v>
       </c>
       <c r="O1288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1288" t="n">
         <v>0</v>
@@ -72709,7 +72709,9 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
@@ -72763,7 +72765,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72817,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72871,7 +72877,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72925,7 +72933,9 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72979,7 +72989,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -73033,7 +73045,387 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45538.38541666666</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>1056.449951171875</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>1069.650024414062</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>1046.5</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>1060.300048828125</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>1060.300048828125</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45538.42708333334</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>1060.300048828125</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>1067</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>1056.050048828125</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>1058</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>487332</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45538.46875</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>1058.050048828125</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>1067.199951171875</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>1056.800048828125</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>1064.75</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>1064.75</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>356379</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45538.51041666666</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>1064.550048828125</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>1074.300048828125</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>1064.449951171875</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>1071.5</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>1071.5</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>577564</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45538.55208333334</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>1071.900024414062</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>1073.5</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>1063.150024414062</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>1068</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>475238</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45538.59375</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>1068.150024414062</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>1073.150024414062</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>1067.25</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>1067.25</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>608844</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45538.63541666666</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>1067.349975585938</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>1067.050048828125</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>277323</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1303"/>
+  <dimension ref="A1:R1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73093,7 +73093,7 @@
         <v>36</v>
       </c>
       <c r="O1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1297" t="n">
         <v>0</v>
@@ -73101,7 +73101,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73155,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73209,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73263,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73317,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73371,7 +73381,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73425,7 +73437,387 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45539.38541666666</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>1067.849975585938</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>1058.699951171875</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>1058.699951171875</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>887479</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45539.42708333334</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>1058.699951171875</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>1059.900024414062</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>1051.599975585938</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>1057.25</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>1057.25</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>440276</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45539.46875</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>1057.25</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>1056.650024414062</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>1060.300048828125</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>1060.300048828125</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>212515</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45539.51041666666</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>1060.449951171875</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>1062.650024414062</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>1056.050048828125</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>1060.300048828125</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>1060.300048828125</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>197490</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45539.55208333334</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>1060.849975585938</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>1055.650024414062</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>1056</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>201186</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45539.59375</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>1056.150024414062</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>1055.550048828125</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>1056.300048828125</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>1056.300048828125</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>206360</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45539.63541666666</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>1056.5</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>1057</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>1054.5</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>1056.099975585938</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>1056.099975585938</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>179710</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1310"/>
+  <dimension ref="A1:R1317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73493,7 +73493,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73547,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73601,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73655,7 +73661,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73709,7 +73717,9 @@
       <c r="Q1308" t="n">
         <v>1</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73763,7 +73773,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73817,7 +73829,387 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45540.38541666666</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>1061.800048828125</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>1087.800048828125</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>1058.400024414062</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>1083.150024414062</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>1083.150024414062</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>1610732</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45540.42708333334</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>1083.300048828125</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>1083.300048828125</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>1070.599975585938</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>1078.099975585938</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>1078.099975585938</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>695470</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45540.46875</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>1077.5</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>1086.050048828125</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>1074</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>1080.400024414062</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>1080.400024414062</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>522412</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45540.51041666666</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>1080.400024414062</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>1084.5</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>1074.099975585938</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>587622</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45540.55208333334</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>1083.300048828125</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>1085.5</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>1081.099975585938</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>1084.75</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>1084.75</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>520248</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45540.59375</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>1084.800048828125</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>1085.25</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>1073.949951171875</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>1075.550048828125</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>1075.550048828125</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>547110</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45540.63541666666</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>1075.199951171875</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>1076.849975585938</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>1073</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>1076.400024414062</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>1076.400024414062</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>275236</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1317"/>
+  <dimension ref="A1:R1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73885,7 +73885,9 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
@@ -73939,7 +73941,9 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="2" t="n">
@@ -73993,7 +73997,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -74047,7 +74053,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74101,7 +74109,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74155,7 +74165,9 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" s="2" t="n">
@@ -74209,7 +74221,387 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45541.38541666666</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>1084</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>1101.849975585938</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>1076.75</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>1082.75</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>1082.75</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45541.42708333334</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>1082.25</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>1075.5</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>1098.300048828125</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>1098.300048828125</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>1576387</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45541.46875</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>1098.349975585938</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>1118.849975585938</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>1093</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>1105.699951171875</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>1105.699951171875</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>3259743</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45541.51041666666</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>1105.699951171875</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>1119.949951171875</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>1115.699951171875</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>1115.699951171875</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>1975078</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45541.55208333334</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>1116</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>1122.900024414062</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>1116</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>1116</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>1838686</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45541.59375</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>1116</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>1117.800048828125</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>1107.050048828125</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>1113.400024414062</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>1113.400024414062</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>1650504</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45541.63541666666</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>1113.849975585938</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>1114.5</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>1105.099975585938</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>1109.349975585938</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>1109.349975585938</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>562457</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1324"/>
+  <dimension ref="A1:R1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74277,7 +74277,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74331,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74385,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74439,7 +74445,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74493,7 +74501,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74547,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74601,7 +74613,387 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45544.38541666666</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>1087.25</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>1092.400024414062</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>1092.400024414062</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45544.42708333334</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>1092.949951171875</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>1094.900024414062</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>1084.25</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>1086.800048828125</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>1086.800048828125</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>516282</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45544.46875</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>1086.800048828125</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>1086.800048828125</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>1074.949951171875</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>1078.050048828125</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>1078.050048828125</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>885451</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45544.51041666666</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>1081.599975585938</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>1078.150024414062</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>1078.150024414062</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>284803</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45544.55208333334</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>1078.599975585938</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>1085.199951171875</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>1078.349975585938</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>1080.050048828125</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>1080.050048828125</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>275396</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45544.59375</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>1080.099975585938</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>1084.449951171875</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>1075.349975585938</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>1078.949951171875</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>1078.949951171875</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>459133</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45544.63541666666</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>1079</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>1079</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>1077.150024414062</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>1077.150024414062</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>283080</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1331"/>
+  <dimension ref="A1:R1338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74493,7 +74493,7 @@
         <v>36</v>
       </c>
       <c r="O1322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1322" t="n">
         <v>0</v>
@@ -74669,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74723,7 +74725,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74777,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74831,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74885,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74939,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74993,7 +75005,387 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45545.38541666666</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>1097.400024414062</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>1085.199951171875</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>1089.5</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>1089.5</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45545.42708333334</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>1089.900024414062</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>1105.900024414062</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>1087.949951171875</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>1103.699951171875</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>1103.699951171875</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>726132</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45545.46875</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>1104.949951171875</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>1109.699951171875</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>1100.050048828125</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>1102.199951171875</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>1102.199951171875</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>615539</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45545.51041666666</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>1102.199951171875</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>1097.300048828125</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>1097.599975585938</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>1097.599975585938</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>277820</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45545.55208333334</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>1102.949951171875</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>1095.150024414062</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>1099.900024414062</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>1099.900024414062</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>238908</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45545.59375</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>1099.75</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>1099.849975585938</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>1088.449951171875</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>1091.900024414062</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>1091.900024414062</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>354466</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45545.63541666666</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>1091.599975585938</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>1094.900024414062</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>1088.650024414062</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>1090.5</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>1090.5</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>195403</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1338"/>
+  <dimension ref="A1:R1345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75061,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75115,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75169,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75223,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75277,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75331,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75385,7 +75397,387 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45546.38541666666</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>1094.949951171875</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>1096.849975585938</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>1088.099975585938</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>1091.699951171875</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>1091.699951171875</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45546.42708333334</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>1098.699951171875</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>1085.199951171875</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>1098.199951171875</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>1098.199951171875</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>402406</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45546.46875</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>1098.599975585938</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>1107.800048828125</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>1095.550048828125</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>1096.25</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>1096.25</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>575886</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45546.51041666666</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>1096.849975585938</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>1099.699951171875</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>1093.199951171875</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>222419</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45546.55208333334</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>1095.900024414062</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>1096.300048828125</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>1080.099975585938</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>1080.199951171875</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>1080.199951171875</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>423074</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45546.59375</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>1075.400024414062</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>1080.75</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>1080.75</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>419725</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45546.63541666666</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>1082.150024414062</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>1074.949951171875</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>1075</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>1075</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>241727</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1345"/>
+  <dimension ref="A1:R1352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75453,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75507,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75561,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75615,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75669,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75723,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75777,7 +75789,387 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45547.38541666666</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>1092.75</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>1082.449951171875</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>1084.849975585938</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>1084.849975585938</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45547.42708333334</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>1084.800048828125</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>1094.150024414062</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>1080.150024414062</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>1093.099975585938</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>1093.099975585938</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>361770</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45547.46875</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>1093.400024414062</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>1094.400024414062</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>1081.050048828125</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>1084.5</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>1084.5</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>308953</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45547.51041666666</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>1084.5</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>1088.449951171875</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>1083.25</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>1088.050048828125</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>1088.050048828125</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>113821</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45547.55208333334</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>1087.800048828125</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>1089.900024414062</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>1084.650024414062</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>1086.849975585938</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>1086.849975585938</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>162490</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45547.59375</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>1086.800048828125</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>1088.800048828125</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>1083.150024414062</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>1085.650024414062</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>1085.650024414062</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>215668</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45547.63541666666</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>1085.050048828125</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>1080.5</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>1081</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>1081</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>169915</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1352"/>
+  <dimension ref="A1:R1359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75781,7 +75781,7 @@
         <v>37</v>
       </c>
       <c r="O1345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1345" t="n">
         <v>0</v>
@@ -75845,7 +75845,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75899,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75953,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -76007,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76061,7 +76069,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76115,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76169,7 +76181,387 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45548.38541666666</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>1086.849975585938</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>1092.599975585938</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>1092.599975585938</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45548.42708333334</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>1092.949951171875</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>1097</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>1087.050048828125</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>1094</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>330578</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45548.46875</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>1090.699951171875</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>1093.300048828125</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>1093.300048828125</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>143269</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45548.51041666666</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>1092.449951171875</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>1105.800048828125</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>1092.449951171875</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>1097.099975585938</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>1097.099975585938</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>565940</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45548.55208333334</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>1097.099975585938</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>1098.949951171875</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>1091.900024414062</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>1093.699951171875</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>1093.699951171875</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>183195</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45548.59375</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>1093.199951171875</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>1089.5</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>1089.5</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>274470</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45548.63541666666</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>1086.800048828125</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>1090.599975585938</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>1090.599975585938</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>186329</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1359"/>
+  <dimension ref="A1:R1366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76237,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76291,7 +76293,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76345,7 +76349,9 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76399,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>1</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76453,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76507,7 +76517,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76561,7 +76573,387 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45551.38541666666</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>1109.650024414062</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>1120.199951171875</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>1098.050048828125</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>1101.099975585938</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>1101.099975585938</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45551.42708333334</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>1101.550048828125</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>1101.800048828125</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>1094</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>1099</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>424873</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45551.46875</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>1099.25</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>1104.099975585938</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>1096.199951171875</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>1102.5</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>1102.5</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>313858</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45551.51041666666</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>1102.900024414062</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>1103</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>1096.550048828125</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>1098.050048828125</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>1098.050048828125</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>214909</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45551.55208333334</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>1098.75</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>1096.199951171875</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>1096.5</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>1096.5</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>153987</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45551.59375</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>1096.199951171875</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>1099.400024414062</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>1093.5</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>1095.650024414062</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>1095.650024414062</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>288889</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45551.63541666666</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>1096</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>1097.599975585938</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>1091.349975585938</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>1097</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>1097</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>224260</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1366"/>
+  <dimension ref="A1:R1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76621,7 +76621,7 @@
         <v>38</v>
       </c>
       <c r="O1360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1360" t="n">
         <v>0</v>
@@ -76629,7 +76629,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76683,7 +76685,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76737,7 +76741,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76791,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76845,7 +76853,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76899,7 +76909,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76953,7 +76965,765 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45552.38541666666</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>1095.5</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>1100.449951171875</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>1085.449951171875</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>1090.199951171875</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>1090.199951171875</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>490486</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45552.42708333334</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>1090.5</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>1090.75</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>1086.099975585938</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>1089.550048828125</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>1089.550048828125</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>153817</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45552.46875</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>1089.449951171875</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>1094.25</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>1087.199951171875</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1090.099975585938</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>1090.099975585938</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>151960</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45552.51041666666</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>1090.699951171875</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>1090.699951171875</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>1087.25</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>1088.099975585938</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>1088.099975585938</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>94685</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45552.55208333334</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>1087.599975585938</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>1088.550048828125</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>1082.5</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>1084.199951171875</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>1084.199951171875</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>186329</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45552.59375</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>1083.949951171875</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>1085.5</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>1080.25</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>1080.800048828125</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>1080.800048828125</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>198499</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45552.63541666666</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>1080.800048828125</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>1081.5</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>1078.050048828125</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>1081</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>1081</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>151832</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45553.38541666666</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>1083.849975585938</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>1086.349975585938</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>1074.150024414062</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>1075.150024414062</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>1075.150024414062</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45553.42708333334</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>1075.199951171875</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>1079.599975585938</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>1073.75</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1076.900024414062</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>1076.900024414062</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>154336</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45553.46875</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>1076.900024414062</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>1082.5</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>1074.800048828125</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>1079.400024414062</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>1079.400024414062</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>181451</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45553.51041666666</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>1079.099975585938</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>1081</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>1071.75</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>1072.25</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>1072.25</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>172201</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45553.55208333334</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>1071.199951171875</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>1074.099975585938</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>1064.199951171875</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>1066.400024414062</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>1066.400024414062</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>307622</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45553.59375</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>1066.550048828125</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>1065.400024414062</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>170661</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45553.63541666666</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>1066.800048828125</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>1062.650024414062</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>117572</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1380"/>
+  <dimension ref="A1:R1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77021,7 +77021,9 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
@@ -77075,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77129,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77183,7 +77189,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77237,7 +77245,9 @@
       <c r="Q1371" t="n">
         <v>2</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77291,7 +77301,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77345,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77399,7 +77413,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77453,7 +77469,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77507,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77561,7 +77581,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77615,7 +77637,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77669,7 +77693,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77723,7 +77749,387 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45554.38541666666</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>1080.449951171875</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>1096.75</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>1078.550048828125</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>1079.400024414062</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>1079.400024414062</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45554.42708333334</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>1078.949951171875</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>1079.900024414062</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>1064.150024414062</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>1064.349975585938</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>1064.349975585938</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>531027</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45554.46875</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>1064.300048828125</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>1052.050048828125</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>1057</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>1057</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>516336</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45554.51041666666</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>1057.300048828125</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>1068.150024414062</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>1053.75</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>1059.949951171875</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>1059.949951171875</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>277540</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45554.55208333334</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>1059.650024414062</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>1063.349975585938</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>1057.849975585938</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>1057.849975585938</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>155523</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45554.59375</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>1057.849975585938</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>1054.5</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>1060.599975585938</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>1060.599975585938</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>254870</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45554.63541666666</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>1060.949951171875</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>1064.5</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>1058.5</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>1062</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>1062</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>130954</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1387"/>
+  <dimension ref="A1:R1394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77797,7 +77797,7 @@
         <v>38</v>
       </c>
       <c r="O1381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1381" t="n">
         <v>0</v>
@@ -77805,7 +77805,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77859,7 +77861,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77905,7 +77909,7 @@
         <v>38</v>
       </c>
       <c r="O1383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1383" t="n">
         <v>0</v>
@@ -77913,7 +77917,9 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77967,7 +77973,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -78021,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78075,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78129,7 +78141,387 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45555.38541666666</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>1069.400024414062</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>1088.800048828125</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>1067.300048828125</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>1083.150024414062</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>1083.150024414062</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45555.42708333334</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>1085.099975585938</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>1077.25</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>293100</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45555.46875</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>1085.800048828125</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>1080.099975585938</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>1084.300048828125</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>1084.300048828125</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>171704</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45555.51041666666</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>1084.400024414062</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>1088</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>1082</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>1087.699951171875</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>1087.699951171875</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>191594</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45555.55208333334</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>1087.300048828125</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>1093.5</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>1083.5</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>1087.25</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>1087.25</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>520042</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45555.59375</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>1087</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>1114.300048828125</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>1085.050048828125</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>1113.800048828125</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>1113.800048828125</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>3875977</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45555.63541666666</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>1114.300048828125</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>1135.099975585938</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>1112.949951171875</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>1128.300048828125</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>1128.300048828125</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>3333058</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1394"/>
+  <dimension ref="A1:R1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78197,7 +78197,9 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
@@ -78251,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78305,7 +78309,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78359,7 +78365,9 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78413,7 +78421,9 @@
       <c r="Q1392" t="n">
         <v>2</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
@@ -78467,7 +78477,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78521,7 +78533,387 @@
       <c r="Q1394" t="n">
         <v>1</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45558.38541666666</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>1129</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>1129.949951171875</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>1122.550048828125</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>1122.550048828125</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45558.42708333334</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>1122.650024414062</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>1125.75</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>1116.300048828125</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>1119.349975585938</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>1119.349975585938</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>387332</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45558.46875</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>1118.900024414062</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>1119.650024414062</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>1107</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>1116</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>1116</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>438934</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45558.51041666666</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>1116.5</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>1119.050048828125</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>1115.5</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>1115.5</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>157642</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45558.55208333334</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>1119.800048828125</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>1113.300048828125</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>1114.599975585938</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>1114.599975585938</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>185985</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45558.59375</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>1114.550048828125</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>1114.599975585938</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>1106.550048828125</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>1106.550048828125</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>1106.550048828125</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>246760</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45558.63541666666</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>1106.150024414062</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>1110.650024414062</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>1102</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>1109</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>1109</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>233573</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1401"/>
+  <dimension ref="A1:R1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78525,7 +78525,7 @@
         <v>38</v>
       </c>
       <c r="O1394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1394" t="n">
         <v>1</v>
@@ -78589,7 +78589,9 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" s="2" t="n">
@@ -78643,7 +78645,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78697,7 +78701,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78751,7 +78757,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78805,7 +78813,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78859,7 +78869,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78913,7 +78925,387 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45559.38541666666</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>1109.800048828125</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>1113.300048828125</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>1103</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>1103.050048828125</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>1103.050048828125</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>336732</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45559.42708333334</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>1103.400024414062</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>1104.849975585938</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>1096.800048828125</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>1103.199951171875</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>1103.199951171875</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>254694</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45559.46875</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>1102.550048828125</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>1106.650024414062</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>1101.199951171875</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>1103.650024414062</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>1103.650024414062</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>118983</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45559.51041666666</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>1103.599975585938</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>1105.800048828125</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>1102.150024414062</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>1102.699951171875</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>1102.699951171875</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>90813</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45559.55208333334</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>1103.050048828125</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>1104.599975585938</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>1099.099975585938</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>1102.099975585938</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>1102.099975585938</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>119069</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45559.59375</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>1102.849975585938</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>1104.75</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>1098.099975585938</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>1098.099975585938</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>176749</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45559.63541666666</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>1101.599975585938</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>1096</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>1099.900024414062</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>1099.900024414062</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>107426</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1408"/>
+  <dimension ref="A1:R1415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78981,7 +78981,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -79035,7 +79037,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -79089,7 +79093,9 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79143,7 +79149,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79197,7 +79205,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79251,7 +79261,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79305,7 +79317,387 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45560.38541666666</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>1102.400024414062</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>1090.5</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>1090.949951171875</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>1090.949951171875</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45560.42708333334</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>1091</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>1094.150024414062</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>1087.900024414062</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>1089.5</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>1089.5</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>179774</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45560.46875</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>1088.699951171875</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>1085.050048828125</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>1086.300048828125</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>1086.300048828125</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>176765</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45560.51041666666</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>1086.150024414062</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>1090.949951171875</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>1085.099975585938</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>1087.650024414062</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>1087.650024414062</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>102824</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45560.55208333334</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>1087.599975585938</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>1089.949951171875</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>1087.150024414062</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>1089.949951171875</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>1089.949951171875</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>72868</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45560.59375</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>1089.949951171875</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>1091.849975585938</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>1088</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>1088</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>164560</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45560.63541666666</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>1087.900024414062</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>1090.900024414062</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>1090.849975585938</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>1090.849975585938</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>103040</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1415"/>
+  <dimension ref="A1:R1422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79373,7 +79373,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2" t="n">
@@ -79427,7 +79429,9 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2" t="n">
@@ -79481,7 +79485,9 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" s="2" t="n">
@@ -79535,7 +79541,9 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" s="2" t="n">
@@ -79589,7 +79597,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79643,7 +79653,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79697,7 +79709,387 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45561.38541666666</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>1092.199951171875</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>1097.25</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>1084</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>1093.949951171875</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>1093.949951171875</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45561.42708333334</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>1090</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>1095.550048828125</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>1095.550048828125</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>151155</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45561.46875</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>1096</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>1104.5</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>1095</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>1099.550048828125</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>1099.550048828125</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>225568</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45561.51041666666</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>1100.900024414062</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>1095.5</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>1095.849975585938</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>1095.849975585938</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>110169</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45561.55208333334</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>1096</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>1096.849975585938</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>1091.449951171875</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>1094</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>105918</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45561.59375</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>1093.650024414062</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>1094.099975585938</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>1094.099975585938</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>287262</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45561.63541666666</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>1097.449951171875</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>1093</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>1096.949951171875</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>1096.949951171875</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>103059</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1422"/>
+  <dimension ref="A1:R1429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79757,7 +79757,7 @@
         <v>39</v>
       </c>
       <c r="O1416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1416" t="n">
         <v>0</v>
@@ -79765,7 +79765,9 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" s="2" t="n">
@@ -79819,7 +79821,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79873,7 +79877,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79927,7 +79933,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79981,7 +79989,9 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" s="2" t="n">
@@ -80035,7 +80045,9 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2" t="n">
@@ -80089,7 +80101,387 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45562.38541666666</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>1101.349975585938</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>1133.699951171875</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>1100.550048828125</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>1596233</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45562.42708333334</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>1123</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>1124.449951171875</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>1116.849975585938</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>1119.849975585938</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>1119.849975585938</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>388669</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45562.46875</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>1119.800048828125</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>1121.449951171875</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>1114.550048828125</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>1116.349975585938</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>1116.349975585938</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>271646</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45562.51041666666</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>1115.5</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>1114.650024414062</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>308321</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45562.55208333334</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>1115.75</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>1119.5</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>1114.5</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>1115.449951171875</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>1115.449951171875</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>158692</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45562.59375</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>1115.949951171875</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>1124.599975585938</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>1121.900024414062</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>1121.900024414062</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>502285</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45562.63541666666</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>1122.400024414062</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>1122.400024414062</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>1116.349975585938</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>1117.050048828125</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>1117.050048828125</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>277491</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1429"/>
+  <dimension ref="A1:R1436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80149,7 +80149,7 @@
         <v>39</v>
       </c>
       <c r="O1423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1423" t="n">
         <v>0</v>
@@ -80157,7 +80157,9 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="2" t="n">
@@ -80211,7 +80213,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80265,7 +80269,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80319,7 +80325,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80373,7 +80381,9 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" s="2" t="n">
@@ -80427,7 +80437,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80481,7 +80493,387 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45565.38541666666</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>1100.599975585938</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>1106.900024414062</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>1106.900024414062</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45565.42708333334</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>1106.900024414062</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>1108.599975585938</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>1102.099975585938</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>1106.599975585938</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>1106.599975585938</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>146257</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45565.46875</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>1106.599975585938</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>1107</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>1101.050048828125</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>1103</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>1103</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>109249</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45565.51041666666</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>1103.050048828125</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>1110.900024414062</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>1102</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>1110.550048828125</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>1110.550048828125</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>120172</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45565.55208333334</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>1110.099975585938</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>1114.449951171875</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>1108.599975585938</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>1108.599975585938</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>153830</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45565.59375</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>1108.150024414062</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>1111.949951171875</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>1101.300048828125</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>1102.550048828125</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>1102.550048828125</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>243683</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45565.63541666666</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>1103.349975585938</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>1101.099975585938</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>1104.5</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>1104.5</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>113912</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1436"/>
+  <dimension ref="A1:R1443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80549,7 +80549,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80603,7 +80605,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80657,7 +80661,9 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
@@ -80711,7 +80717,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80765,7 +80773,9 @@
       <c r="Q1434" t="n">
         <v>2</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1435">
       <c r="A1435" s="2" t="n">
@@ -80819,7 +80829,9 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
@@ -80873,7 +80885,387 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45566.38541666666</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>1105.050048828125</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>1112</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>1103.800048828125</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>1104.25</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>1104.25</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>227402</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45566.42708333334</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>1104.300048828125</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>1094.050048828125</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>1095.400024414062</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>1095.400024414062</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>205465</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45566.46875</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>1095.400024414062</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>1098.650024414062</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>1094.050048828125</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>1096.400024414062</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>1096.400024414062</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>101136</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45566.51041666666</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>1096.400024414062</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>1098.599975585938</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>1092.599975585938</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>1092.699951171875</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>1092.699951171875</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>104609</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45566.55208333334</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>1093</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>1092</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>1095.300048828125</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>1095.300048828125</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>142497</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45566.59375</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>1095</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>1095.5</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>1091.800048828125</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>1093.900024414062</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>1093.900024414062</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>121825</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45566.63541666666</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>1094.199951171875</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>1095.949951171875</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>1092.199951171875</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>1094.5</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>1094.5</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>88174</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -80941,7 +80941,9 @@
       <c r="Q1437" t="n">
         <v>0</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1438">
       <c r="A1438" s="2" t="n">
@@ -80995,7 +80997,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -81049,7 +81053,9 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
@@ -81103,7 +81109,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -81157,7 +81165,9 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
@@ -81211,7 +81221,9 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
@@ -81265,7 +81277,9 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1443"/>
+  <dimension ref="A1:R1450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81281,6 +81281,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45568.38541666666</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>1077.949951171875</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>1087.150024414062</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>1077.699951171875</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>1079.75</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>1079.75</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45568.42708333334</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>1079.699951171875</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>1082.5</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>1078</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>1078.599975585938</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>1078.599975585938</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>164622</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45568.46875</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>1078.599975585938</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>1078.800048828125</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>1069.099975585938</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>1070.599975585938</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>1070.599975585938</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>217380</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45568.51041666666</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>1071.599975585938</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>1067.599975585938</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>1068.849975585938</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>1068.849975585938</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>122107</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45568.55208333334</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>1068.699951171875</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>1069.550048828125</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>1061.199951171875</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>1063.599975585938</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>1063.599975585938</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>223103</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45568.59375</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>1063.800048828125</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>1061.75</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>1064.650024414062</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>1064.650024414062</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>198469</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45568.63541666666</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>1064.75</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>1061.099975585938</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>1064</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>113612</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1450"/>
+  <dimension ref="A1:R1457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81333,7 +81333,9 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2" t="n">
@@ -81387,7 +81389,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81441,7 +81445,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81495,7 +81501,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81549,7 +81557,9 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="2" t="n">
@@ -81603,7 +81613,9 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
@@ -81657,7 +81669,387 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45569.38541666666</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>1072.949951171875</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>1047.349975585938</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>1064.449951171875</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>1064.449951171875</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45569.42708333334</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>1064.650024414062</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>1071.599975585938</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>1071.599975585938</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>277060</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45569.46875</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>1072.199951171875</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>1070.150024414062</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>1076.949951171875</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>1076.949951171875</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>170745</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45569.51041666666</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>1076.900024414062</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>1081.849975585938</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>1066.449951171875</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>1069.800048828125</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>1069.800048828125</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>259819</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45569.55208333334</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>1069.199951171875</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>1072.449951171875</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>1063.150024414062</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>220386</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45569.59375</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>1063.949951171875</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>1064.849975585938</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>1054.050048828125</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>1056.599975585938</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>1056.599975585938</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>265311</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45569.63541666666</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>1056.650024414062</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>1060.900024414062</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>1059.75</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>1059.75</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>98144</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1457"/>
+  <dimension ref="A1:R1464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81725,7 +81725,9 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2" t="n">
@@ -81779,7 +81781,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81833,7 +81837,9 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="2" t="n">
@@ -81887,7 +81893,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81941,7 +81949,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81995,7 +82005,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -82049,7 +82061,387 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45572.38541666666</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>1070.599975585938</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>1047.599975585938</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>1047.599975585938</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45572.42708333334</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>1047.150024414062</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>1047.5</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>1016.849975585938</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>1028.199951171875</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>1028.199951171875</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>620277</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45572.46875</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>1028.5</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>1038.5</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>1027.25</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>1034.550048828125</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>1034.550048828125</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>274748</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45572.51041666666</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>1034.650024414062</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>1038.300048828125</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>1028.800048828125</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>1029.400024414062</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>1029.400024414062</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>154307</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45572.55208333334</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>1029.75</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>1031.949951171875</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>1028.949951171875</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>1028.949951171875</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>217336</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45572.59375</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>1032.5</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>1022.950012207031</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>255621</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45572.63541666666</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>1024.650024414062</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>1028</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>1023.349975585938</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>1027</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>152187</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1464"/>
+  <dimension ref="A1:R1478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82117,7 +82117,9 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" s="2" t="n">
@@ -82163,7 +82165,7 @@
         <v>41</v>
       </c>
       <c r="O1459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1459" t="n">
         <v>0</v>
@@ -82171,7 +82173,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82225,7 +82229,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82279,7 +82285,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82333,7 +82341,9 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" s="2" t="n">
@@ -82387,7 +82397,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82441,7 +82453,765 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45573.38541666666</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>1027.650024414062</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>1037.900024414062</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>1021.700012207031</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>1030</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45573.42708333334</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>1043</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>1028.150024414062</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>1040.400024414062</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>1040.400024414062</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>173804</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45573.46875</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>1043.349975585938</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>1034.349975585938</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>1037.449951171875</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>1037.449951171875</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>96931</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45573.51041666666</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>1042</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>1033.900024414062</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>74418</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45573.55208333334</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>1039.5</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>1043.75</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>1038.050048828125</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>74498</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45573.59375</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>1042.099975585938</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>1043.75</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>1038.849975585938</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>1042.849975585938</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>1042.849975585938</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>91684</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45573.63541666666</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>1043.25</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>1048.550048828125</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>1041.300048828125</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>1042</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>91104</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45574.38541666666</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>1062.949951171875</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>1063.75</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>1050.400024414062</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>1056.849975585938</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>1056.849975585938</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45574.42708333334</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>1056.849975585938</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>1061.699951171875</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>1053.5</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>1059.800048828125</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>1059.800048828125</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>172790</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45574.46875</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>1059.949951171875</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>1051.5</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>115136</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45574.51041666666</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>1054.75</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>1057.949951171875</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>1052.650024414062</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>1053.699951171875</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>1053.699951171875</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>68117</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45574.55208333334</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>1053.699951171875</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>1055.949951171875</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>1050.099975585938</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>1055</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>1055</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>76061</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45574.59375</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>1054.5</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>1055.449951171875</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>1045.699951171875</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>1045.949951171875</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>1045.949951171875</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>166435</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45574.63541666666</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>1046.199951171875</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>1044.199951171875</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>1052</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>94412</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1478"/>
+  <dimension ref="A1:R1485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82509,7 +82509,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82563,7 +82565,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82617,7 +82621,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82671,7 +82677,9 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82725,7 +82733,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82779,7 +82789,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82833,7 +82845,9 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
@@ -82887,7 +82901,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82941,7 +82957,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -82995,7 +83013,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -83049,7 +83069,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83103,7 +83125,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83157,7 +83181,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83211,7 +83237,387 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45575.38541666666</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>1089</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>1051.150024414062</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>1079.650024414062</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>1079.650024414062</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>464053</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45575.42708333334</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>1079.199951171875</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>1079.900024414062</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>1064.699951171875</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>1064.699951171875</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>322502</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45575.46875</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>1064.849975585938</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>1058.900024414062</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>1066.75</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>1066.75</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>255416</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45575.51041666666</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>1066.75</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>1071.699951171875</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>1064</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>146592</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45575.55208333334</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>1068.5</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>1063.349975585938</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>1064.099975585938</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>1064.099975585938</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>100580</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45575.59375</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>1067</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>1062.300048828125</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>1064.949951171875</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>1064.949951171875</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>159377</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45575.63541666666</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>1066.949951171875</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>183447</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1485"/>
+  <dimension ref="A1:R1492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83285,7 +83285,7 @@
         <v>41</v>
       </c>
       <c r="O1479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1479" t="n">
         <v>0</v>
@@ -83293,7 +83293,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83347,7 +83349,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83401,7 +83405,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83455,7 +83461,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83509,7 +83517,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83563,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83617,7 +83629,387 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45576.38541666666</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>1068.5</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>1056.050048828125</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>1063</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45576.42708333334</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>1061.75</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>1062.5</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>1054.400024414062</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>1056.5</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>1056.5</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>117542</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45576.46875</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>1056.5</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>1059.800048828125</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>76754</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45576.51041666666</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>1057.349975585938</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>1059.5</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>1051.699951171875</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>1052.949951171875</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>1052.949951171875</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>110656</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45576.55208333334</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>1052.949951171875</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>1055.75</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>1052.800048828125</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>73886</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45576.59375</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>1056.949951171875</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>1055.400024414062</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>1055.400024414062</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>91144</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45576.63541666666</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>1055.400024414062</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>1055.5</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>1053.400024414062</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>79760</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1492"/>
+  <dimension ref="A1:R1499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83739,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83793,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83847,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83901,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83955,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84009,7 +84021,387 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45579.38541666666</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>1057.5</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>1051</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45579.42708333334</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>1051.75</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>1049.5</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>1049.5</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>1049.5</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>75761</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45579.46875</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>1049.800048828125</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>1050.900024414062</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>1048.449951171875</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>1049.599975585938</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>1049.599975585938</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>65345</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45579.51041666666</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>1049.599975585938</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>1059.400024414062</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>1048.75</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>1058.949951171875</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>1058.949951171875</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>122604</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45579.55208333334</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>1058.099975585938</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>1060.599975585938</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>1054.099975585938</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>1055</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>1055</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>119286</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45579.59375</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>1055.949951171875</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>1056.300048828125</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>1050.75</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>1050.75</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>103144</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45579.63541666666</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>1050.099975585938</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>1050.599975585938</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>1050.599975585938</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>63248</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1499"/>
+  <dimension ref="A1:R1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84077,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84131,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84177,7 +84181,7 @@
         <v>42</v>
       </c>
       <c r="O1495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1495" t="n">
         <v>0</v>
@@ -84185,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84239,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84293,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84347,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84401,7 +84413,387 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45580.38541666666</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>1062.5</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>1053.300048828125</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>1058.949951171875</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>1058.949951171875</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45580.42708333334</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>1058.849975585938</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>1063.849975585938</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>1060</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>118230</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45580.46875</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>1060.400024414062</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>1056.550048828125</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>1058.449951171875</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>1058.449951171875</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>67784</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45580.51041666666</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>1058.449951171875</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>1056.25</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>1058.849975585938</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>1058.849975585938</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>72754</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45580.55208333334</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>1058.650024414062</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>1059.949951171875</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>1056.900024414062</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>1058.400024414062</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>1058.400024414062</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>56265</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45580.59375</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>1058.349975585938</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>1058.900024414062</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>1054.949951171875</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>1056.849975585938</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>1056.849975585938</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>93148</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45580.63541666666</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>1056.800048828125</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>1058.300048828125</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>1055.550048828125</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>1057.75</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>1057.75</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>49002</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1506"/>
+  <dimension ref="A1:R1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84469,7 +84469,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84523,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84577,7 +84581,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84631,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84685,7 +84693,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84739,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84793,7 +84805,387 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45581.38541666666</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>1048.75</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>1047.099975585938</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>1052</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45581.42708333334</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>1058.900024414062</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>1050.300048828125</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>1057</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>1057</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>108835</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45581.46875</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>1057.849975585938</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>1063.199951171875</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>1051.5</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>1060.400024414062</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>1060.400024414062</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>139325</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45581.51041666666</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>1064.400024414062</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>1056.099975585938</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>1061</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>74000</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45581.55208333334</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>1060.849975585938</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>1071.599975585938</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>1059.400024414062</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>1070.050048828125</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>1070.050048828125</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>248971</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45581.59375</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>1070.050048828125</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>1067.699951171875</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>1076.949951171875</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>1076.949951171875</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>469545</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45581.63541666666</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>1076.849975585938</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>1079.849975585938</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>1076</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>1077</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>1077</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>176265</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1513"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84853,7 +84853,7 @@
         <v>42</v>
       </c>
       <c r="O1507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1507" t="n">
         <v>0</v>
@@ -84861,7 +84861,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84915,7 +84917,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84969,7 +84973,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -85023,7 +85029,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -85077,7 +85085,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85131,7 +85141,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85185,7 +85197,765 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45582.38541666666</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>1076.5</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>1062</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>1064.199951171875</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>1064.199951171875</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45582.42708333334</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>1064.150024414062</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>1087.800048828125</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>1062.300048828125</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>1074.849975585938</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>1074.849975585938</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>341607</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45582.46875</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>1074.300048828125</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>1077</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>1067.900024414062</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>1068.099975585938</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>1068.099975585938</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>193973</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45582.51041666666</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>1068.050048828125</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>1073.5</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>1067.449951171875</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>69917</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45582.55208333334</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>1070.300048828125</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>1070.300048828125</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>1064.300048828125</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>1064.300048828125</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>89926</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45582.59375</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>1064.300048828125</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>1065.5</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>1058.050048828125</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>1060</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>148579</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45582.63541666666</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>1058.099975585938</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>1061</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>67747</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45583.38541666666</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>1053.900024414062</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>1057.699951171875</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>1045.099975585938</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>1052.099975585938</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>1052.099975585938</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45583.42708333334</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>1051.599975585938</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>1059.75</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>1051.150024414062</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>1056.25</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>1056.25</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>138196</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45583.46875</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>1056.5</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>1062.199951171875</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>1053.699951171875</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>1058.150024414062</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>1058.150024414062</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>64085</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45583.51041666666</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>1058.300048828125</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>1056.099975585938</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>1058.099975585938</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>1058.099975585938</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>75354</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45583.55208333334</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>1057.650024414062</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>1067.449951171875</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>1057.150024414062</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>1064</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>96116</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45583.59375</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>1063.949951171875</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>1064.900024414062</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>1059.099975585938</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>1060.800048828125</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>1060.800048828125</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>85597</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45583.63541666666</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>1060.849975585938</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>1061.550048828125</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>1058.949951171875</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>1058.949951171875</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>1058.949951171875</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>56177</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1527"/>
+  <dimension ref="A1:R1548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85253,7 +85253,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85307,7 +85309,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85361,7 +85365,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85415,7 +85421,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85469,7 +85477,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85523,7 +85533,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85577,7 +85589,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85623,7 +85637,7 @@
         <v>42</v>
       </c>
       <c r="O1521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1521" t="n">
         <v>0</v>
@@ -85631,7 +85645,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85685,7 +85701,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85739,7 +85757,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85793,7 +85813,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85847,7 +85869,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
@@ -85901,7 +85925,9 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85955,7 +85981,1143 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45586.38541666666</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>1059.25</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>1072.599975585938</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>1071.349975585938</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>1071.349975585938</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45586.42708333334</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>1073.099975585938</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>1074.949951171875</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>1064.5</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>1066.650024414062</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>1066.650024414062</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>205535</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45586.46875</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>1066.699951171875</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>1066.849975585938</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>1058.25</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>1058.349975585938</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>1058.349975585938</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>74440</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45586.51041666666</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>1058.349975585938</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>1062.449951171875</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>1055.5</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>1058.25</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>1058.25</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>64727</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45586.55208333334</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>1058.5</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>1063.550048828125</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>1057.300048828125</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>1058.099975585938</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>1058.099975585938</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>69409</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45586.59375</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>1058.650024414062</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>1059.650024414062</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>1052.199951171875</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>1052.900024414062</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>1052.900024414062</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>107272</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45586.63541666666</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>1052.199951171875</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>1053.25</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>1052.050048828125</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>1052.050048828125</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>96467</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45587.38541666666</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>1054.949951171875</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>1046.400024414062</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>1047.400024414062</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>1047.400024414062</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>199393</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45587.42708333334</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>1047.5</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>1047.550048828125</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>1034.699951171875</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>1045.699951171875</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>1045.699951171875</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>229095</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45587.46875</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>1045.400024414062</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>1047.75</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>1036.849975585938</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>1039.099975585938</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>1039.099975585938</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>151135</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45587.51041666666</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>1038.150024414062</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>1041.449951171875</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>1027.699951171875</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>1029</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>1029</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>164592</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45587.55208333334</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>1034</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>1023.400024414062</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>1030.5</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>1030.5</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>138419</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45587.59375</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>1030.849975585938</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>1032.150024414062</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>1021.150024414062</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>170677</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45587.63541666666</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>1021.400024414062</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>1023.950012207031</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>1020.25</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>1023.950012207031</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>1023.950012207031</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>70825</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45588.38541666666</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>1023.650024414062</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>1033.800048828125</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>1014.299987792969</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>1033.800048828125</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>1033.800048828125</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45588.42708333334</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>1037.900024414062</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>1024.400024414062</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>1033.650024414062</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>1033.650024414062</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>148856</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45588.46875</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>1047.849975585938</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>1031.400024414062</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>1043.849975585938</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>1043.849975585938</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>208534</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45588.51041666666</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>1044.349975585938</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>1052.75</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>1040.800048828125</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>1050.400024414062</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>1050.400024414062</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>197377</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45588.55208333334</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>1050.050048828125</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>1056.900024414062</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>1049.699951171875</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>1054.099975585938</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>1054.099975585938</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>169351</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45588.59375</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>1054.050048828125</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>1055.150024414062</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>1039.099975585938</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>1040.849975585938</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>1040.849975585938</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>167980</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45588.63541666666</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>1040.75</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>1040.949951171875</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>1036.599975585938</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>1039.699951171875</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>1039.699951171875</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>57344</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1548"/>
+  <dimension ref="A1:R1555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86037,7 +86037,9 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
@@ -86091,7 +86093,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86145,7 +86149,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86199,7 +86205,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86253,7 +86261,9 @@
       <c r="Q1532" t="n">
         <v>1</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -86307,7 +86317,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86361,7 +86373,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86415,7 +86429,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86469,7 +86485,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86523,7 +86541,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86577,7 +86597,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
@@ -86631,7 +86653,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86685,7 +86709,9 @@
       <c r="Q1540" t="n">
         <v>2</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86739,7 +86765,9 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
@@ -86785,7 +86813,7 @@
         <v>43</v>
       </c>
       <c r="O1542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1542" t="n">
         <v>0</v>
@@ -86793,7 +86821,9 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
@@ -86847,7 +86877,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86901,7 +86933,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86955,7 +86989,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87009,7 +87045,9 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -87063,7 +87101,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
@@ -87117,7 +87157,387 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45589.38541666666</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>1041.449951171875</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>1033.75</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>1041.300048828125</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>1041.300048828125</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>252698</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45589.42708333334</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>1040.900024414062</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>1043.449951171875</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>1038.050048828125</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>1038.349975585938</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>1038.349975585938</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>65306</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45589.46875</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>1043.25</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>1036.650024414062</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>1039.25</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>1039.25</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>42580</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45589.51041666666</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>1039.300048828125</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>1043.449951171875</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>1033.900024414062</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>1035.300048828125</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>1035.300048828125</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>68697</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45589.55208333334</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>1035.449951171875</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>1036.25</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>1020.349975585938</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>242094</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45589.59375</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>1023.849975585938</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>1027.400024414062</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>1018.150024414062</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>1025.949951171875</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>1025.949951171875</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>271997</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45589.63541666666</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>1025.75</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>1022.650024414062</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>74143</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1555"/>
+  <dimension ref="A1:R1569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87037,7 +87037,7 @@
         <v>43</v>
       </c>
       <c r="O1546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1546" t="n">
         <v>0</v>
@@ -87213,7 +87213,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -87267,7 +87269,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87321,7 +87325,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87375,7 +87381,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87429,7 +87437,9 @@
       <c r="Q1553" t="n">
         <v>1</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87483,7 +87493,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87537,7 +87549,765 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45590.38541666666</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>1031.949951171875</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45590.42708333334</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>1018.549987792969</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>1000.650024414062</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>296065</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45590.46875</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>1018.650024414062</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>155826</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45590.51041666666</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>1016.849975585938</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>1014.25</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>1014.25</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>72716</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45590.55208333334</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>1014.349975585938</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>1015.75</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>1006</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>111168</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45590.59375</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>1005.950012207031</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>1011.450012207031</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>1011.450012207031</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>194584</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45590.63541666666</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>1011.849975585938</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>1011.849975585938</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>64749</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45593.38541666666</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>1022.099975585938</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>1009.099975585938</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>1016.950012207031</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>1016.950012207031</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45593.42708333334</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>1017.150024414062</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>1016.799987792969</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>130106</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45593.46875</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>1027.75</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>1022.299987792969</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>1025.349975585938</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>1025.349975585938</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>54487</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45593.51041666666</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>1025.599975585938</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>1028.349975585938</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>1027</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>111676</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45593.55208333334</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>1027.400024414062</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>1030.25</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>1012.599975585938</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>1013.099975585938</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>1013.099975585938</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>134569</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45593.59375</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>1013.5</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>1013.599975585938</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>994.5999755859375</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>1001.75</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>1001.75</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>520443</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45593.63541666666</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>1001.700012207031</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>998.3499755859375</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>1001.799987792969</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>1001.799987792969</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>136651</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1569"/>
+  <dimension ref="A1:R1583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87605,7 +87605,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87659,7 +87661,9 @@
       <c r="Q1557" t="n">
         <v>2</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87713,7 +87717,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87767,7 +87773,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87821,7 +87829,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87875,7 +87885,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87929,7 +87941,9 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1563">
       <c r="A1563" s="2" t="n">
@@ -87983,7 +87997,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -88037,7 +88053,9 @@
       <c r="Q1564" t="n">
         <v>0</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -88091,7 +88109,9 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
@@ -88145,7 +88165,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88191,7 +88213,7 @@
         <v>44</v>
       </c>
       <c r="O1567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1567" t="n">
         <v>0</v>
@@ -88199,7 +88221,9 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1568">
       <c r="A1568" s="2" t="n">
@@ -88253,7 +88277,9 @@
       <c r="Q1568" t="n">
         <v>1</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88307,7 +88333,765 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45594.38541666666</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>1004.450012207031</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>1016.400024414062</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>995.9500122070312</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>998.0999755859375</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>998.0999755859375</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45594.42708333334</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>998.0999755859375</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>992.0999755859375</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>226041</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45594.46875</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>986.9500122070312</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>250096</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45594.51041666666</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>993.4500122070312</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>990.0999755859375</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>150135</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45594.55208333334</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>990.2999877929688</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>987.4500122070312</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>996.5999755859375</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>996.5999755859375</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>191409</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45594.59375</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>997</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>1001.450012207031</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>996</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>999.8499755859375</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>999.8499755859375</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>204600</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45594.63541666666</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>999.8499755859375</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>1001.5</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>121039</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45595.38541666666</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>1003.900024414062</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>1012.849975585938</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>1000.349975585938</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45595.42708333334</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>1012.349975585938</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>1006.349975585938</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>1010.599975585938</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>1010.599975585938</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>97910</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45595.46875</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>1011.650024414062</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>62426</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45595.51041666666</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>1010.200012207031</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>1010.200012207031</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>70599</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45595.55208333334</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>1010.200012207031</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>1010.200012207031</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>1002.700012207031</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>1002.700012207031</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>97309</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45595.59375</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>1002.75</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>1007.299987792969</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>1001.349975585938</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>1006.700012207031</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>1006.700012207031</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>112518</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45595.63541666666</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>1006.799987792969</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>1004.349975585938</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>49124</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1583"/>
+  <dimension ref="A1:R1590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88389,7 +88389,9 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" s="2" t="n">
@@ -88443,7 +88445,9 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
@@ -88497,7 +88501,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88551,7 +88557,9 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
@@ -88605,7 +88613,9 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1575">
       <c r="A1575" s="2" t="n">
@@ -88659,7 +88669,9 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
@@ -88713,7 +88725,9 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
@@ -88767,7 +88781,9 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
@@ -88821,7 +88837,9 @@
       <c r="Q1578" t="n">
         <v>2</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
@@ -88875,7 +88893,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88929,7 +88949,9 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
@@ -88983,7 +89005,9 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
@@ -89037,7 +89061,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
@@ -89091,7 +89117,387 @@
       <c r="Q1583" t="n">
         <v>1</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45596.38541666666</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>1006.599975585938</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>1012.900024414062</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>1000.349975585938</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>1007.349975585938</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>1007.349975585938</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45596.42708333334</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>1006.849975585938</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>1008.299987792969</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>1008.25</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>1008.25</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>71156</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45596.46875</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>1008.25</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>1004.099975585938</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>1005.900024414062</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>1005.900024414062</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>46301</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45596.51041666666</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>1005.200012207031</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>1006.650024414062</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>1005</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>35099</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45596.55208333334</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>1007.049987792969</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>1007.049987792969</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>55390</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45596.59375</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>1007.099975585938</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>1008.400024414062</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>1004.849975585938</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>1006.700012207031</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>1006.700012207031</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>69586</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45596.63541666666</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>1006.75</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>1005.099975585938</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>1007</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>1007</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>37588</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1590"/>
+  <dimension ref="A1:R1604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89173,7 +89173,9 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
@@ -89227,7 +89229,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89281,7 +89285,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89335,7 +89341,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89389,7 +89397,9 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -89443,7 +89453,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89497,7 +89509,765 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45600.38541666666</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>1027.900024414062</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>1027.900024414062</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>1008.700012207031</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>1008.700012207031</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45600.42708333334</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>1008.849975585938</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>1012.799987792969</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>1002.900024414062</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>1005</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>154420</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45600.46875</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>1009.75</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>1004.049987792969</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>59974</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45600.51041666666</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>1009.25</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>1006.349975585938</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>1007.599975585938</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>1007.599975585938</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>37353</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45600.55208333334</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>1007.150024414062</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>1006.549987792969</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>1009.400024414062</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>1009.400024414062</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>42459</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45600.59375</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>1009.349975585938</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>1009.349975585938</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>66292</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45600.63541666666</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>1011.400024414062</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>1012.049987792969</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>50887</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45601.38541666666</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>1014.799987792969</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>1005.950012207031</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45601.42708333334</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>1012.849975585938</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>1006.25</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>84413</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45601.46875</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>1004.099975585938</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>1006.950012207031</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>1006.950012207031</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>59694</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45601.51041666666</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>1006.200012207031</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>1009.450012207031</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>1005.549987792969</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>40345</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45601.55208333334</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>1007.599975585938</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>1012.400024414062</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>1006.400024414062</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>1011.700012207031</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>1011.700012207031</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>64185</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45601.59375</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>1011.700012207031</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>1014.400024414062</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>1011.400024414062</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>1011.400024414062</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>109133</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45601.63541666666</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>1011.049987792969</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>1013.200012207031</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>1010.549987792969</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>31799</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1604"/>
+  <dimension ref="A1:R1618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89565,7 +89565,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
@@ -89619,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89673,7 +89677,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89727,7 +89733,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89781,7 +89789,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89835,7 +89845,9 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -89889,7 +89901,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89943,7 +89957,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -89997,7 +90013,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -90051,7 +90069,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -90105,7 +90125,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90159,7 +90181,9 @@
       <c r="Q1602" t="n">
         <v>2</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90213,7 +90237,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90267,7 +90293,765 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45602.38541666666</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>1019.950012207031</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>1014.25</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>1026.099975585938</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>1026.099975585938</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45602.42708333334</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>1026.949951171875</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>1020.650024414062</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>1025.800048828125</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>1025.800048828125</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>70182</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45602.46875</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>1025.199951171875</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>1027.199951171875</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>1023.200012207031</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>1025.75</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>1025.75</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>50911</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45602.51041666666</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>1026.099975585938</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>1027.900024414062</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>1026.900024414062</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>1026.900024414062</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>47990</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45602.55208333334</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>1026.349975585938</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>1028.349975585938</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>1024.099975585938</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>90288</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45602.59375</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>1026.050048828125</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>1035.949951171875</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>1032</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>230893</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45602.63541666666</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>1037.650024414062</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>1031.099975585938</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>1035</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>1035</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>81911</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45603.38541666666</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>1034.449951171875</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>1034.449951171875</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>1022.900024414062</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>1022.900024414062</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45603.42708333334</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>1022.950012207031</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>1024.599975585938</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>1018.900024414062</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>1021.700012207031</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>1021.700012207031</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>91089</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45603.46875</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>1021.049987792969</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>1024.699951171875</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>1020.099975585938</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>1021.150024414062</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>1021.150024414062</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>38631</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45603.51041666666</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>1020.299987792969</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>1023.400024414062</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>1020.200012207031</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>32049</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45603.55208333334</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>1020.599975585938</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>1022.799987792969</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>1020.099975585938</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>1021.349975585938</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>1021.349975585938</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>27461</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45603.59375</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>1021.349975585938</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>1022.299987792969</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>1019.25</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>1020.549987792969</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>1020.549987792969</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>59545</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45603.63541666666</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>1021.349975585938</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>1013.150024414062</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>77729</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1618"/>
+  <dimension ref="A1:R1632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90349,7 +90349,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90403,7 +90405,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90457,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90511,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90565,7 +90573,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90619,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90665,7 +90677,7 @@
         <v>45</v>
       </c>
       <c r="O1611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1611" t="n">
         <v>0</v>
@@ -90673,7 +90685,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90727,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90781,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90835,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90889,7 +90909,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90943,7 +90965,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -90997,7 +91021,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91051,7 +91077,765 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45604.38541666666</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>1018.25</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>1019.099975585938</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>1008.799987792969</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>1012.5</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>1012.5</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45604.42708333334</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>1012.049987792969</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>1013.099975585938</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>1011.299987792969</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>1011.299987792969</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>44594</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45604.46875</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>1011.599975585938</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>1007.700012207031</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>1011.349975585938</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>1011.349975585938</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>70210</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45604.51041666666</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>1011.599975585938</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>1008.900024414062</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>1010.700012207031</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>1010.700012207031</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>32134</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45604.55208333334</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>1010.700012207031</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>1006.700012207031</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>1007.099975585938</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>1007.099975585938</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>42467</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45604.59375</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>1006.75</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>1008.349975585938</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>75575</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45604.63541666666</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>1006.700012207031</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>1003.049987792969</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>1005</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>52325</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45607.38541666666</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>1001.349975585938</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>1003.900024414062</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>997.1500244140625</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>1000.549987792969</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>1000.549987792969</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45607.42708333334</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>1000.25</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>1005.099975585938</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>1003.450012207031</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>1003.450012207031</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>79924</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45607.46875</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>1003.049987792969</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>1004.200012207031</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>999.0999755859375</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>59533</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45607.51041666666</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>1002.349975585938</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>1001.150024414062</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>1001.150024414062</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>34738</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45607.55208333334</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>1001.200012207031</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>1001.450012207031</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>997.1500244140625</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>997.25</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>997.25</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>68732</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45607.59375</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>997.25</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>998</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>995.2000122070312</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>996.5499877929688</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>996.5499877929688</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>112673</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45607.63541666666</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>997.5999755859375</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>51636</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1632"/>
+  <dimension ref="A1:R1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91133,7 +91133,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91187,7 +91189,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91241,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91295,7 +91301,9 @@
       <c r="Q1622" t="n">
         <v>2</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91349,7 +91357,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91403,7 +91413,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91457,7 +91469,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91511,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91565,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91619,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91673,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91727,7 +91749,9 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91781,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91835,7 +91861,765 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45608.38541666666</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>1002.400024414062</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>1002.400024414062</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45608.42708333334</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>1002.400024414062</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>1002.400024414062</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>999.4000244140625</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>1001.299987792969</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>1001.299987792969</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>41855</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45608.46875</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>1001.299987792969</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>30626</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45608.51041666666</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>1000.5</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>1003.200012207031</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>995.0499877929688</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>996.4500122070312</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>996.4500122070312</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>98456</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45608.55208333334</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>996.2999877929688</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>996.4500122070312</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>992.5999755859375</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>994.5999755859375</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>994.5999755859375</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>96907</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45608.59375</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>994.9500122070312</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>997.5999755859375</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>993.5999755859375</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>993.7999877929688</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>993.7999877929688</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>53151</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45608.63541666666</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>993.7999877929688</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>993.9000244140625</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>991.0999755859375</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>993</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>993</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>47348</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45609.38541666666</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>994.9000244140625</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>996.7000122070312</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>970.4500122070312</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>974.6500244140625</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>974.6500244140625</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45609.42708333334</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>974.75</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>975.7000122070312</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>972.4500122070312</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>974.4500122070312</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>974.4500122070312</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>130637</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45609.46875</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>974.9500122070312</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>975.2000122070312</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>962</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>963</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>963</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>222435</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45609.51041666666</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>963.8499755859375</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>968.5</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>963.5</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>967.0999755859375</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>967.0999755859375</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>106409</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45609.55208333334</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>966.5499877929688</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>970</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>965.8499755859375</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>967.2999877929688</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>967.2999877929688</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>108411</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45609.59375</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>967.2999877929688</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>967.5999755859375</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>959.25</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>959.25</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>277354</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45609.63541666666</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>959.2999877929688</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>966.0999755859375</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>958.5</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>964.7999877929688</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>964.7999877929688</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>75464</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1646"/>
+  <dimension ref="A1:R1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91917,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
@@ -91971,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92025,7 +92029,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92079,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92133,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92187,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92241,7 +92253,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92295,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92349,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92403,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92457,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92511,7 +92533,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92565,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92619,7 +92645,387 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45610.38541666666</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>963</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>969.2000122070312</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>963.4000244140625</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>963.4000244140625</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45610.42708333334</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>963.5</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>966.7999877929688</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>960.7000122070312</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>961.0499877929688</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>961.0499877929688</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>93820</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45610.46875</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>962.8499755859375</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>961.7000122070312</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>63607</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45610.51041666666</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>969.75</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>967</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>968.5</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>968.5</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>52467</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45610.55208333334</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>968.5499877929688</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>970.5999755859375</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>965</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>68453</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45610.59375</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>966.2000122070312</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>960.5499877929688</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>961.1500244140625</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>961.1500244140625</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>79248</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45610.63541666666</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>961</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>965</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>960.4000244140625</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>964.8499755859375</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>964.8499755859375</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>38366</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1653"/>
+  <dimension ref="A1:R1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92701,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92755,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92809,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92863,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92917,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92971,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93025,7 +93037,387 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45614.38541666666</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>963.75</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>963.75</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>940.0499877929688</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45614.42708333334</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>944</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>945</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>942.7999877929688</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>942.7999877929688</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>122350</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45614.46875</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>942.75</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>946.25</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>942.0999755859375</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>946</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>946</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>100198</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45614.51041666666</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>947.25</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>949.5999755859375</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>946.75</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>947</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>947</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>116532</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45614.55208333334</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>947.3499755859375</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>947.4000244140625</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>942.1500244140625</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>98145</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45614.59375</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>944.9000244140625</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>940.7000122070312</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>128528</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45614.63541666666</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>941.2999877929688</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>942.25</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>940.2000122070312</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>941</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>941</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>87147</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1660"/>
+  <dimension ref="A1:R1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93085,7 +93085,7 @@
         <v>47</v>
       </c>
       <c r="O1654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1654" t="n">
         <v>0</v>
@@ -93093,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93147,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93201,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93255,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93309,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93363,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93417,7 +93429,387 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45615.38541666666</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>945.4500122070312</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>956.5999755859375</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>943.3499755859375</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>955.5999755859375</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>955.5999755859375</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45615.42708333334</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>956.2000122070312</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>959</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>952.4000244140625</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>956.2000122070312</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>956.2000122070312</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>104511</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45615.46875</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>956.25</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>958.75</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>954</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>954.4000244140625</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>954.4000244140625</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>63239</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45615.51041666666</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>954.8499755859375</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>958.7999877929688</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>954.4000244140625</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>956.7000122070312</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>956.7000122070312</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>79351</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45615.55208333334</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>956.6500244140625</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>958.3499755859375</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>954.1500244140625</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>954.5999755859375</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>954.5999755859375</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>44166</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45615.59375</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>954.5999755859375</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>955</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>948.5499877929688</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>948.5499877929688</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>948.5499877929688</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>77757</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45615.63541666666</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>948.8499755859375</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>948.8499755859375</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>944.7000122070312</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>944.9500122070312</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>944.9500122070312</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>58005</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1667"/>
+  <dimension ref="A1:R1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93485,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93539,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93593,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93647,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93701,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>1</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93755,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93809,7 +93821,387 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45617.38541666666</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>953.4000244140625</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>953.4000244140625</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>934</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>939.0499877929688</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>939.0499877929688</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45617.42708333334</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>939</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>942</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>936</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>941</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>941</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>78372</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45617.46875</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>940.5499877929688</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>943.7999877929688</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>940.2000122070312</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>942.4500122070312</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>942.4500122070312</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>55112</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45617.51041666666</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>942.5</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>938.2000122070312</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>939.4500122070312</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>939.4500122070312</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>54617</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45617.55208333334</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>939.7000122070312</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>941.9500122070312</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>935.5999755859375</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>937</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>937</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>77324</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45617.59375</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>937</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>938</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>932</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>154829</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45617.63541666666</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>933.75</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>931.5</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>933</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>933</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>69755</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1674"/>
+  <dimension ref="A1:R1688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93877,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93931,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93985,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94039,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94093,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94147,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94201,7 +94213,765 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45618.38541666666</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>936.8499755859375</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>941.8499755859375</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>931</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45618.42708333334</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>941.75</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>936.6500244140625</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>938.75</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>938.75</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>79349</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45618.46875</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>939</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>939.8499755859375</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>934.7999877929688</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>939.7000122070312</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>939.7000122070312</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>61700</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45618.51041666666</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>939.5999755859375</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>941.9000244140625</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>937.75</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>941.4500122070312</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>941.4500122070312</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>52326</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45618.55208333334</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>941.0499877929688</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>944</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>940</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>943.4500122070312</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>943.4500122070312</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>47294</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45618.59375</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>943.1500244140625</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>944</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>940.4000244140625</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>941.6500244140625</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>941.6500244140625</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>84733</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45618.63541666666</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>941.4000244140625</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>943</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>938.9000244140625</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>941.75</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>941.75</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>67663</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45621.38541666666</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>954.5499877929688</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>962.9000244140625</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>952.1500244140625</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>952.7999877929688</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>952.7999877929688</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45621.42708333334</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>952.7999877929688</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>956.3499755859375</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>950.4000244140625</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>954</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>954</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>93878</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45621.46875</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>954</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>952.0999755859375</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>954</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>954</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>40987</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45621.51041666666</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>954</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>948.25</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>51723</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45621.55208333334</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>949.75</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>950.25</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>946</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>947.1500244140625</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>947.1500244140625</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>44873</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45621.59375</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>947.1500244140625</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>948.7000122070312</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>943.6500244140625</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>96584</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45621.63541666666</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>944.6500244140625</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>944.6500244140625</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>941</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>942.9500122070312</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>942.9500122070312</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>89078</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1688"/>
+  <dimension ref="A1:R1702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94269,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94323,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94377,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94431,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94485,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94539,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94593,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94639,7 +94653,7 @@
         <v>48</v>
       </c>
       <c r="O1682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1682" t="n">
         <v>0</v>
@@ -94647,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94701,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94755,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94809,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94863,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>1</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94917,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94971,7 +94997,765 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45622.38541666666</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>948.9000244140625</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>952.6500244140625</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>944.7999877929688</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>948.25</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>948.25</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45622.42708333334</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>948.75</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>949.25</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>945.5499877929688</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>948</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>948</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>38508</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45622.46875</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>948.0499877929688</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>948.5</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>944.3499755859375</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>47245</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45622.51041666666</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>944.3499755859375</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>945</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>943.0999755859375</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>943.9500122070312</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>943.9500122070312</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>52592</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45622.55208333334</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>943.6500244140625</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>946.75</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>943.6500244140625</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>945.6500244140625</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>945.6500244140625</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>32207</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45622.59375</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>945.5999755859375</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>948</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>944.5499877929688</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>945.0499877929688</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>945.0499877929688</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>43726</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45622.63541666666</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>945.1500244140625</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>945.3499755859375</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>940.1500244140625</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>940.1500244140625</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>940.1500244140625</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>77109</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45623.38541666666</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>944.9500122070312</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>947.6500244140625</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>941</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>945.8499755859375</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>945.8499755859375</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45623.42708333334</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>945.7999877929688</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>946</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>944.0499877929688</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>945.5</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>945.5</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>59235</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45623.46875</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>945.2000122070312</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>945.9500122070312</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>944</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>47047</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45623.51041666666</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>946.5</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>946.25</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>946.25</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>67156</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45623.55208333334</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>946.25</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>946.4500122070312</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>943.3499755859375</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>943.8499755859375</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>943.8499755859375</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>69620</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45623.59375</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>944.0999755859375</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>945.9500122070312</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>939.5499877929688</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>939.9500122070312</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>939.9500122070312</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>160365</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45623.63541666666</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>940.4000244140625</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>940.9000244140625</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>938</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>114377</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1702"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95053,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95107,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95161,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95215,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95269,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95323,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95377,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95431,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95485,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95539,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95593,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95647,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95701,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95755,7 +95781,765 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45624.38541666666</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>943.75</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>950.5999755859375</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>939</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>945.75</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>945.75</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45624.42708333334</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>945.9000244140625</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>947.9000244140625</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>938.25</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>222862</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45624.46875</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>941.4000244140625</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>941.7999877929688</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>938.4000244140625</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>940</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>940</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>108485</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45624.51041666666</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>939.9500122070312</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>940.25</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>937.5999755859375</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>938.0999755859375</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>938.0999755859375</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>77576</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45624.55208333334</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>938</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>939.25</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>935.1500244140625</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>935.7000122070312</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>935.7000122070312</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>129189</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45624.59375</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>936.0999755859375</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>937.1500244140625</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>932.0999755859375</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>932.6500244140625</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>932.6500244140625</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>231242</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45624.63541666666</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>932.75</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>934.7000122070312</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>931.75</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>934.5</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>934.5</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>150474</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45625.38541666666</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>934.0499877929688</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>942.5</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>934.0499877929688</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>934.6500244140625</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>934.6500244140625</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45625.42708333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>933.7000122070312</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>938.0499877929688</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>933.3499755859375</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>936.9500122070312</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>936.9500122070312</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>81984</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45625.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>936.75</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>940</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>934.8499755859375</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>80067</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45625.51041666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>937.25</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>938</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>938</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>39683</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45625.55208333334</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>937.7000122070312</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>939.75</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>936</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>937</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>937</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>66342</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45625.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>937.4000244140625</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>938.4500122070312</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>936.0499877929688</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>937.75</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>937.75</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>92666</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45625.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>937.75</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>937.2999877929688</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>54412</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95837,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95891,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95945,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95999,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96053,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96107,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96153,7 +96165,7 @@
         <v>48</v>
       </c>
       <c r="O1709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1709" t="n">
         <v>0</v>
@@ -96161,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96215,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96269,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96323,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96377,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96431,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96485,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96539,7 +96565,765 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45628.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>938.0999755859375</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>955.6500244140625</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>936.4000244140625</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45628.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>956.4500122070312</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>947.7000122070312</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>949.1500244140625</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>949.1500244140625</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>253529</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45628.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>949.2000122070312</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>951</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>947.5999755859375</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>949</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>949</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>68758</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45628.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>948.9500122070312</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>951.7999877929688</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>948.3499755859375</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>949</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>949</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>58316</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45628.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>949</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>948.4500122070312</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>949.7999877929688</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>949.7999877929688</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>54109</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45628.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>949.7999877929688</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>951.25</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>947.4000244140625</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>948.4000244140625</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>948.4000244140625</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>155382</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45628.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>948.3499755859375</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>950</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>947.7000122070312</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>948.5999755859375</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>948.5999755859375</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>86889</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45629.38541666666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>953.6500244140625</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>972.9500122070312</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>951.5999755859375</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>969</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>969</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45629.42708333334</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>969</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>971.2999877929688</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>963.7000122070312</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>963.7000122070312</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>963.7000122070312</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>153852</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45629.46875</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>963.7000122070312</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>964.9000244140625</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>961.0999755859375</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>961.0999755859375</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>961.0999755859375</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>64256</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45629.51041666666</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>961.0999755859375</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>962.5</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>960.2000122070312</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>65096</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45629.55208333334</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>960.9500122070312</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>959</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>961.4500122070312</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>961.4500122070312</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>61189</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45629.59375</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>961.0499877929688</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>961.0499877929688</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>956.4500122070312</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>957</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>957</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>98795</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45629.63541666666</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>956.75</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>957</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>955</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>956.7999877929688</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>956.7999877929688</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>70850</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1730"/>
+  <dimension ref="A1:R1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96621,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96675,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96729,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96783,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>1</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96837,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96891,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96945,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -96991,7 +97005,7 @@
         <v>49</v>
       </c>
       <c r="O1724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1724" t="n">
         <v>0</v>
@@ -96999,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97053,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97107,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97161,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97215,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97269,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97323,7 +97349,765 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45630.38541666666</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>962.0499877929688</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>968.6500244140625</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>961.5499877929688</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>964.5</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>964.5</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45630.42708333334</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>963.75</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>964.4500122070312</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>958.75</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>961</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>961</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>114208</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45630.46875</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>961</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>962.3499755859375</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>953.8499755859375</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>953.8499755859375</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>149319</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45630.51041666666</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>953.8499755859375</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>950.5</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>952.0499877929688</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>952.0499877929688</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>114718</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45630.55208333334</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>952.5</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>953.6500244140625</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>952.2000122070312</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>952.2000122070312</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>82590</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45630.59375</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>951.5999755859375</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>953.3499755859375</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>948.9500122070312</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>951.0999755859375</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>951.0999755859375</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>230914</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45630.63541666666</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>951.6500244140625</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>953.1500244140625</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>951.0499877929688</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>951.7999877929688</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>951.7999877929688</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>55167</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45631.38541666666</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>955</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>962.8499755859375</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>954.2000122070312</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45631.42708333334</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>956.6500244140625</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>957.1500244140625</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>952</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>953.0999755859375</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>953.0999755859375</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>104554</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45631.46875</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>953.5</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>956.4000244140625</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>952.5</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>955.2000122070312</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>955.2000122070312</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>80421</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45631.51041666666</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>955.1500244140625</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>956.4000244140625</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>953.0499877929688</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>953.6500244140625</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>953.6500244140625</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>77633</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45631.55208333334</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>953.6500244140625</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>956</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>952.5499877929688</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>954.4000244140625</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>954.4000244140625</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>120850</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45631.59375</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>954.0499877929688</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>950.1500244140625</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>955.2000122070312</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>955.2000122070312</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>183917</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45631.63541666666</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>955.4500122070312</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>955.8499755859375</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>953.3499755859375</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>955.25</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>955.25</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>69827</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1744"/>
+  <dimension ref="A1:R1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97405,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97459,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97513,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97567,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97621,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97667,7 +97677,7 @@
         <v>49</v>
       </c>
       <c r="O1736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1736" t="n">
         <v>0</v>
@@ -97675,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97729,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97783,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97837,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97891,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97945,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -97999,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98053,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98107,7 +98133,765 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45632.38541666666</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>958</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>959.7999877929688</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>953.0999755859375</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>954.0499877929688</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>954.0499877929688</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45632.42708333334</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>954.0499877929688</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>956.9000244140625</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>951.9000244140625</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>953</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>953</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>157202</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45632.46875</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>953</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>953.8499755859375</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>951.7999877929688</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>952.7999877929688</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>952.7999877929688</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>54448</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45632.51041666666</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>952.7999877929688</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>954.4500122070312</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>952.5</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>954.0999755859375</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>954.0999755859375</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>41660</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45632.55208333334</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>954.2000122070312</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>954.25</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>949.9000244140625</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>88048</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45632.59375</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>951.0999755859375</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>955.5</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>950.7999877929688</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>955.2000122070312</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>955.2000122070312</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>108851</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45632.63541666666</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>955</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>955.25</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>952.7999877929688</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>955</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>955</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>69938</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45635.38541666666</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>954</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>959.4000244140625</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>949.3499755859375</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>950.2999877929688</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>950.2999877929688</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45635.42708333334</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>950.2999877929688</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>953.4500122070312</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>950.2999877929688</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>952.5</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>952.5</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>63536</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45635.46875</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>952.2999877929688</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>953.0499877929688</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>950</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>951.25</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>951.25</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>98429</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45635.51041666666</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>951.2000122070312</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>951.9000244140625</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>949.4500122070312</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>950.5999755859375</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>950.5999755859375</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>97637</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45635.55208333334</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>951.25</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>951.25</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>947.7000122070312</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>948.3499755859375</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>948.3499755859375</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>80294</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45635.59375</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>948.2999877929688</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>950.7999877929688</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>947.0499877929688</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>948.0999755859375</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>948.0999755859375</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>97868</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45635.63541666666</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>948.0999755859375</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>948.4500122070312</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>947</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>947.4500122070312</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>947.4500122070312</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>78019</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1758"/>
+  <dimension ref="A1:R1772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98189,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98243,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98297,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>1</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98351,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98405,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98459,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98513,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98567,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98621,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98675,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98729,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98783,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98837,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98891,7 +98917,765 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45636.38541666666</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>949.9500122070312</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>951.5999755859375</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45636.42708333334</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>950.2000122070312</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>947</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>948</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>948</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>46479</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45636.46875</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>948</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>948</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>941.4000244140625</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>942</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>942</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>172864</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45636.51041666666</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>941.9000244140625</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>942</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>938</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>939.5999755859375</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>939.5999755859375</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>170214</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45636.55208333334</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>939.2999877929688</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>939.9500122070312</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>937</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>938</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>938</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>88224</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45636.59375</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>938.1500244140625</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>943.9500122070312</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>937.2999877929688</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>943</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>943</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>174110</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45636.63541666666</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>943</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>943.7000122070312</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>941.5</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>82875</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45637.38541666666</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>944.6500244140625</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>946.3499755859375</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>942</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>944</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>944</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45637.42708333334</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>944</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>945</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>943.0499877929688</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>943.8499755859375</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>943.8499755859375</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>53979</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45637.46875</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>943.9000244140625</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>942.5499877929688</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>42238</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45637.51041666666</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>944.4500122070312</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>944.5999755859375</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>941.4500122070312</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>941.4500122070312</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>941.4500122070312</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>72728</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45637.55208333334</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>943</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>942.2000122070312</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>942.2000122070312</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>46081</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45637.59375</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>942.2000122070312</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>944</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>941.4000244140625</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>943.25</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>943.25</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>63290</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45637.63541666666</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>943.7000122070312</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>942.0999755859375</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>942.4000244140625</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>942.4000244140625</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>58132</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1772"/>
+  <dimension ref="A1:R1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98973,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99027,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99081,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99135,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99181,7 +99189,7 @@
         <v>50</v>
       </c>
       <c r="O1763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1763" t="n">
         <v>0</v>
@@ -99189,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99243,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99297,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99351,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99405,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99459,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99513,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99567,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99621,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99675,7 +99701,765 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45638.38541666666</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>945</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>954</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>943.9000244140625</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>950.75</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>950.75</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45638.42708333334</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>950.7999877929688</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>952</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>947.2999877929688</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>949</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>949</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>123295</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45638.46875</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>948.9000244140625</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>948.9500122070312</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>944</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>944.4000244140625</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>944.4000244140625</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>78056</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45638.51041666666</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>944.4000244140625</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>945.9000244140625</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>943.1500244140625</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>943.75</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>943.75</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>65733</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45638.55208333334</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>943.75</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>944</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>941.4500122070312</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>942.6500244140625</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>942.6500244140625</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>63548</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45638.59375</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>942.5499877929688</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>944.2000122070312</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>941.75</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>941.75</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>86415</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45638.63541666666</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>943</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>943.5499877929688</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>940.2999877929688</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>941.6500244140625</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>941.6500244140625</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>66064</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45639.38541666666</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>942.7000122070312</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>946.9500122070312</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>937.0499877929688</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>942</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>942</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45639.42708333334</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>941.9500122070312</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>942</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>935.1500244140625</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>938.0999755859375</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>938.0999755859375</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>159737</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45639.46875</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>938.0499877929688</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>940.2000122070312</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>936</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>937.4500122070312</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>937.4500122070312</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>88274</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45639.51041666666</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>937.75</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>936.1500244140625</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>936.8499755859375</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>936.8499755859375</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>96232</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45639.55208333334</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>936.7999877929688</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>938.5999755859375</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>935</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>937.4000244140625</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>937.4000244140625</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>133200</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45639.59375</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>937.5499877929688</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>938.7000122070312</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>937</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>938.3499755859375</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>938.3499755859375</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>110059</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45639.63541666666</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>938.4500122070312</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>938.4500122070312</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>936.9000244140625</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>937.5499877929688</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>937.5499877929688</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>73225</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1786"/>
+  <dimension ref="A1:R1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99757,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99811,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>1</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99865,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99919,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99973,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100027,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100081,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100135,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100189,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100243,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100297,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100351,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>2</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100405,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100459,7 +100485,765 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45642.38541666666</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>938.8499755859375</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>941.75</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>936.4500122070312</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>939.4000244140625</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>939.4000244140625</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45642.42708333334</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>939.1500244140625</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>939.3499755859375</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>933.8499755859375</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>933.9000244140625</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>933.9000244140625</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>136683</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45642.46875</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>933.7000122070312</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>935.8499755859375</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>933.5</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>934</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>934</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>65605</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45642.51041666666</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>933.8499755859375</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>935</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>931.25</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>82013</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45642.55208333334</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>933.75</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>932</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>932.7999877929688</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>932.7999877929688</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>96531</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45642.59375</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>932.7999877929688</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>933.8499755859375</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>932.0499877929688</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>108858</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45642.63541666666</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>931.2999877929688</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>931.75</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>931.75</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>92933</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45643.38541666666</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>934</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>936</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>930.4500122070312</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>931.0999755859375</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>931.0999755859375</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45643.42708333334</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>931.0499877929688</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>932.1500244140625</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>927.5</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>931.3499755859375</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>931.3499755859375</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>140954</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45643.46875</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>930.75</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>931.7000122070312</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>929</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>930.9500122070312</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>930.9500122070312</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>88533</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45643.51041666666</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>931</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>932</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>930.0499877929688</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>930.3499755859375</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>930.3499755859375</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>65507</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45643.55208333334</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>930</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>930.8499755859375</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>927.4500122070312</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>928.0999755859375</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>928.0999755859375</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>130062</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45643.59375</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>928.5999755859375</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>933</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>927.5</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>932.5999755859375</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>932.5999755859375</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>236059</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45643.63541666666</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>935.0499877929688</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>935.5</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>931.4000244140625</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>933.7999877929688</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>933.7999877929688</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>143246</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1800"/>
+  <dimension ref="A1:R1814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100541,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100595,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100649,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100703,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100757,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100811,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100865,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100919,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100973,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101027,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101081,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101135,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101189,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101243,7 +101269,765 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45644.38541666666</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>935.0499877929688</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>936.2999877929688</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>928.75</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>928.9500122070312</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>928.9500122070312</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>138676</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45644.42708333334</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>928.9500122070312</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>931.75</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>928.4000244140625</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>928.5999755859375</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>928.5999755859375</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>74136</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45644.46875</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>928.9000244140625</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>930.0999755859375</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>926.0999755859375</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>926.4000244140625</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>926.4000244140625</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>98742</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45644.51041666666</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>926.0999755859375</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>927.5499877929688</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>920.0499877929688</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>920.8499755859375</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>920.8499755859375</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>184122</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45644.55208333334</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>920.8499755859375</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>921</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>918.6500244140625</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>918.75</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>918.75</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>135610</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45644.59375</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>918.7000122070312</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>919.4500122070312</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>914.8499755859375</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>915.5499877929688</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>915.5499877929688</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>193859</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45644.63541666666</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>915.2000122070312</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>915.2999877929688</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>913.2000122070312</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>914.9500122070312</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>914.9500122070312</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>117604</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45645.38541666666</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>909</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>918.75</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>904.4000244140625</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>913.75</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>913.75</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45645.42708333334</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>913.75</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>915.5999755859375</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>908.25</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>908.5</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>908.5</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>101774</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45645.46875</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>908.0499877929688</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>910.6500244140625</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>907.2999877929688</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>908.8499755859375</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>908.8499755859375</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>77208</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45645.51041666666</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>908.8499755859375</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>910.7000122070312</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>908.5999755859375</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>910.5999755859375</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>910.5999755859375</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>53756</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45645.55208333334</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>910.5999755859375</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>912.3499755859375</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>909</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>911.7999877929688</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>911.7999877929688</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>63534</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45645.59375</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>911.7999877929688</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>913.3499755859375</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>908.5499877929688</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>912.2000122070312</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>912.2000122070312</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>114457</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45645.63541666666</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>912</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>913.0999755859375</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>910.2999877929688</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>911.7000122070312</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>911.7000122070312</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>85628</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1814"/>
+  <dimension ref="A1:R1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101325,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101379,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101433,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101487,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101541,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101595,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101649,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101703,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101757,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101811,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101865,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101919,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>2</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101973,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102027,7 +102053,737 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45646.38541666666</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>914.0499877929688</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>920</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>912.0999755859375</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>913.9000244140625</v>
+      </c>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45646.42708333334</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>913.9500122070312</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>916.9500122070312</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>910.7999877929688</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>913.2999877929688</v>
+      </c>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="n">
+        <v>99889</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45646.46875</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>913.2999877929688</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>914</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>911.0999755859375</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>913</v>
+      </c>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="n">
+        <v>39174</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45646.51041666666</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>912.6500244140625</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>912.6500244140625</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>904</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>904.5</v>
+      </c>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="n">
+        <v>108624</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45646.55208333334</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>904.6500244140625</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>904.75</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>897.5999755859375</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>897.9500122070312</v>
+      </c>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="n">
+        <v>203936</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45646.59375</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>897.9500122070312</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>901.1500244140625</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>891</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>891</v>
+      </c>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="n">
+        <v>314165</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45646.63541666666</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>891.25</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>894.9500122070312</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>890</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>893.9500122070312</v>
+      </c>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="n">
+        <v>202651</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45649.38541666666</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>898</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>901.9500122070312</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>885.5499877929688</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>888</v>
+      </c>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45649.42708333334</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>888.9000244140625</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>891.4500122070312</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>883.2999877929688</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>890.9500122070312</v>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="n">
+        <v>123717</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45649.46875</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>890.4500122070312</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>890.8499755859375</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>886.0999755859375</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>886.7999877929688</v>
+      </c>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="n">
+        <v>83723</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45649.51041666666</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>887.3499755859375</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>889</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>884.4000244140625</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>886.9500122070312</v>
+      </c>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="n">
+        <v>70739</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45649.55208333334</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>886.7000122070312</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>889.5499877929688</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>885</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>889.0999755859375</v>
+      </c>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="n">
+        <v>74888</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45649.59375</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>889.2000122070312</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>892.0499877929688</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>888.5</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>889.7999877929688</v>
+      </c>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="n">
+        <v>124731</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45649.63541666666</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>889.4000244140625</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>890.2000122070312</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>888.2999877929688</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>888.5</v>
+      </c>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="n">
+        <v>45651</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TATATECH.NS.xlsx
+++ b/stock_historical_data/60m/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1828"/>
+  <dimension ref="A1:R1835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102107,7 +102107,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102159,7 +102161,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102211,7 +102215,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102263,7 +102269,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102315,7 +102323,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102367,7 +102377,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102419,7 +102431,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102471,7 +102485,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102515,7 +102531,7 @@
         <v>52</v>
       </c>
       <c r="O1823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1823" t="n">
         <v>0</v>
@@ -102523,7 +102539,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102575,7 +102593,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102627,7 +102647,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102679,7 +102701,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102731,7 +102755,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102783,7 +102809,373 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45650.38541666666</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>893.5999755859375</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>922.8499755859375</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>889.5499877929688</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>913</v>
+      </c>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45650.42708333334</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>912.5999755859375</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>915.5</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>911.9500122070312</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>913.0499877929688</v>
+      </c>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="n">
+        <v>138908</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45650.46875</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>913.4500122070312</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>916.4500122070312</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>909</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>909.4500122070312</v>
+      </c>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="n">
+        <v>85108</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45650.51041666666</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>909.4500122070312</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>913.5</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>907</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>910</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>50178</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45650.55208333334</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>910</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>912.9500122070312</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>907.1500244140625</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>909</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>67957</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45650.59375</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>909</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>910.7999877929688</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>907.1500244140625</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>907.75</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>79455</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45650.63541666666</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>907.7999877929688</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>909.9500122070312</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>907.5</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>909</v>
+      </c>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="n">
+        <v>45908</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
